--- a/database/industries/methanol/zagros/product/monthly.xlsx
+++ b/database/industries/methanol/zagros/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2DEB0-1BE2-411B-9C16-9D9D14C516CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -246,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +440,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -451,7 +452,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -498,6 +499,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +551,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,17 +719,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -749,7 +784,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -806,7 +841,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,7 +898,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -918,7 +953,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1010,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1067,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1087,7 +1122,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1299,7 +1334,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1391,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>510445</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1674,7 +1709,7 @@
         <v>240508</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1731,13 +1766,11 @@
       <c r="BA13" s="15"/>
       <c r="BB13" s="15"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
         <v>60</v>
@@ -1890,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>61</v>
       </c>
@@ -2047,7 +2080,7 @@
         <v>750953</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2102,7 +2135,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2157,7 +2190,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2212,7 +2245,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2424,7 +2457,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2514,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>55</v>
       </c>
@@ -2640,7 +2673,7 @@
         <v>69257</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>57</v>
       </c>
@@ -2799,7 +2832,7 @@
         <v>199761</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
@@ -2856,13 +2889,11 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>60</v>
@@ -3015,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
@@ -3072,13 +3103,11 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>60</v>
@@ -3231,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -3388,7 +3417,7 @@
         <v>269018</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3443,7 +3472,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3498,7 +3527,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3553,7 +3582,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
@@ -3710,7 +3739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3765,7 +3794,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>65</v>
       </c>
@@ -3822,7 +3851,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>124853</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -4140,7 +4169,7 @@
         <v>16241222</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
@@ -4197,7 +4226,7 @@
       <c r="BA37" s="15"/>
       <c r="BB37" s="15"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>59</v>
       </c>
@@ -4356,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>68</v>
       </c>
@@ -4413,7 +4442,7 @@
       <c r="BA39" s="15"/>
       <c r="BB39" s="15"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>64</v>
       </c>
@@ -4572,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
@@ -4629,7 +4658,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>70</v>
       </c>
@@ -4788,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +4974,7 @@
         <v>16366075</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5000,7 +5029,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5055,7 +5084,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5110,7 +5139,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>71</v>
       </c>
@@ -5267,7 +5296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5322,7 +5351,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>72</v>
       </c>
@@ -5379,7 +5408,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -5538,7 +5567,7 @@
         <v>1802749</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>57</v>
       </c>

--- a/database/industries/methanol/zagros/product/monthly.xlsx
+++ b/database/industries/methanol/zagros/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2DEB0-1BE2-411B-9C16-9D9D14C516CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1CBAD7-BD00-4A53-9434-E176B009C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>بخار</t>
@@ -1400,154 +1400,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>650691</v>
+        <v>629690</v>
       </c>
       <c r="F11" s="11">
-        <v>569248</v>
+        <v>617864</v>
       </c>
       <c r="G11" s="11">
-        <v>629690</v>
+        <v>598906</v>
       </c>
       <c r="H11" s="11">
-        <v>617864</v>
+        <v>460275</v>
       </c>
       <c r="I11" s="11">
-        <v>598906</v>
+        <v>334261</v>
       </c>
       <c r="J11" s="11">
-        <v>460275</v>
+        <v>528702</v>
       </c>
       <c r="K11" s="11">
-        <v>334261</v>
+        <v>623538</v>
       </c>
       <c r="L11" s="11">
-        <v>528702</v>
+        <v>426692</v>
       </c>
       <c r="M11" s="11">
-        <v>623538</v>
+        <v>563664</v>
       </c>
       <c r="N11" s="11">
-        <v>426692</v>
+        <v>597693</v>
       </c>
       <c r="O11" s="11">
-        <v>563664</v>
+        <v>589882</v>
       </c>
       <c r="P11" s="11">
-        <v>597693</v>
+        <v>453846</v>
       </c>
       <c r="Q11" s="11">
-        <v>589882</v>
+        <v>576896</v>
       </c>
       <c r="R11" s="11">
-        <v>453846</v>
+        <v>554334</v>
       </c>
       <c r="S11" s="11">
-        <v>576896</v>
+        <v>245006</v>
       </c>
       <c r="T11" s="11">
-        <v>554334</v>
+        <v>60587</v>
       </c>
       <c r="U11" s="11">
-        <v>245006</v>
+        <v>516744</v>
       </c>
       <c r="V11" s="11">
-        <v>60587</v>
+        <v>581404</v>
       </c>
       <c r="W11" s="11">
-        <v>516744</v>
+        <v>570157</v>
       </c>
       <c r="X11" s="11">
-        <v>581404</v>
+        <v>567023</v>
       </c>
       <c r="Y11" s="11">
-        <v>570157</v>
+        <v>567528</v>
       </c>
       <c r="Z11" s="11">
-        <v>567023</v>
+        <v>550076</v>
       </c>
       <c r="AA11" s="11">
-        <v>567528</v>
+        <v>514391</v>
       </c>
       <c r="AB11" s="11">
-        <v>550076</v>
+        <v>545342</v>
       </c>
       <c r="AC11" s="11">
-        <v>514391</v>
+        <v>546755</v>
       </c>
       <c r="AD11" s="11">
-        <v>545342</v>
+        <v>550227</v>
       </c>
       <c r="AE11" s="11">
-        <v>546755</v>
+        <v>350481</v>
       </c>
       <c r="AF11" s="11">
-        <v>550227</v>
+        <v>486620</v>
       </c>
       <c r="AG11" s="11">
-        <v>350481</v>
+        <v>550730</v>
       </c>
       <c r="AH11" s="11">
-        <v>486620</v>
+        <v>578202</v>
       </c>
       <c r="AI11" s="11">
-        <v>550730</v>
+        <v>563356</v>
       </c>
       <c r="AJ11" s="11">
-        <v>578202</v>
+        <v>570158</v>
       </c>
       <c r="AK11" s="11">
-        <v>563356</v>
+        <v>545105</v>
       </c>
       <c r="AL11" s="11">
-        <v>570158</v>
+        <v>568657</v>
       </c>
       <c r="AM11" s="11">
-        <v>545105</v>
+        <v>366499</v>
       </c>
       <c r="AN11" s="11">
-        <v>568657</v>
+        <v>437716</v>
       </c>
       <c r="AO11" s="11">
-        <v>366499</v>
+        <v>271712</v>
       </c>
       <c r="AP11" s="11">
-        <v>437716</v>
+        <v>332706</v>
       </c>
       <c r="AQ11" s="11">
-        <v>271712</v>
+        <v>294402</v>
       </c>
       <c r="AR11" s="11">
-        <v>332706</v>
+        <v>372733</v>
       </c>
       <c r="AS11" s="11">
-        <v>294402</v>
+        <v>573014</v>
       </c>
       <c r="AT11" s="11">
-        <v>372733</v>
+        <v>482842</v>
       </c>
       <c r="AU11" s="11">
-        <v>573014</v>
+        <v>490496</v>
       </c>
       <c r="AV11" s="11">
-        <v>482842</v>
+        <v>665450</v>
       </c>
       <c r="AW11" s="11">
-        <v>490496</v>
+        <v>532153</v>
       </c>
       <c r="AX11" s="11">
-        <v>665450</v>
+        <v>490972</v>
       </c>
       <c r="AY11" s="11">
-        <v>532153</v>
+        <v>451689</v>
       </c>
       <c r="AZ11" s="11">
-        <v>490972</v>
+        <v>510445</v>
       </c>
       <c r="BA11" s="11">
-        <v>451689</v>
+        <v>508885</v>
       </c>
       <c r="BB11" s="11">
-        <v>510445</v>
+        <v>406829</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1559,154 +1559,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>303270</v>
+        <v>296927</v>
       </c>
       <c r="F12" s="13">
-        <v>265932</v>
+        <v>296113</v>
       </c>
       <c r="G12" s="13">
-        <v>296927</v>
+        <v>294201</v>
       </c>
       <c r="H12" s="13">
-        <v>296113</v>
+        <v>230431</v>
       </c>
       <c r="I12" s="13">
-        <v>294201</v>
+        <v>160112</v>
       </c>
       <c r="J12" s="13">
-        <v>230431</v>
+        <v>259547</v>
       </c>
       <c r="K12" s="13">
-        <v>160112</v>
+        <v>288608</v>
       </c>
       <c r="L12" s="13">
-        <v>259547</v>
+        <v>173197</v>
       </c>
       <c r="M12" s="13">
-        <v>288608</v>
+        <v>271869</v>
       </c>
       <c r="N12" s="13">
-        <v>173197</v>
+        <v>287535</v>
       </c>
       <c r="O12" s="13">
-        <v>271869</v>
+        <v>284147</v>
       </c>
       <c r="P12" s="13">
-        <v>287535</v>
+        <v>220152</v>
       </c>
       <c r="Q12" s="13">
-        <v>284147</v>
+        <v>283240</v>
       </c>
       <c r="R12" s="13">
-        <v>220152</v>
+        <v>271374</v>
       </c>
       <c r="S12" s="13">
-        <v>283240</v>
+        <v>113721</v>
       </c>
       <c r="T12" s="13">
-        <v>271374</v>
+        <v>27871</v>
       </c>
       <c r="U12" s="13">
-        <v>113721</v>
+        <v>256483</v>
       </c>
       <c r="V12" s="13">
-        <v>27871</v>
+        <v>288928</v>
       </c>
       <c r="W12" s="13">
-        <v>256483</v>
+        <v>285620</v>
       </c>
       <c r="X12" s="13">
-        <v>288928</v>
+        <v>281976</v>
       </c>
       <c r="Y12" s="13">
-        <v>285620</v>
+        <v>230927</v>
       </c>
       <c r="Z12" s="13">
-        <v>281976</v>
+        <v>266562</v>
       </c>
       <c r="AA12" s="13">
-        <v>230927</v>
+        <v>248618</v>
       </c>
       <c r="AB12" s="13">
-        <v>266562</v>
+        <v>256943</v>
       </c>
       <c r="AC12" s="13">
-        <v>248618</v>
+        <v>250768</v>
       </c>
       <c r="AD12" s="13">
-        <v>256943</v>
+        <v>257295</v>
       </c>
       <c r="AE12" s="13">
-        <v>250768</v>
+        <v>164273</v>
       </c>
       <c r="AF12" s="13">
-        <v>257295</v>
+        <v>223864</v>
       </c>
       <c r="AG12" s="13">
-        <v>164273</v>
+        <v>259283</v>
       </c>
       <c r="AH12" s="13">
-        <v>223864</v>
+        <v>270065</v>
       </c>
       <c r="AI12" s="13">
-        <v>259283</v>
+        <v>260477</v>
       </c>
       <c r="AJ12" s="13">
-        <v>270065</v>
+        <v>256946</v>
       </c>
       <c r="AK12" s="13">
-        <v>260477</v>
+        <v>245189</v>
       </c>
       <c r="AL12" s="13">
-        <v>256946</v>
+        <v>258320</v>
       </c>
       <c r="AM12" s="13">
-        <v>245189</v>
+        <v>174723</v>
       </c>
       <c r="AN12" s="13">
-        <v>258320</v>
+        <v>204534</v>
       </c>
       <c r="AO12" s="13">
-        <v>174723</v>
+        <v>129767</v>
       </c>
       <c r="AP12" s="13">
-        <v>204534</v>
+        <v>149686</v>
       </c>
       <c r="AQ12" s="13">
-        <v>129767</v>
+        <v>127634</v>
       </c>
       <c r="AR12" s="13">
-        <v>149686</v>
+        <v>174447</v>
       </c>
       <c r="AS12" s="13">
-        <v>127634</v>
+        <v>262301</v>
       </c>
       <c r="AT12" s="13">
-        <v>174447</v>
+        <v>221696</v>
       </c>
       <c r="AU12" s="13">
-        <v>262301</v>
+        <v>226033</v>
       </c>
       <c r="AV12" s="13">
-        <v>221696</v>
+        <v>306408</v>
       </c>
       <c r="AW12" s="13">
-        <v>226033</v>
+        <v>241486</v>
       </c>
       <c r="AX12" s="13">
-        <v>306408</v>
+        <v>227045</v>
       </c>
       <c r="AY12" s="13">
-        <v>241486</v>
+        <v>211510</v>
       </c>
       <c r="AZ12" s="13">
-        <v>227046</v>
+        <v>240508</v>
       </c>
       <c r="BA12" s="13">
-        <v>211510</v>
+        <v>240432</v>
       </c>
       <c r="BB12" s="13">
-        <v>240508</v>
+        <v>191703</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1832,11 +1832,11 @@
       <c r="X14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>60</v>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
       </c>
       <c r="AA14" s="17">
         <v>0</v>
@@ -1930,154 +1930,154 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
-        <v>953961</v>
+        <v>926617</v>
       </c>
       <c r="F15" s="19">
-        <v>835180</v>
+        <v>913977</v>
       </c>
       <c r="G15" s="19">
-        <v>926617</v>
+        <v>893107</v>
       </c>
       <c r="H15" s="19">
-        <v>913977</v>
+        <v>690706</v>
       </c>
       <c r="I15" s="19">
-        <v>893107</v>
+        <v>494373</v>
       </c>
       <c r="J15" s="19">
-        <v>690706</v>
+        <v>788249</v>
       </c>
       <c r="K15" s="19">
-        <v>494373</v>
+        <v>912146</v>
       </c>
       <c r="L15" s="19">
-        <v>788249</v>
+        <v>599889</v>
       </c>
       <c r="M15" s="19">
-        <v>912146</v>
+        <v>835533</v>
       </c>
       <c r="N15" s="19">
-        <v>599889</v>
+        <v>885228</v>
       </c>
       <c r="O15" s="19">
-        <v>835533</v>
+        <v>874029</v>
       </c>
       <c r="P15" s="19">
-        <v>885228</v>
+        <v>673998</v>
       </c>
       <c r="Q15" s="19">
-        <v>874029</v>
+        <v>860136</v>
       </c>
       <c r="R15" s="19">
-        <v>673998</v>
+        <v>825708</v>
       </c>
       <c r="S15" s="19">
-        <v>860136</v>
+        <v>358727</v>
       </c>
       <c r="T15" s="19">
-        <v>825708</v>
+        <v>88458</v>
       </c>
       <c r="U15" s="19">
-        <v>358727</v>
+        <v>773227</v>
       </c>
       <c r="V15" s="19">
-        <v>88458</v>
+        <v>870332</v>
       </c>
       <c r="W15" s="19">
-        <v>773227</v>
+        <v>855777</v>
       </c>
       <c r="X15" s="19">
-        <v>870332</v>
+        <v>848999</v>
       </c>
       <c r="Y15" s="19">
-        <v>855777</v>
+        <v>798455</v>
       </c>
       <c r="Z15" s="19">
-        <v>848999</v>
+        <v>816638</v>
       </c>
       <c r="AA15" s="19">
-        <v>798455</v>
+        <v>763009</v>
       </c>
       <c r="AB15" s="19">
-        <v>816638</v>
+        <v>802285</v>
       </c>
       <c r="AC15" s="19">
-        <v>763009</v>
+        <v>797523</v>
       </c>
       <c r="AD15" s="19">
-        <v>802285</v>
+        <v>807522</v>
       </c>
       <c r="AE15" s="19">
-        <v>797523</v>
+        <v>514754</v>
       </c>
       <c r="AF15" s="19">
-        <v>807522</v>
+        <v>710484</v>
       </c>
       <c r="AG15" s="19">
-        <v>514754</v>
+        <v>810013</v>
       </c>
       <c r="AH15" s="19">
-        <v>710484</v>
+        <v>848267</v>
       </c>
       <c r="AI15" s="19">
-        <v>810013</v>
+        <v>823833</v>
       </c>
       <c r="AJ15" s="19">
-        <v>848267</v>
+        <v>827104</v>
       </c>
       <c r="AK15" s="19">
-        <v>823833</v>
+        <v>790294</v>
       </c>
       <c r="AL15" s="19">
-        <v>827104</v>
+        <v>826977</v>
       </c>
       <c r="AM15" s="19">
-        <v>790294</v>
+        <v>541222</v>
       </c>
       <c r="AN15" s="19">
-        <v>826977</v>
+        <v>642250</v>
       </c>
       <c r="AO15" s="19">
-        <v>541222</v>
+        <v>401479</v>
       </c>
       <c r="AP15" s="19">
-        <v>642250</v>
+        <v>482392</v>
       </c>
       <c r="AQ15" s="19">
-        <v>401479</v>
+        <v>422036</v>
       </c>
       <c r="AR15" s="19">
-        <v>482392</v>
+        <v>547180</v>
       </c>
       <c r="AS15" s="19">
-        <v>422036</v>
+        <v>835315</v>
       </c>
       <c r="AT15" s="19">
-        <v>547180</v>
+        <v>704538</v>
       </c>
       <c r="AU15" s="19">
-        <v>835315</v>
+        <v>716529</v>
       </c>
       <c r="AV15" s="19">
-        <v>704538</v>
+        <v>971858</v>
       </c>
       <c r="AW15" s="19">
-        <v>716529</v>
+        <v>773639</v>
       </c>
       <c r="AX15" s="19">
-        <v>971858</v>
+        <v>718017</v>
       </c>
       <c r="AY15" s="19">
-        <v>773639</v>
+        <v>663199</v>
       </c>
       <c r="AZ15" s="19">
-        <v>718018</v>
+        <v>750953</v>
       </c>
       <c r="BA15" s="19">
-        <v>663199</v>
+        <v>749317</v>
       </c>
       <c r="BB15" s="19">
-        <v>750953</v>
+        <v>598532</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2523,154 +2523,154 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>227947</v>
+        <v>230358</v>
       </c>
       <c r="F22" s="11">
-        <v>196481</v>
+        <v>200298</v>
       </c>
       <c r="G22" s="11">
-        <v>230358</v>
+        <v>163469</v>
       </c>
       <c r="H22" s="11">
-        <v>200298</v>
+        <v>99915</v>
       </c>
       <c r="I22" s="11">
-        <v>163469</v>
+        <v>75062</v>
       </c>
       <c r="J22" s="11">
-        <v>99915</v>
+        <v>110514</v>
       </c>
       <c r="K22" s="11">
-        <v>75062</v>
+        <v>122365</v>
       </c>
       <c r="L22" s="11">
-        <v>110514</v>
+        <v>72215</v>
       </c>
       <c r="M22" s="11">
-        <v>122365</v>
+        <v>124945</v>
       </c>
       <c r="N22" s="11">
-        <v>72215</v>
+        <v>136300</v>
       </c>
       <c r="O22" s="11">
-        <v>124945</v>
+        <v>128030</v>
       </c>
       <c r="P22" s="11">
-        <v>136300</v>
+        <v>101839</v>
       </c>
       <c r="Q22" s="11">
-        <v>128030</v>
+        <v>123567</v>
       </c>
       <c r="R22" s="11">
-        <v>101839</v>
+        <v>111297</v>
       </c>
       <c r="S22" s="11">
-        <v>123567</v>
+        <v>57206</v>
       </c>
       <c r="T22" s="11">
-        <v>111297</v>
+        <v>10396</v>
       </c>
       <c r="U22" s="11">
-        <v>57206</v>
+        <v>116386</v>
       </c>
       <c r="V22" s="11">
-        <v>10396</v>
+        <v>137622</v>
       </c>
       <c r="W22" s="11">
-        <v>116386</v>
+        <v>123223</v>
       </c>
       <c r="X22" s="11">
-        <v>137622</v>
+        <v>121169</v>
       </c>
       <c r="Y22" s="11">
-        <v>123223</v>
+        <v>92945</v>
       </c>
       <c r="Z22" s="11">
-        <v>121169</v>
+        <v>118112</v>
       </c>
       <c r="AA22" s="11">
-        <v>92945</v>
+        <v>113097</v>
       </c>
       <c r="AB22" s="11">
-        <v>118112</v>
+        <v>120048</v>
       </c>
       <c r="AC22" s="11">
-        <v>113097</v>
+        <v>112161</v>
       </c>
       <c r="AD22" s="11">
-        <v>120048</v>
+        <v>93674</v>
       </c>
       <c r="AE22" s="11">
-        <v>112161</v>
+        <v>55487</v>
       </c>
       <c r="AF22" s="11">
-        <v>93674</v>
+        <v>74384</v>
       </c>
       <c r="AG22" s="11">
-        <v>55487</v>
+        <v>96352</v>
       </c>
       <c r="AH22" s="11">
-        <v>74384</v>
+        <v>114608</v>
       </c>
       <c r="AI22" s="11">
-        <v>96352</v>
+        <v>110556</v>
       </c>
       <c r="AJ22" s="11">
-        <v>114608</v>
+        <v>107639</v>
       </c>
       <c r="AK22" s="11">
-        <v>110556</v>
+        <v>101988</v>
       </c>
       <c r="AL22" s="11">
-        <v>107639</v>
+        <v>121193</v>
       </c>
       <c r="AM22" s="11">
-        <v>101988</v>
+        <v>63766</v>
       </c>
       <c r="AN22" s="11">
-        <v>121193</v>
+        <v>71881</v>
       </c>
       <c r="AO22" s="11">
-        <v>63766</v>
+        <v>39231</v>
       </c>
       <c r="AP22" s="11">
-        <v>71881</v>
+        <v>46986</v>
       </c>
       <c r="AQ22" s="11">
-        <v>39231</v>
+        <v>49585</v>
       </c>
       <c r="AR22" s="11">
-        <v>46986</v>
+        <v>65562</v>
       </c>
       <c r="AS22" s="11">
-        <v>49585</v>
+        <v>97676</v>
       </c>
       <c r="AT22" s="11">
-        <v>66039</v>
+        <v>82520</v>
       </c>
       <c r="AU22" s="11">
-        <v>97676</v>
+        <v>89625</v>
       </c>
       <c r="AV22" s="11">
-        <v>82520</v>
+        <v>134805</v>
       </c>
       <c r="AW22" s="11">
-        <v>89625</v>
+        <v>93397</v>
       </c>
       <c r="AX22" s="11">
-        <v>134805</v>
+        <v>88193</v>
       </c>
       <c r="AY22" s="11">
-        <v>93397</v>
+        <v>64618</v>
       </c>
       <c r="AZ22" s="11">
-        <v>88193</v>
+        <v>69257</v>
       </c>
       <c r="BA22" s="11">
-        <v>64618</v>
+        <v>71617</v>
       </c>
       <c r="BB22" s="11">
-        <v>69257</v>
+        <v>71905</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -2682,154 +2682,154 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>242897</v>
+        <v>362886</v>
       </c>
       <c r="F23" s="13">
-        <v>184624</v>
+        <v>345641</v>
       </c>
       <c r="G23" s="13">
-        <v>362886</v>
+        <v>232895</v>
       </c>
       <c r="H23" s="13">
-        <v>345641</v>
+        <v>260868</v>
       </c>
       <c r="I23" s="13">
-        <v>232895</v>
+        <v>146086</v>
       </c>
       <c r="J23" s="13">
-        <v>260868</v>
+        <v>282889</v>
       </c>
       <c r="K23" s="13">
-        <v>146086</v>
+        <v>276063</v>
       </c>
       <c r="L23" s="13">
-        <v>282889</v>
+        <v>211821</v>
       </c>
       <c r="M23" s="13">
-        <v>276063</v>
+        <v>200250</v>
       </c>
       <c r="N23" s="13">
-        <v>211821</v>
+        <v>350903</v>
       </c>
       <c r="O23" s="13">
-        <v>200250</v>
+        <v>193275</v>
       </c>
       <c r="P23" s="13">
-        <v>350903</v>
+        <v>239019</v>
       </c>
       <c r="Q23" s="13">
-        <v>193275</v>
+        <v>345771</v>
       </c>
       <c r="R23" s="13">
-        <v>239019</v>
+        <v>320471</v>
       </c>
       <c r="S23" s="13">
-        <v>345771</v>
+        <v>189100</v>
       </c>
       <c r="T23" s="13">
-        <v>320471</v>
+        <v>6464</v>
       </c>
       <c r="U23" s="13">
-        <v>189100</v>
+        <v>202799</v>
       </c>
       <c r="V23" s="13">
-        <v>6464</v>
+        <v>262323</v>
       </c>
       <c r="W23" s="13">
-        <v>202799</v>
+        <v>275898</v>
       </c>
       <c r="X23" s="13">
-        <v>262323</v>
+        <v>282523</v>
       </c>
       <c r="Y23" s="13">
-        <v>275898</v>
+        <v>283049</v>
       </c>
       <c r="Z23" s="13">
-        <v>282523</v>
+        <v>249490</v>
       </c>
       <c r="AA23" s="13">
-        <v>283049</v>
+        <v>200900</v>
       </c>
       <c r="AB23" s="13">
-        <v>249490</v>
+        <v>350688</v>
       </c>
       <c r="AC23" s="13">
-        <v>200900</v>
+        <v>287395</v>
       </c>
       <c r="AD23" s="13">
-        <v>350688</v>
+        <v>288275</v>
       </c>
       <c r="AE23" s="13">
-        <v>287395</v>
+        <v>158667</v>
       </c>
       <c r="AF23" s="13">
-        <v>288275</v>
+        <v>135939</v>
       </c>
       <c r="AG23" s="13">
-        <v>158667</v>
+        <v>261080</v>
       </c>
       <c r="AH23" s="13">
-        <v>135939</v>
+        <v>294473</v>
       </c>
       <c r="AI23" s="13">
-        <v>261080</v>
+        <v>305042</v>
       </c>
       <c r="AJ23" s="13">
-        <v>294473</v>
+        <v>227249</v>
       </c>
       <c r="AK23" s="13">
-        <v>305042</v>
+        <v>231258</v>
       </c>
       <c r="AL23" s="13">
-        <v>227249</v>
+        <v>293509</v>
       </c>
       <c r="AM23" s="13">
-        <v>231258</v>
+        <v>188469</v>
       </c>
       <c r="AN23" s="13">
-        <v>293509</v>
+        <v>218814</v>
       </c>
       <c r="AO23" s="13">
-        <v>188469</v>
+        <v>103138</v>
       </c>
       <c r="AP23" s="13">
-        <v>218814</v>
+        <v>154183</v>
       </c>
       <c r="AQ23" s="13">
-        <v>103138</v>
+        <v>72417</v>
       </c>
       <c r="AR23" s="13">
-        <v>154183</v>
+        <v>95944</v>
       </c>
       <c r="AS23" s="13">
-        <v>72417</v>
+        <v>262664</v>
       </c>
       <c r="AT23" s="13">
-        <v>95944</v>
+        <v>211221</v>
       </c>
       <c r="AU23" s="13">
-        <v>262664</v>
+        <v>257058</v>
       </c>
       <c r="AV23" s="13">
-        <v>211221</v>
+        <v>315387</v>
       </c>
       <c r="AW23" s="13">
-        <v>257058</v>
+        <v>307143</v>
       </c>
       <c r="AX23" s="13">
-        <v>315387</v>
+        <v>146225</v>
       </c>
       <c r="AY23" s="13">
-        <v>307143</v>
+        <v>288939</v>
       </c>
       <c r="AZ23" s="13">
-        <v>149913</v>
+        <v>199761</v>
       </c>
       <c r="BA23" s="13">
-        <v>288939</v>
+        <v>190634</v>
       </c>
       <c r="BB23" s="13">
-        <v>199761</v>
+        <v>153654</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -2955,11 +2955,11 @@
       <c r="X25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z25" s="17" t="s">
-        <v>60</v>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>0</v>
       </c>
       <c r="AA25" s="17">
         <v>0</v>
@@ -3169,11 +3169,11 @@
       <c r="X27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>60</v>
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>0</v>
@@ -3267,154 +3267,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>470844</v>
+        <v>593244</v>
       </c>
       <c r="F28" s="19">
-        <v>381105</v>
+        <v>545939</v>
       </c>
       <c r="G28" s="19">
-        <v>593244</v>
+        <v>396364</v>
       </c>
       <c r="H28" s="19">
-        <v>545939</v>
+        <v>360783</v>
       </c>
       <c r="I28" s="19">
-        <v>396364</v>
+        <v>221148</v>
       </c>
       <c r="J28" s="19">
-        <v>360783</v>
+        <v>393403</v>
       </c>
       <c r="K28" s="19">
-        <v>221148</v>
+        <v>398428</v>
       </c>
       <c r="L28" s="19">
-        <v>393403</v>
+        <v>284036</v>
       </c>
       <c r="M28" s="19">
-        <v>398428</v>
+        <v>325195</v>
       </c>
       <c r="N28" s="19">
-        <v>284036</v>
+        <v>487203</v>
       </c>
       <c r="O28" s="19">
-        <v>325195</v>
+        <v>321305</v>
       </c>
       <c r="P28" s="19">
-        <v>487203</v>
+        <v>340858</v>
       </c>
       <c r="Q28" s="19">
-        <v>321305</v>
+        <v>469338</v>
       </c>
       <c r="R28" s="19">
-        <v>340858</v>
+        <v>431768</v>
       </c>
       <c r="S28" s="19">
-        <v>469338</v>
+        <v>246306</v>
       </c>
       <c r="T28" s="19">
-        <v>431768</v>
+        <v>16860</v>
       </c>
       <c r="U28" s="19">
-        <v>246306</v>
+        <v>319185</v>
       </c>
       <c r="V28" s="19">
-        <v>16860</v>
+        <v>399945</v>
       </c>
       <c r="W28" s="19">
-        <v>319185</v>
+        <v>399121</v>
       </c>
       <c r="X28" s="19">
-        <v>399945</v>
+        <v>403692</v>
       </c>
       <c r="Y28" s="19">
-        <v>399121</v>
+        <v>375994</v>
       </c>
       <c r="Z28" s="19">
-        <v>403692</v>
+        <v>367602</v>
       </c>
       <c r="AA28" s="19">
-        <v>375994</v>
+        <v>313997</v>
       </c>
       <c r="AB28" s="19">
-        <v>367602</v>
+        <v>470736</v>
       </c>
       <c r="AC28" s="19">
-        <v>313997</v>
+        <v>399556</v>
       </c>
       <c r="AD28" s="19">
-        <v>470736</v>
+        <v>381949</v>
       </c>
       <c r="AE28" s="19">
-        <v>399556</v>
+        <v>214154</v>
       </c>
       <c r="AF28" s="19">
-        <v>381949</v>
+        <v>210323</v>
       </c>
       <c r="AG28" s="19">
-        <v>214154</v>
+        <v>357432</v>
       </c>
       <c r="AH28" s="19">
-        <v>210323</v>
+        <v>409081</v>
       </c>
       <c r="AI28" s="19">
-        <v>357432</v>
+        <v>415598</v>
       </c>
       <c r="AJ28" s="19">
-        <v>409081</v>
+        <v>334888</v>
       </c>
       <c r="AK28" s="19">
-        <v>415598</v>
+        <v>333246</v>
       </c>
       <c r="AL28" s="19">
-        <v>334888</v>
+        <v>414702</v>
       </c>
       <c r="AM28" s="19">
-        <v>333246</v>
+        <v>252235</v>
       </c>
       <c r="AN28" s="19">
-        <v>414702</v>
+        <v>290695</v>
       </c>
       <c r="AO28" s="19">
-        <v>252235</v>
+        <v>142369</v>
       </c>
       <c r="AP28" s="19">
-        <v>290695</v>
+        <v>201169</v>
       </c>
       <c r="AQ28" s="19">
-        <v>142369</v>
+        <v>122002</v>
       </c>
       <c r="AR28" s="19">
-        <v>201169</v>
+        <v>161506</v>
       </c>
       <c r="AS28" s="19">
-        <v>122002</v>
+        <v>360340</v>
       </c>
       <c r="AT28" s="19">
-        <v>161983</v>
+        <v>293741</v>
       </c>
       <c r="AU28" s="19">
-        <v>360340</v>
+        <v>346683</v>
       </c>
       <c r="AV28" s="19">
-        <v>293741</v>
+        <v>450192</v>
       </c>
       <c r="AW28" s="19">
-        <v>346683</v>
+        <v>400540</v>
       </c>
       <c r="AX28" s="19">
-        <v>450192</v>
+        <v>234418</v>
       </c>
       <c r="AY28" s="19">
-        <v>400540</v>
+        <v>353557</v>
       </c>
       <c r="AZ28" s="19">
-        <v>238106</v>
+        <v>269018</v>
       </c>
       <c r="BA28" s="19">
-        <v>353557</v>
+        <v>262251</v>
       </c>
       <c r="BB28" s="19">
-        <v>269018</v>
+        <v>225559</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3860,154 +3860,154 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>100651</v>
+        <v>101716</v>
       </c>
       <c r="F35" s="11">
-        <v>86758</v>
+        <v>88443</v>
       </c>
       <c r="G35" s="11">
-        <v>101716</v>
+        <v>72181</v>
       </c>
       <c r="H35" s="11">
-        <v>88443</v>
+        <v>44118</v>
       </c>
       <c r="I35" s="11">
-        <v>72181</v>
+        <v>33143</v>
       </c>
       <c r="J35" s="11">
-        <v>44118</v>
+        <v>48798</v>
       </c>
       <c r="K35" s="11">
-        <v>33143</v>
+        <v>54031</v>
       </c>
       <c r="L35" s="11">
-        <v>48798</v>
+        <v>31887</v>
       </c>
       <c r="M35" s="11">
-        <v>54031</v>
+        <v>55170</v>
       </c>
       <c r="N35" s="11">
-        <v>31887</v>
+        <v>60184</v>
       </c>
       <c r="O35" s="11">
-        <v>55170</v>
+        <v>56532</v>
       </c>
       <c r="P35" s="11">
-        <v>60184</v>
+        <v>44968</v>
       </c>
       <c r="Q35" s="11">
-        <v>56532</v>
+        <v>54562</v>
       </c>
       <c r="R35" s="11">
-        <v>44968</v>
+        <v>49144</v>
       </c>
       <c r="S35" s="11">
-        <v>54562</v>
+        <v>25260</v>
       </c>
       <c r="T35" s="11">
-        <v>49144</v>
+        <v>7305</v>
       </c>
       <c r="U35" s="11">
-        <v>25260</v>
+        <v>81786</v>
       </c>
       <c r="V35" s="11">
-        <v>7305</v>
+        <v>92090</v>
       </c>
       <c r="W35" s="11">
-        <v>81786</v>
+        <v>82822</v>
       </c>
       <c r="X35" s="11">
-        <v>92090</v>
+        <v>81441</v>
       </c>
       <c r="Y35" s="11">
-        <v>82822</v>
+        <v>62471</v>
       </c>
       <c r="Z35" s="11">
-        <v>81441</v>
+        <v>79387</v>
       </c>
       <c r="AA35" s="11">
-        <v>62471</v>
+        <v>76015</v>
       </c>
       <c r="AB35" s="11">
-        <v>79387</v>
+        <v>80688</v>
       </c>
       <c r="AC35" s="11">
-        <v>76015</v>
+        <v>75387</v>
       </c>
       <c r="AD35" s="11">
-        <v>80688</v>
+        <v>62961</v>
       </c>
       <c r="AE35" s="11">
-        <v>75387</v>
+        <v>37295</v>
       </c>
       <c r="AF35" s="11">
-        <v>62961</v>
+        <v>49995</v>
       </c>
       <c r="AG35" s="11">
-        <v>37295</v>
+        <v>64762</v>
       </c>
       <c r="AH35" s="11">
-        <v>49995</v>
+        <v>91826</v>
       </c>
       <c r="AI35" s="11">
-        <v>64762</v>
+        <v>88580</v>
       </c>
       <c r="AJ35" s="11">
-        <v>91826</v>
+        <v>86243</v>
       </c>
       <c r="AK35" s="11">
-        <v>88580</v>
+        <v>81715</v>
       </c>
       <c r="AL35" s="11">
-        <v>86243</v>
+        <v>97103</v>
       </c>
       <c r="AM35" s="11">
-        <v>81715</v>
+        <v>51091</v>
       </c>
       <c r="AN35" s="11">
-        <v>97103</v>
+        <v>57592</v>
       </c>
       <c r="AO35" s="11">
-        <v>51091</v>
+        <v>31433</v>
       </c>
       <c r="AP35" s="11">
-        <v>57592</v>
+        <v>37646</v>
       </c>
       <c r="AQ35" s="11">
-        <v>31433</v>
+        <v>39732</v>
       </c>
       <c r="AR35" s="11">
-        <v>37646</v>
+        <v>52526</v>
       </c>
       <c r="AS35" s="11">
-        <v>39732</v>
+        <v>78260</v>
       </c>
       <c r="AT35" s="11">
-        <v>52912</v>
+        <v>145457</v>
       </c>
       <c r="AU35" s="11">
-        <v>78260</v>
+        <v>164877</v>
       </c>
       <c r="AV35" s="11">
-        <v>66116</v>
+        <v>243020</v>
       </c>
       <c r="AW35" s="11">
-        <v>157981</v>
+        <v>168371</v>
       </c>
       <c r="AX35" s="11">
-        <v>243020</v>
+        <v>158990</v>
       </c>
       <c r="AY35" s="11">
-        <v>168371</v>
+        <v>116490</v>
       </c>
       <c r="AZ35" s="11">
-        <v>158990</v>
+        <v>124853</v>
       </c>
       <c r="BA35" s="11">
-        <v>116490</v>
+        <v>129107</v>
       </c>
       <c r="BB35" s="11">
-        <v>124853</v>
+        <v>129627</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4019,154 +4019,154 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>7043709</v>
+        <v>10998951</v>
       </c>
       <c r="F36" s="13">
-        <v>5480792</v>
+        <v>7486419</v>
       </c>
       <c r="G36" s="13">
-        <v>10998951</v>
+        <v>4833757</v>
       </c>
       <c r="H36" s="13">
-        <v>7486419</v>
+        <v>5651789</v>
       </c>
       <c r="I36" s="13">
-        <v>4833757</v>
+        <v>3869074</v>
       </c>
       <c r="J36" s="13">
-        <v>5651789</v>
+        <v>7493799</v>
       </c>
       <c r="K36" s="13">
-        <v>3869074</v>
+        <v>8340013</v>
       </c>
       <c r="L36" s="13">
-        <v>7493799</v>
+        <v>6259414</v>
       </c>
       <c r="M36" s="13">
-        <v>8340013</v>
+        <v>6023757</v>
       </c>
       <c r="N36" s="13">
-        <v>6259414</v>
+        <v>9893541</v>
       </c>
       <c r="O36" s="13">
-        <v>6023757</v>
+        <v>4634376</v>
       </c>
       <c r="P36" s="13">
-        <v>9893541</v>
+        <v>5974637</v>
       </c>
       <c r="Q36" s="13">
-        <v>4634376</v>
+        <v>8457374</v>
       </c>
       <c r="R36" s="13">
-        <v>5974637</v>
+        <v>7806844</v>
       </c>
       <c r="S36" s="13">
-        <v>8457374</v>
+        <v>4789641</v>
       </c>
       <c r="T36" s="13">
-        <v>7806844</v>
+        <v>116646</v>
       </c>
       <c r="U36" s="13">
-        <v>4789641</v>
+        <v>5592861</v>
       </c>
       <c r="V36" s="13">
-        <v>116646</v>
+        <v>7038460</v>
       </c>
       <c r="W36" s="13">
-        <v>5592861</v>
+        <v>6712883</v>
       </c>
       <c r="X36" s="13">
-        <v>7038460</v>
+        <v>6981262</v>
       </c>
       <c r="Y36" s="13">
-        <v>6712883</v>
+        <v>7724185</v>
       </c>
       <c r="Z36" s="13">
-        <v>6981262</v>
+        <v>7529937</v>
       </c>
       <c r="AA36" s="13">
-        <v>7724185</v>
+        <v>7261702</v>
       </c>
       <c r="AB36" s="13">
-        <v>7529937</v>
+        <v>16570693</v>
       </c>
       <c r="AC36" s="13">
-        <v>7261702</v>
+        <v>16283392</v>
       </c>
       <c r="AD36" s="13">
-        <v>16570693</v>
+        <v>18057243</v>
       </c>
       <c r="AE36" s="13">
-        <v>16283392</v>
+        <v>11391054</v>
       </c>
       <c r="AF36" s="13">
-        <v>18057243</v>
+        <v>9649868</v>
       </c>
       <c r="AG36" s="13">
-        <v>11391054</v>
+        <v>18137465</v>
       </c>
       <c r="AH36" s="13">
-        <v>9649868</v>
+        <v>20971831</v>
       </c>
       <c r="AI36" s="13">
-        <v>18137465</v>
+        <v>20147116</v>
       </c>
       <c r="AJ36" s="13">
-        <v>20971831</v>
+        <v>14720762</v>
       </c>
       <c r="AK36" s="13">
-        <v>20147116</v>
+        <v>16342267</v>
       </c>
       <c r="AL36" s="13">
-        <v>14720762</v>
+        <v>22054259</v>
       </c>
       <c r="AM36" s="13">
-        <v>16342267</v>
+        <v>14384276</v>
       </c>
       <c r="AN36" s="13">
-        <v>22054259</v>
+        <v>20314240</v>
       </c>
       <c r="AO36" s="13">
-        <v>14384276</v>
+        <v>9875429</v>
       </c>
       <c r="AP36" s="13">
-        <v>20314240</v>
+        <v>13606921</v>
       </c>
       <c r="AQ36" s="13">
-        <v>9875429</v>
+        <v>5878939</v>
       </c>
       <c r="AR36" s="13">
-        <v>13606921</v>
+        <v>7936566</v>
       </c>
       <c r="AS36" s="13">
-        <v>5878939</v>
+        <v>24647384</v>
       </c>
       <c r="AT36" s="13">
-        <v>7922251</v>
+        <v>19799735</v>
       </c>
       <c r="AU36" s="13">
-        <v>24647384</v>
+        <v>22237466</v>
       </c>
       <c r="AV36" s="13">
-        <v>19902637</v>
+        <v>26525758</v>
       </c>
       <c r="AW36" s="13">
-        <v>23752776</v>
+        <v>23756680</v>
       </c>
       <c r="AX36" s="13">
-        <v>26916659</v>
+        <v>11450515</v>
       </c>
       <c r="AY36" s="13">
-        <v>25371847</v>
+        <v>22892092</v>
       </c>
       <c r="AZ36" s="13">
-        <v>11669221</v>
+        <v>16880345</v>
       </c>
       <c r="BA36" s="13">
-        <v>22810644</v>
+        <v>16172463</v>
       </c>
       <c r="BB36" s="13">
-        <v>16241222</v>
+        <v>12839532</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4294,11 +4294,11 @@
       <c r="X38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z38" s="17" t="s">
-        <v>60</v>
+      <c r="Y38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>0</v>
       </c>
       <c r="AA38" s="17">
         <v>0</v>
@@ -4510,11 +4510,11 @@
       <c r="X40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y40" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z40" s="17" t="s">
-        <v>60</v>
+      <c r="Y40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>0</v>
       </c>
       <c r="AA40" s="17">
         <v>0</v>
@@ -4726,11 +4726,11 @@
       <c r="X42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>60</v>
+      <c r="Y42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>0</v>
       </c>
       <c r="AA42" s="11">
         <v>0</v>
@@ -4824,154 +4824,154 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
-        <v>7144360</v>
+        <v>11100667</v>
       </c>
       <c r="F43" s="19">
-        <v>5567550</v>
+        <v>7574862</v>
       </c>
       <c r="G43" s="19">
-        <v>11100667</v>
+        <v>4905938</v>
       </c>
       <c r="H43" s="19">
-        <v>7574862</v>
+        <v>5695907</v>
       </c>
       <c r="I43" s="19">
-        <v>4905938</v>
+        <v>3902217</v>
       </c>
       <c r="J43" s="19">
-        <v>5695907</v>
+        <v>7542597</v>
       </c>
       <c r="K43" s="19">
-        <v>3902217</v>
+        <v>8394044</v>
       </c>
       <c r="L43" s="19">
-        <v>7542597</v>
+        <v>6291301</v>
       </c>
       <c r="M43" s="19">
-        <v>8394044</v>
+        <v>6078927</v>
       </c>
       <c r="N43" s="19">
-        <v>6291301</v>
+        <v>9953725</v>
       </c>
       <c r="O43" s="19">
-        <v>6078927</v>
+        <v>4690908</v>
       </c>
       <c r="P43" s="19">
-        <v>9953725</v>
+        <v>6019605</v>
       </c>
       <c r="Q43" s="19">
-        <v>4690908</v>
+        <v>8511936</v>
       </c>
       <c r="R43" s="19">
-        <v>6019605</v>
+        <v>7855988</v>
       </c>
       <c r="S43" s="19">
-        <v>8511936</v>
+        <v>4814901</v>
       </c>
       <c r="T43" s="19">
-        <v>7855988</v>
+        <v>123951</v>
       </c>
       <c r="U43" s="19">
-        <v>4814901</v>
+        <v>5674647</v>
       </c>
       <c r="V43" s="19">
-        <v>123951</v>
+        <v>7130550</v>
       </c>
       <c r="W43" s="19">
-        <v>5674647</v>
+        <v>6795705</v>
       </c>
       <c r="X43" s="19">
-        <v>7130550</v>
+        <v>7062703</v>
       </c>
       <c r="Y43" s="19">
-        <v>6795705</v>
+        <v>7786656</v>
       </c>
       <c r="Z43" s="19">
-        <v>7062703</v>
+        <v>7609324</v>
       </c>
       <c r="AA43" s="19">
-        <v>7786656</v>
+        <v>7337717</v>
       </c>
       <c r="AB43" s="19">
-        <v>7609324</v>
+        <v>16651381</v>
       </c>
       <c r="AC43" s="19">
-        <v>7337717</v>
+        <v>16358779</v>
       </c>
       <c r="AD43" s="19">
-        <v>16651381</v>
+        <v>18120204</v>
       </c>
       <c r="AE43" s="19">
-        <v>16358779</v>
+        <v>11428349</v>
       </c>
       <c r="AF43" s="19">
-        <v>18120204</v>
+        <v>9699863</v>
       </c>
       <c r="AG43" s="19">
-        <v>11428349</v>
+        <v>18202227</v>
       </c>
       <c r="AH43" s="19">
-        <v>9699863</v>
+        <v>21063657</v>
       </c>
       <c r="AI43" s="19">
-        <v>18202227</v>
+        <v>20235696</v>
       </c>
       <c r="AJ43" s="19">
-        <v>21063657</v>
+        <v>14807005</v>
       </c>
       <c r="AK43" s="19">
-        <v>20235696</v>
+        <v>16423982</v>
       </c>
       <c r="AL43" s="19">
-        <v>14807005</v>
+        <v>22151362</v>
       </c>
       <c r="AM43" s="19">
-        <v>16423982</v>
+        <v>14435367</v>
       </c>
       <c r="AN43" s="19">
-        <v>22151362</v>
+        <v>20371832</v>
       </c>
       <c r="AO43" s="19">
-        <v>14435367</v>
+        <v>9906862</v>
       </c>
       <c r="AP43" s="19">
-        <v>20371832</v>
+        <v>13644567</v>
       </c>
       <c r="AQ43" s="19">
-        <v>9906862</v>
+        <v>5918671</v>
       </c>
       <c r="AR43" s="19">
-        <v>13644567</v>
+        <v>7989092</v>
       </c>
       <c r="AS43" s="19">
-        <v>5918671</v>
+        <v>24725644</v>
       </c>
       <c r="AT43" s="19">
-        <v>7975163</v>
+        <v>19945192</v>
       </c>
       <c r="AU43" s="19">
-        <v>24725644</v>
+        <v>22402343</v>
       </c>
       <c r="AV43" s="19">
-        <v>19968753</v>
+        <v>26768778</v>
       </c>
       <c r="AW43" s="19">
-        <v>23910757</v>
+        <v>23925051</v>
       </c>
       <c r="AX43" s="19">
-        <v>27159679</v>
+        <v>11609505</v>
       </c>
       <c r="AY43" s="19">
-        <v>25540218</v>
+        <v>23008582</v>
       </c>
       <c r="AZ43" s="19">
-        <v>11828211</v>
+        <v>17005198</v>
       </c>
       <c r="BA43" s="19">
-        <v>22927134</v>
+        <v>16301570</v>
       </c>
       <c r="BB43" s="19">
-        <v>16366075</v>
+        <v>12969159</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5417,154 +5417,154 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>441554</v>
+        <v>441556</v>
       </c>
       <c r="F50" s="11">
-        <v>441559</v>
+        <v>441557</v>
       </c>
       <c r="G50" s="11">
-        <v>441556</v>
+        <v>441558</v>
       </c>
       <c r="H50" s="11">
-        <v>441557</v>
+        <v>441555</v>
       </c>
       <c r="I50" s="11">
-        <v>441558</v>
+        <v>441542</v>
       </c>
       <c r="J50" s="11">
         <v>441555</v>
       </c>
       <c r="K50" s="11">
-        <v>441542</v>
+        <v>441556</v>
       </c>
       <c r="L50" s="11">
+        <v>441556</v>
+      </c>
+      <c r="M50" s="11">
+        <v>441554</v>
+      </c>
+      <c r="N50" s="11">
         <v>441555</v>
       </c>
-      <c r="M50" s="11">
-        <v>441556</v>
-      </c>
-      <c r="N50" s="11">
-        <v>441556</v>
-      </c>
       <c r="O50" s="11">
-        <v>441554</v>
+        <v>441553</v>
       </c>
       <c r="P50" s="11">
-        <v>441555</v>
+        <v>441560</v>
       </c>
       <c r="Q50" s="11">
-        <v>441553</v>
+        <v>441558</v>
       </c>
       <c r="R50" s="11">
-        <v>441560</v>
+        <v>441557</v>
       </c>
       <c r="S50" s="11">
-        <v>441558</v>
+        <v>441562</v>
       </c>
       <c r="T50" s="11">
-        <v>441557</v>
+        <v>702674</v>
       </c>
       <c r="U50" s="11">
-        <v>441562</v>
+        <v>702713</v>
       </c>
       <c r="V50" s="11">
-        <v>702674</v>
+        <v>669155</v>
       </c>
       <c r="W50" s="11">
-        <v>702713</v>
+        <v>672131</v>
       </c>
       <c r="X50" s="11">
-        <v>669155</v>
+        <v>672127</v>
       </c>
       <c r="Y50" s="11">
+        <v>672129</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>672133</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>672122</v>
+      </c>
+      <c r="AB50" s="11">
         <v>672131</v>
       </c>
-      <c r="Z50" s="11">
-        <v>672127</v>
-      </c>
-      <c r="AA50" s="11">
+      <c r="AC50" s="11">
+        <v>672132</v>
+      </c>
+      <c r="AD50" s="11">
         <v>672129</v>
-      </c>
-      <c r="AB50" s="11">
-        <v>672133</v>
-      </c>
-      <c r="AC50" s="11">
-        <v>672122</v>
-      </c>
-      <c r="AD50" s="11">
-        <v>672131</v>
       </c>
       <c r="AE50" s="11">
         <v>672132</v>
       </c>
       <c r="AF50" s="11">
-        <v>672129</v>
+        <v>672120</v>
       </c>
       <c r="AG50" s="11">
-        <v>672132</v>
+        <v>672140</v>
       </c>
       <c r="AH50" s="11">
-        <v>672120</v>
+        <v>801218</v>
       </c>
       <c r="AI50" s="11">
-        <v>672140</v>
+        <v>801223</v>
       </c>
       <c r="AJ50" s="11">
-        <v>801218</v>
+        <v>801224</v>
       </c>
       <c r="AK50" s="11">
-        <v>801223</v>
+        <v>801222</v>
       </c>
       <c r="AL50" s="11">
-        <v>801224</v>
+        <v>801226</v>
       </c>
       <c r="AM50" s="11">
-        <v>801222</v>
+        <v>801226</v>
       </c>
       <c r="AN50" s="11">
-        <v>801226</v>
+        <v>801213</v>
       </c>
       <c r="AO50" s="11">
-        <v>801226</v>
+        <v>801229</v>
       </c>
       <c r="AP50" s="11">
-        <v>801213</v>
+        <v>801217</v>
       </c>
       <c r="AQ50" s="11">
-        <v>801229</v>
+        <v>801291</v>
       </c>
       <c r="AR50" s="11">
-        <v>801217</v>
+        <v>801219</v>
       </c>
       <c r="AS50" s="11">
-        <v>801291</v>
+        <v>801220</v>
       </c>
       <c r="AT50" s="11">
-        <v>801224</v>
+        <v>1762688</v>
       </c>
       <c r="AU50" s="11">
-        <v>801220</v>
+        <v>1802748</v>
       </c>
       <c r="AV50" s="11">
-        <v>801212</v>
+        <v>1802752</v>
       </c>
       <c r="AW50" s="11">
-        <v>1762689</v>
+        <v>1802745</v>
       </c>
       <c r="AX50" s="11">
-        <v>1802752</v>
+        <v>1802751</v>
       </c>
       <c r="AY50" s="11">
-        <v>1802745</v>
+        <v>1802748</v>
       </c>
       <c r="AZ50" s="11">
-        <v>1802751</v>
+        <v>1802749</v>
       </c>
       <c r="BA50" s="11">
-        <v>1802748</v>
+        <v>1802742</v>
       </c>
       <c r="BB50" s="11">
-        <v>1802749</v>
+        <v>1802754</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -5576,154 +5576,154 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>28998748</v>
+        <v>30309659</v>
       </c>
       <c r="F51" s="13">
-        <v>29686238</v>
+        <v>21659522</v>
       </c>
       <c r="G51" s="13">
-        <v>30309659</v>
+        <v>20755091</v>
       </c>
       <c r="H51" s="13">
-        <v>21659522</v>
+        <v>21665321</v>
       </c>
       <c r="I51" s="13">
-        <v>20755091</v>
+        <v>26484906</v>
       </c>
       <c r="J51" s="13">
-        <v>21665321</v>
+        <v>26490245</v>
       </c>
       <c r="K51" s="13">
-        <v>26484906</v>
+        <v>30210543</v>
       </c>
       <c r="L51" s="13">
-        <v>26490245</v>
+        <v>29550488</v>
       </c>
       <c r="M51" s="13">
-        <v>30210543</v>
+        <v>30081184</v>
       </c>
       <c r="N51" s="13">
-        <v>29550488</v>
+        <v>28194518</v>
       </c>
       <c r="O51" s="13">
-        <v>30081184</v>
+        <v>23978145</v>
       </c>
       <c r="P51" s="13">
-        <v>28194518</v>
+        <v>24996494</v>
       </c>
       <c r="Q51" s="13">
-        <v>23978145</v>
+        <v>24459466</v>
       </c>
       <c r="R51" s="13">
-        <v>24996494</v>
+        <v>24360532</v>
       </c>
       <c r="S51" s="13">
-        <v>24459466</v>
+        <v>25328614</v>
       </c>
       <c r="T51" s="13">
-        <v>24360532</v>
+        <v>18045483</v>
       </c>
       <c r="U51" s="13">
-        <v>25328614</v>
+        <v>27578346</v>
       </c>
       <c r="V51" s="13">
-        <v>18045483</v>
+        <v>26831228</v>
       </c>
       <c r="W51" s="13">
-        <v>27578346</v>
+        <v>24331059</v>
       </c>
       <c r="X51" s="13">
-        <v>26831228</v>
+        <v>24710436</v>
       </c>
       <c r="Y51" s="13">
-        <v>24331059</v>
+        <v>27289244</v>
       </c>
       <c r="Z51" s="13">
-        <v>24710436</v>
+        <v>30181289</v>
       </c>
       <c r="AA51" s="13">
-        <v>27289244</v>
+        <v>36145783</v>
       </c>
       <c r="AB51" s="13">
-        <v>30181289</v>
+        <v>47251953</v>
       </c>
       <c r="AC51" s="13">
-        <v>36145783</v>
+        <v>56658578</v>
       </c>
       <c r="AD51" s="13">
-        <v>47251953</v>
+        <v>62639038</v>
       </c>
       <c r="AE51" s="13">
-        <v>56658578</v>
+        <v>71792084</v>
       </c>
       <c r="AF51" s="13">
-        <v>62639038</v>
+        <v>70986631</v>
       </c>
       <c r="AG51" s="13">
-        <v>71792084</v>
+        <v>69470909</v>
       </c>
       <c r="AH51" s="13">
-        <v>70986631</v>
+        <v>71218206</v>
       </c>
       <c r="AI51" s="13">
-        <v>69470909</v>
+        <v>66047023</v>
       </c>
       <c r="AJ51" s="13">
-        <v>71218206</v>
+        <v>64778116</v>
       </c>
       <c r="AK51" s="13">
-        <v>66047023</v>
+        <v>70666818</v>
       </c>
       <c r="AL51" s="13">
-        <v>64778116</v>
+        <v>75139975</v>
       </c>
       <c r="AM51" s="13">
-        <v>70666818</v>
+        <v>76321898</v>
       </c>
       <c r="AN51" s="13">
-        <v>75139975</v>
+        <v>92837957</v>
       </c>
       <c r="AO51" s="13">
-        <v>76321898</v>
+        <v>95750120</v>
       </c>
       <c r="AP51" s="13">
-        <v>92837957</v>
+        <v>88251659</v>
       </c>
       <c r="AQ51" s="13">
-        <v>95750120</v>
+        <v>81181753</v>
       </c>
       <c r="AR51" s="13">
-        <v>88251659</v>
+        <v>82578165</v>
       </c>
       <c r="AS51" s="13">
-        <v>81181753</v>
+        <v>93836010</v>
       </c>
       <c r="AT51" s="13">
-        <v>82571615</v>
+        <v>93739425</v>
       </c>
       <c r="AU51" s="13">
-        <v>93836010</v>
+        <v>89166628</v>
       </c>
       <c r="AV51" s="13">
-        <v>94226602</v>
+        <v>84846156</v>
       </c>
       <c r="AW51" s="13">
-        <v>92402543</v>
+        <v>81125285</v>
       </c>
       <c r="AX51" s="13">
-        <v>85344967</v>
+        <v>77912817</v>
       </c>
       <c r="AY51" s="13">
-        <v>82605992</v>
+        <v>78999498</v>
       </c>
       <c r="AZ51" s="13">
-        <v>77839747</v>
+        <v>81673616</v>
       </c>
       <c r="BA51" s="13">
-        <v>78946124</v>
+        <v>84835145</v>
       </c>
       <c r="BB51" s="13">
-        <v>81303267</v>
+        <v>83561217</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/monthly.xlsx
+++ b/database/industries/methanol/zagros/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1CBAD7-BD00-4A53-9434-E176B009C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC9467-C192-47AD-B198-F8275D956761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>بخار</t>
@@ -724,12 +724,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -784,7 +784,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -953,7 +953,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1122,7 +1122,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1334,7 +1334,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1400,157 +1400,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>629690</v>
+        <v>598906</v>
       </c>
       <c r="F11" s="11">
-        <v>617864</v>
+        <v>460275</v>
       </c>
       <c r="G11" s="11">
-        <v>598906</v>
+        <v>334261</v>
       </c>
       <c r="H11" s="11">
-        <v>460275</v>
+        <v>528702</v>
       </c>
       <c r="I11" s="11">
-        <v>334261</v>
+        <v>623538</v>
       </c>
       <c r="J11" s="11">
-        <v>528702</v>
+        <v>426692</v>
       </c>
       <c r="K11" s="11">
-        <v>623538</v>
+        <v>563664</v>
       </c>
       <c r="L11" s="11">
-        <v>426692</v>
+        <v>597693</v>
       </c>
       <c r="M11" s="11">
-        <v>563664</v>
+        <v>589882</v>
       </c>
       <c r="N11" s="11">
-        <v>597693</v>
+        <v>453846</v>
       </c>
       <c r="O11" s="11">
-        <v>589882</v>
+        <v>576896</v>
       </c>
       <c r="P11" s="11">
-        <v>453846</v>
+        <v>554334</v>
       </c>
       <c r="Q11" s="11">
-        <v>576896</v>
+        <v>245006</v>
       </c>
       <c r="R11" s="11">
-        <v>554334</v>
+        <v>60587</v>
       </c>
       <c r="S11" s="11">
-        <v>245006</v>
+        <v>516744</v>
       </c>
       <c r="T11" s="11">
-        <v>60587</v>
+        <v>581404</v>
       </c>
       <c r="U11" s="11">
-        <v>516744</v>
+        <v>570157</v>
       </c>
       <c r="V11" s="11">
-        <v>581404</v>
+        <v>567023</v>
       </c>
       <c r="W11" s="11">
-        <v>570157</v>
+        <v>567528</v>
       </c>
       <c r="X11" s="11">
-        <v>567023</v>
+        <v>550076</v>
       </c>
       <c r="Y11" s="11">
-        <v>567528</v>
+        <v>514391</v>
       </c>
       <c r="Z11" s="11">
-        <v>550076</v>
+        <v>545342</v>
       </c>
       <c r="AA11" s="11">
-        <v>514391</v>
+        <v>546755</v>
       </c>
       <c r="AB11" s="11">
-        <v>545342</v>
+        <v>550227</v>
       </c>
       <c r="AC11" s="11">
-        <v>546755</v>
+        <v>350481</v>
       </c>
       <c r="AD11" s="11">
-        <v>550227</v>
+        <v>486620</v>
       </c>
       <c r="AE11" s="11">
-        <v>350481</v>
+        <v>550730</v>
       </c>
       <c r="AF11" s="11">
-        <v>486620</v>
+        <v>578202</v>
       </c>
       <c r="AG11" s="11">
-        <v>550730</v>
+        <v>563356</v>
       </c>
       <c r="AH11" s="11">
-        <v>578202</v>
+        <v>570158</v>
       </c>
       <c r="AI11" s="11">
-        <v>563356</v>
+        <v>545105</v>
       </c>
       <c r="AJ11" s="11">
-        <v>570158</v>
+        <v>568657</v>
       </c>
       <c r="AK11" s="11">
-        <v>545105</v>
+        <v>366499</v>
       </c>
       <c r="AL11" s="11">
-        <v>568657</v>
+        <v>437716</v>
       </c>
       <c r="AM11" s="11">
-        <v>366499</v>
+        <v>271712</v>
       </c>
       <c r="AN11" s="11">
-        <v>437716</v>
+        <v>332706</v>
       </c>
       <c r="AO11" s="11">
-        <v>271712</v>
+        <v>294402</v>
       </c>
       <c r="AP11" s="11">
-        <v>332706</v>
+        <v>372733</v>
       </c>
       <c r="AQ11" s="11">
-        <v>294402</v>
+        <v>573014</v>
       </c>
       <c r="AR11" s="11">
-        <v>372733</v>
+        <v>482842</v>
       </c>
       <c r="AS11" s="11">
-        <v>573014</v>
+        <v>490496</v>
       </c>
       <c r="AT11" s="11">
-        <v>482842</v>
+        <v>665450</v>
       </c>
       <c r="AU11" s="11">
-        <v>490496</v>
+        <v>532153</v>
       </c>
       <c r="AV11" s="11">
-        <v>665450</v>
+        <v>490972</v>
       </c>
       <c r="AW11" s="11">
-        <v>532153</v>
+        <v>451689</v>
       </c>
       <c r="AX11" s="11">
-        <v>490972</v>
+        <v>510445</v>
       </c>
       <c r="AY11" s="11">
-        <v>451689</v>
+        <v>508885</v>
       </c>
       <c r="AZ11" s="11">
-        <v>510445</v>
+        <v>406829</v>
       </c>
       <c r="BA11" s="11">
-        <v>508885</v>
+        <v>272307</v>
       </c>
       <c r="BB11" s="11">
-        <v>406829</v>
+        <v>254156</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1559,157 +1559,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>296927</v>
+        <v>294201</v>
       </c>
       <c r="F12" s="13">
-        <v>296113</v>
+        <v>230431</v>
       </c>
       <c r="G12" s="13">
-        <v>294201</v>
+        <v>160112</v>
       </c>
       <c r="H12" s="13">
-        <v>230431</v>
+        <v>259547</v>
       </c>
       <c r="I12" s="13">
-        <v>160112</v>
+        <v>288608</v>
       </c>
       <c r="J12" s="13">
-        <v>259547</v>
+        <v>173197</v>
       </c>
       <c r="K12" s="13">
-        <v>288608</v>
+        <v>271869</v>
       </c>
       <c r="L12" s="13">
-        <v>173197</v>
+        <v>287535</v>
       </c>
       <c r="M12" s="13">
-        <v>271869</v>
+        <v>284147</v>
       </c>
       <c r="N12" s="13">
-        <v>287535</v>
+        <v>220152</v>
       </c>
       <c r="O12" s="13">
-        <v>284147</v>
+        <v>283240</v>
       </c>
       <c r="P12" s="13">
-        <v>220152</v>
+        <v>271374</v>
       </c>
       <c r="Q12" s="13">
-        <v>283240</v>
+        <v>113721</v>
       </c>
       <c r="R12" s="13">
-        <v>271374</v>
+        <v>27871</v>
       </c>
       <c r="S12" s="13">
-        <v>113721</v>
+        <v>256483</v>
       </c>
       <c r="T12" s="13">
-        <v>27871</v>
+        <v>288928</v>
       </c>
       <c r="U12" s="13">
-        <v>256483</v>
+        <v>285620</v>
       </c>
       <c r="V12" s="13">
-        <v>288928</v>
+        <v>281976</v>
       </c>
       <c r="W12" s="13">
-        <v>285620</v>
+        <v>230927</v>
       </c>
       <c r="X12" s="13">
-        <v>281976</v>
+        <v>266562</v>
       </c>
       <c r="Y12" s="13">
-        <v>230927</v>
+        <v>248618</v>
       </c>
       <c r="Z12" s="13">
-        <v>266562</v>
+        <v>256943</v>
       </c>
       <c r="AA12" s="13">
-        <v>248618</v>
+        <v>250768</v>
       </c>
       <c r="AB12" s="13">
-        <v>256943</v>
+        <v>257295</v>
       </c>
       <c r="AC12" s="13">
-        <v>250768</v>
+        <v>164273</v>
       </c>
       <c r="AD12" s="13">
-        <v>257295</v>
+        <v>223864</v>
       </c>
       <c r="AE12" s="13">
-        <v>164273</v>
+        <v>259283</v>
       </c>
       <c r="AF12" s="13">
-        <v>223864</v>
+        <v>270065</v>
       </c>
       <c r="AG12" s="13">
-        <v>259283</v>
+        <v>260477</v>
       </c>
       <c r="AH12" s="13">
-        <v>270065</v>
+        <v>256946</v>
       </c>
       <c r="AI12" s="13">
-        <v>260477</v>
+        <v>245189</v>
       </c>
       <c r="AJ12" s="13">
-        <v>256946</v>
+        <v>258320</v>
       </c>
       <c r="AK12" s="13">
-        <v>245189</v>
+        <v>174723</v>
       </c>
       <c r="AL12" s="13">
-        <v>258320</v>
+        <v>204534</v>
       </c>
       <c r="AM12" s="13">
-        <v>174723</v>
+        <v>129767</v>
       </c>
       <c r="AN12" s="13">
-        <v>204534</v>
+        <v>149686</v>
       </c>
       <c r="AO12" s="13">
-        <v>129767</v>
+        <v>127634</v>
       </c>
       <c r="AP12" s="13">
-        <v>149686</v>
+        <v>174447</v>
       </c>
       <c r="AQ12" s="13">
-        <v>127634</v>
+        <v>262301</v>
       </c>
       <c r="AR12" s="13">
-        <v>174447</v>
+        <v>221696</v>
       </c>
       <c r="AS12" s="13">
-        <v>262301</v>
+        <v>226033</v>
       </c>
       <c r="AT12" s="13">
-        <v>221696</v>
+        <v>306408</v>
       </c>
       <c r="AU12" s="13">
-        <v>226033</v>
+        <v>241486</v>
       </c>
       <c r="AV12" s="13">
-        <v>306408</v>
+        <v>227046</v>
       </c>
       <c r="AW12" s="13">
-        <v>241486</v>
+        <v>211510</v>
       </c>
       <c r="AX12" s="13">
-        <v>227045</v>
+        <v>240508</v>
       </c>
       <c r="AY12" s="13">
-        <v>211510</v>
+        <v>240432</v>
       </c>
       <c r="AZ12" s="13">
-        <v>240508</v>
+        <v>191703</v>
       </c>
       <c r="BA12" s="13">
-        <v>240432</v>
+        <v>133036</v>
       </c>
       <c r="BB12" s="13">
-        <v>191703</v>
+        <v>116577</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="BA13" s="15"/>
       <c r="BB13" s="15"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
@@ -1826,11 +1826,11 @@
       <c r="V14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>60</v>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
       </c>
       <c r="Y14" s="17">
         <v>0</v>
@@ -1923,164 +1923,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
-        <v>926617</v>
+        <v>893107</v>
       </c>
       <c r="F15" s="19">
-        <v>913977</v>
+        <v>690706</v>
       </c>
       <c r="G15" s="19">
-        <v>893107</v>
+        <v>494373</v>
       </c>
       <c r="H15" s="19">
-        <v>690706</v>
+        <v>788249</v>
       </c>
       <c r="I15" s="19">
-        <v>494373</v>
+        <v>912146</v>
       </c>
       <c r="J15" s="19">
-        <v>788249</v>
+        <v>599889</v>
       </c>
       <c r="K15" s="19">
-        <v>912146</v>
+        <v>835533</v>
       </c>
       <c r="L15" s="19">
-        <v>599889</v>
+        <v>885228</v>
       </c>
       <c r="M15" s="19">
-        <v>835533</v>
+        <v>874029</v>
       </c>
       <c r="N15" s="19">
-        <v>885228</v>
+        <v>673998</v>
       </c>
       <c r="O15" s="19">
-        <v>874029</v>
+        <v>860136</v>
       </c>
       <c r="P15" s="19">
-        <v>673998</v>
+        <v>825708</v>
       </c>
       <c r="Q15" s="19">
-        <v>860136</v>
+        <v>358727</v>
       </c>
       <c r="R15" s="19">
-        <v>825708</v>
+        <v>88458</v>
       </c>
       <c r="S15" s="19">
-        <v>358727</v>
+        <v>773227</v>
       </c>
       <c r="T15" s="19">
-        <v>88458</v>
+        <v>870332</v>
       </c>
       <c r="U15" s="19">
-        <v>773227</v>
+        <v>855777</v>
       </c>
       <c r="V15" s="19">
-        <v>870332</v>
+        <v>848999</v>
       </c>
       <c r="W15" s="19">
-        <v>855777</v>
+        <v>798455</v>
       </c>
       <c r="X15" s="19">
-        <v>848999</v>
+        <v>816638</v>
       </c>
       <c r="Y15" s="19">
-        <v>798455</v>
+        <v>763009</v>
       </c>
       <c r="Z15" s="19">
-        <v>816638</v>
+        <v>802285</v>
       </c>
       <c r="AA15" s="19">
-        <v>763009</v>
+        <v>797523</v>
       </c>
       <c r="AB15" s="19">
-        <v>802285</v>
+        <v>807522</v>
       </c>
       <c r="AC15" s="19">
-        <v>797523</v>
+        <v>514754</v>
       </c>
       <c r="AD15" s="19">
-        <v>807522</v>
+        <v>710484</v>
       </c>
       <c r="AE15" s="19">
-        <v>514754</v>
+        <v>810013</v>
       </c>
       <c r="AF15" s="19">
-        <v>710484</v>
+        <v>848267</v>
       </c>
       <c r="AG15" s="19">
-        <v>810013</v>
+        <v>823833</v>
       </c>
       <c r="AH15" s="19">
-        <v>848267</v>
+        <v>827104</v>
       </c>
       <c r="AI15" s="19">
-        <v>823833</v>
+        <v>790294</v>
       </c>
       <c r="AJ15" s="19">
-        <v>827104</v>
+        <v>826977</v>
       </c>
       <c r="AK15" s="19">
-        <v>790294</v>
+        <v>541222</v>
       </c>
       <c r="AL15" s="19">
-        <v>826977</v>
+        <v>642250</v>
       </c>
       <c r="AM15" s="19">
-        <v>541222</v>
+        <v>401479</v>
       </c>
       <c r="AN15" s="19">
-        <v>642250</v>
+        <v>482392</v>
       </c>
       <c r="AO15" s="19">
-        <v>401479</v>
+        <v>422036</v>
       </c>
       <c r="AP15" s="19">
-        <v>482392</v>
+        <v>547180</v>
       </c>
       <c r="AQ15" s="19">
-        <v>422036</v>
+        <v>835315</v>
       </c>
       <c r="AR15" s="19">
-        <v>547180</v>
+        <v>704538</v>
       </c>
       <c r="AS15" s="19">
-        <v>835315</v>
+        <v>716529</v>
       </c>
       <c r="AT15" s="19">
-        <v>704538</v>
+        <v>971858</v>
       </c>
       <c r="AU15" s="19">
-        <v>716529</v>
+        <v>773639</v>
       </c>
       <c r="AV15" s="19">
-        <v>971858</v>
+        <v>718018</v>
       </c>
       <c r="AW15" s="19">
-        <v>773639</v>
+        <v>663199</v>
       </c>
       <c r="AX15" s="19">
-        <v>718017</v>
+        <v>750953</v>
       </c>
       <c r="AY15" s="19">
-        <v>663199</v>
+        <v>749317</v>
       </c>
       <c r="AZ15" s="19">
-        <v>750953</v>
+        <v>598532</v>
       </c>
       <c r="BA15" s="19">
-        <v>749317</v>
+        <v>405343</v>
       </c>
       <c r="BB15" s="19">
-        <v>598532</v>
+        <v>370733</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2135,7 +2135,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2245,7 +2245,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2457,7 +2457,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>55</v>
       </c>
@@ -2523,157 +2523,157 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>230358</v>
+        <v>163469</v>
       </c>
       <c r="F22" s="11">
-        <v>200298</v>
+        <v>99915</v>
       </c>
       <c r="G22" s="11">
-        <v>163469</v>
+        <v>75062</v>
       </c>
       <c r="H22" s="11">
-        <v>99915</v>
+        <v>110514</v>
       </c>
       <c r="I22" s="11">
-        <v>75062</v>
+        <v>122365</v>
       </c>
       <c r="J22" s="11">
-        <v>110514</v>
+        <v>72215</v>
       </c>
       <c r="K22" s="11">
-        <v>122365</v>
+        <v>124945</v>
       </c>
       <c r="L22" s="11">
-        <v>72215</v>
+        <v>136300</v>
       </c>
       <c r="M22" s="11">
-        <v>124945</v>
+        <v>128030</v>
       </c>
       <c r="N22" s="11">
-        <v>136300</v>
+        <v>101839</v>
       </c>
       <c r="O22" s="11">
-        <v>128030</v>
+        <v>123567</v>
       </c>
       <c r="P22" s="11">
-        <v>101839</v>
+        <v>111297</v>
       </c>
       <c r="Q22" s="11">
-        <v>123567</v>
+        <v>57206</v>
       </c>
       <c r="R22" s="11">
-        <v>111297</v>
+        <v>10396</v>
       </c>
       <c r="S22" s="11">
-        <v>57206</v>
+        <v>116386</v>
       </c>
       <c r="T22" s="11">
-        <v>10396</v>
+        <v>137622</v>
       </c>
       <c r="U22" s="11">
-        <v>116386</v>
+        <v>123223</v>
       </c>
       <c r="V22" s="11">
-        <v>137622</v>
+        <v>121169</v>
       </c>
       <c r="W22" s="11">
-        <v>123223</v>
+        <v>92945</v>
       </c>
       <c r="X22" s="11">
-        <v>121169</v>
+        <v>118112</v>
       </c>
       <c r="Y22" s="11">
-        <v>92945</v>
+        <v>113097</v>
       </c>
       <c r="Z22" s="11">
-        <v>118112</v>
+        <v>120048</v>
       </c>
       <c r="AA22" s="11">
-        <v>113097</v>
+        <v>112161</v>
       </c>
       <c r="AB22" s="11">
-        <v>120048</v>
+        <v>93674</v>
       </c>
       <c r="AC22" s="11">
-        <v>112161</v>
+        <v>55487</v>
       </c>
       <c r="AD22" s="11">
-        <v>93674</v>
+        <v>74384</v>
       </c>
       <c r="AE22" s="11">
-        <v>55487</v>
+        <v>96352</v>
       </c>
       <c r="AF22" s="11">
-        <v>74384</v>
+        <v>114608</v>
       </c>
       <c r="AG22" s="11">
-        <v>96352</v>
+        <v>110556</v>
       </c>
       <c r="AH22" s="11">
-        <v>114608</v>
+        <v>107639</v>
       </c>
       <c r="AI22" s="11">
-        <v>110556</v>
+        <v>101988</v>
       </c>
       <c r="AJ22" s="11">
-        <v>107639</v>
+        <v>121193</v>
       </c>
       <c r="AK22" s="11">
-        <v>101988</v>
+        <v>63766</v>
       </c>
       <c r="AL22" s="11">
-        <v>121193</v>
+        <v>71881</v>
       </c>
       <c r="AM22" s="11">
-        <v>63766</v>
+        <v>39231</v>
       </c>
       <c r="AN22" s="11">
-        <v>71881</v>
+        <v>46986</v>
       </c>
       <c r="AO22" s="11">
-        <v>39231</v>
+        <v>49585</v>
       </c>
       <c r="AP22" s="11">
-        <v>46986</v>
+        <v>66039</v>
       </c>
       <c r="AQ22" s="11">
-        <v>49585</v>
+        <v>97676</v>
       </c>
       <c r="AR22" s="11">
-        <v>65562</v>
+        <v>82520</v>
       </c>
       <c r="AS22" s="11">
-        <v>97676</v>
+        <v>89625</v>
       </c>
       <c r="AT22" s="11">
-        <v>82520</v>
+        <v>134805</v>
       </c>
       <c r="AU22" s="11">
-        <v>89625</v>
+        <v>93397</v>
       </c>
       <c r="AV22" s="11">
-        <v>134805</v>
+        <v>88193</v>
       </c>
       <c r="AW22" s="11">
-        <v>93397</v>
+        <v>64618</v>
       </c>
       <c r="AX22" s="11">
-        <v>88193</v>
+        <v>69257</v>
       </c>
       <c r="AY22" s="11">
-        <v>64618</v>
+        <v>71617</v>
       </c>
       <c r="AZ22" s="11">
-        <v>69257</v>
+        <v>71905</v>
       </c>
       <c r="BA22" s="11">
-        <v>71617</v>
+        <v>51603</v>
       </c>
       <c r="BB22" s="11">
-        <v>71905</v>
+        <v>43597</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>57</v>
       </c>
@@ -2682,157 +2682,157 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>362886</v>
+        <v>232895</v>
       </c>
       <c r="F23" s="13">
-        <v>345641</v>
+        <v>260868</v>
       </c>
       <c r="G23" s="13">
-        <v>232895</v>
+        <v>146086</v>
       </c>
       <c r="H23" s="13">
-        <v>260868</v>
+        <v>282889</v>
       </c>
       <c r="I23" s="13">
-        <v>146086</v>
+        <v>276063</v>
       </c>
       <c r="J23" s="13">
-        <v>282889</v>
+        <v>211821</v>
       </c>
       <c r="K23" s="13">
-        <v>276063</v>
+        <v>200250</v>
       </c>
       <c r="L23" s="13">
-        <v>211821</v>
+        <v>350903</v>
       </c>
       <c r="M23" s="13">
-        <v>200250</v>
+        <v>193275</v>
       </c>
       <c r="N23" s="13">
-        <v>350903</v>
+        <v>239019</v>
       </c>
       <c r="O23" s="13">
-        <v>193275</v>
+        <v>345771</v>
       </c>
       <c r="P23" s="13">
-        <v>239019</v>
+        <v>320471</v>
       </c>
       <c r="Q23" s="13">
-        <v>345771</v>
+        <v>189100</v>
       </c>
       <c r="R23" s="13">
-        <v>320471</v>
+        <v>6464</v>
       </c>
       <c r="S23" s="13">
-        <v>189100</v>
+        <v>202799</v>
       </c>
       <c r="T23" s="13">
-        <v>6464</v>
+        <v>262323</v>
       </c>
       <c r="U23" s="13">
-        <v>202799</v>
+        <v>275898</v>
       </c>
       <c r="V23" s="13">
-        <v>262323</v>
+        <v>282523</v>
       </c>
       <c r="W23" s="13">
-        <v>275898</v>
+        <v>283049</v>
       </c>
       <c r="X23" s="13">
-        <v>282523</v>
+        <v>249490</v>
       </c>
       <c r="Y23" s="13">
-        <v>283049</v>
+        <v>200900</v>
       </c>
       <c r="Z23" s="13">
-        <v>249490</v>
+        <v>350688</v>
       </c>
       <c r="AA23" s="13">
-        <v>200900</v>
+        <v>287395</v>
       </c>
       <c r="AB23" s="13">
-        <v>350688</v>
+        <v>288275</v>
       </c>
       <c r="AC23" s="13">
-        <v>287395</v>
+        <v>158667</v>
       </c>
       <c r="AD23" s="13">
-        <v>288275</v>
+        <v>135939</v>
       </c>
       <c r="AE23" s="13">
-        <v>158667</v>
+        <v>261080</v>
       </c>
       <c r="AF23" s="13">
-        <v>135939</v>
+        <v>294473</v>
       </c>
       <c r="AG23" s="13">
-        <v>261080</v>
+        <v>305042</v>
       </c>
       <c r="AH23" s="13">
-        <v>294473</v>
+        <v>227249</v>
       </c>
       <c r="AI23" s="13">
-        <v>305042</v>
+        <v>231258</v>
       </c>
       <c r="AJ23" s="13">
-        <v>227249</v>
+        <v>293509</v>
       </c>
       <c r="AK23" s="13">
-        <v>231258</v>
+        <v>188469</v>
       </c>
       <c r="AL23" s="13">
-        <v>293509</v>
+        <v>218814</v>
       </c>
       <c r="AM23" s="13">
-        <v>188469</v>
+        <v>103138</v>
       </c>
       <c r="AN23" s="13">
-        <v>218814</v>
+        <v>154183</v>
       </c>
       <c r="AO23" s="13">
-        <v>103138</v>
+        <v>72417</v>
       </c>
       <c r="AP23" s="13">
-        <v>154183</v>
+        <v>95944</v>
       </c>
       <c r="AQ23" s="13">
-        <v>72417</v>
+        <v>262664</v>
       </c>
       <c r="AR23" s="13">
-        <v>95944</v>
+        <v>211221</v>
       </c>
       <c r="AS23" s="13">
-        <v>262664</v>
+        <v>257058</v>
       </c>
       <c r="AT23" s="13">
-        <v>211221</v>
+        <v>315387</v>
       </c>
       <c r="AU23" s="13">
-        <v>257058</v>
+        <v>307143</v>
       </c>
       <c r="AV23" s="13">
-        <v>315387</v>
+        <v>149913</v>
       </c>
       <c r="AW23" s="13">
-        <v>307143</v>
+        <v>288939</v>
       </c>
       <c r="AX23" s="13">
-        <v>146225</v>
+        <v>199761</v>
       </c>
       <c r="AY23" s="13">
-        <v>288939</v>
+        <v>190634</v>
       </c>
       <c r="AZ23" s="13">
-        <v>199761</v>
+        <v>153654</v>
       </c>
       <c r="BA23" s="13">
-        <v>190634</v>
+        <v>140849</v>
       </c>
       <c r="BB23" s="13">
-        <v>153654</v>
+        <v>137360</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>59</v>
       </c>
@@ -2949,11 +2949,11 @@
       <c r="V25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X25" s="17" t="s">
-        <v>60</v>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
       </c>
       <c r="Y25" s="17">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
@@ -3163,11 +3163,11 @@
       <c r="V27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>60</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -3260,164 +3260,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>593244</v>
+        <v>396364</v>
       </c>
       <c r="F28" s="19">
-        <v>545939</v>
+        <v>360783</v>
       </c>
       <c r="G28" s="19">
-        <v>396364</v>
+        <v>221148</v>
       </c>
       <c r="H28" s="19">
-        <v>360783</v>
+        <v>393403</v>
       </c>
       <c r="I28" s="19">
-        <v>221148</v>
+        <v>398428</v>
       </c>
       <c r="J28" s="19">
-        <v>393403</v>
+        <v>284036</v>
       </c>
       <c r="K28" s="19">
-        <v>398428</v>
+        <v>325195</v>
       </c>
       <c r="L28" s="19">
-        <v>284036</v>
+        <v>487203</v>
       </c>
       <c r="M28" s="19">
-        <v>325195</v>
+        <v>321305</v>
       </c>
       <c r="N28" s="19">
-        <v>487203</v>
+        <v>340858</v>
       </c>
       <c r="O28" s="19">
-        <v>321305</v>
+        <v>469338</v>
       </c>
       <c r="P28" s="19">
-        <v>340858</v>
+        <v>431768</v>
       </c>
       <c r="Q28" s="19">
-        <v>469338</v>
+        <v>246306</v>
       </c>
       <c r="R28" s="19">
-        <v>431768</v>
+        <v>16860</v>
       </c>
       <c r="S28" s="19">
-        <v>246306</v>
+        <v>319185</v>
       </c>
       <c r="T28" s="19">
-        <v>16860</v>
+        <v>399945</v>
       </c>
       <c r="U28" s="19">
-        <v>319185</v>
+        <v>399121</v>
       </c>
       <c r="V28" s="19">
-        <v>399945</v>
+        <v>403692</v>
       </c>
       <c r="W28" s="19">
-        <v>399121</v>
+        <v>375994</v>
       </c>
       <c r="X28" s="19">
-        <v>403692</v>
+        <v>367602</v>
       </c>
       <c r="Y28" s="19">
-        <v>375994</v>
+        <v>313997</v>
       </c>
       <c r="Z28" s="19">
-        <v>367602</v>
+        <v>470736</v>
       </c>
       <c r="AA28" s="19">
-        <v>313997</v>
+        <v>399556</v>
       </c>
       <c r="AB28" s="19">
-        <v>470736</v>
+        <v>381949</v>
       </c>
       <c r="AC28" s="19">
-        <v>399556</v>
+        <v>214154</v>
       </c>
       <c r="AD28" s="19">
-        <v>381949</v>
+        <v>210323</v>
       </c>
       <c r="AE28" s="19">
-        <v>214154</v>
+        <v>357432</v>
       </c>
       <c r="AF28" s="19">
-        <v>210323</v>
+        <v>409081</v>
       </c>
       <c r="AG28" s="19">
-        <v>357432</v>
+        <v>415598</v>
       </c>
       <c r="AH28" s="19">
-        <v>409081</v>
+        <v>334888</v>
       </c>
       <c r="AI28" s="19">
-        <v>415598</v>
+        <v>333246</v>
       </c>
       <c r="AJ28" s="19">
-        <v>334888</v>
+        <v>414702</v>
       </c>
       <c r="AK28" s="19">
-        <v>333246</v>
+        <v>252235</v>
       </c>
       <c r="AL28" s="19">
-        <v>414702</v>
+        <v>290695</v>
       </c>
       <c r="AM28" s="19">
-        <v>252235</v>
+        <v>142369</v>
       </c>
       <c r="AN28" s="19">
-        <v>290695</v>
+        <v>201169</v>
       </c>
       <c r="AO28" s="19">
-        <v>142369</v>
+        <v>122002</v>
       </c>
       <c r="AP28" s="19">
-        <v>201169</v>
+        <v>161983</v>
       </c>
       <c r="AQ28" s="19">
-        <v>122002</v>
+        <v>360340</v>
       </c>
       <c r="AR28" s="19">
-        <v>161506</v>
+        <v>293741</v>
       </c>
       <c r="AS28" s="19">
-        <v>360340</v>
+        <v>346683</v>
       </c>
       <c r="AT28" s="19">
-        <v>293741</v>
+        <v>450192</v>
       </c>
       <c r="AU28" s="19">
-        <v>346683</v>
+        <v>400540</v>
       </c>
       <c r="AV28" s="19">
-        <v>450192</v>
+        <v>238106</v>
       </c>
       <c r="AW28" s="19">
-        <v>400540</v>
+        <v>353557</v>
       </c>
       <c r="AX28" s="19">
-        <v>234418</v>
+        <v>269018</v>
       </c>
       <c r="AY28" s="19">
-        <v>353557</v>
+        <v>262251</v>
       </c>
       <c r="AZ28" s="19">
-        <v>269018</v>
+        <v>225559</v>
       </c>
       <c r="BA28" s="19">
-        <v>262251</v>
+        <v>192452</v>
       </c>
       <c r="BB28" s="19">
-        <v>225559</v>
+        <v>180957</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3472,7 +3472,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3527,7 +3527,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3582,7 +3582,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3794,7 +3794,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>65</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -3860,157 +3860,157 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>101716</v>
+        <v>72181</v>
       </c>
       <c r="F35" s="11">
-        <v>88443</v>
+        <v>44118</v>
       </c>
       <c r="G35" s="11">
-        <v>72181</v>
+        <v>33143</v>
       </c>
       <c r="H35" s="11">
-        <v>44118</v>
+        <v>48798</v>
       </c>
       <c r="I35" s="11">
-        <v>33143</v>
+        <v>54031</v>
       </c>
       <c r="J35" s="11">
-        <v>48798</v>
+        <v>31887</v>
       </c>
       <c r="K35" s="11">
-        <v>54031</v>
+        <v>55170</v>
       </c>
       <c r="L35" s="11">
-        <v>31887</v>
+        <v>60184</v>
       </c>
       <c r="M35" s="11">
-        <v>55170</v>
+        <v>56532</v>
       </c>
       <c r="N35" s="11">
-        <v>60184</v>
+        <v>44968</v>
       </c>
       <c r="O35" s="11">
-        <v>56532</v>
+        <v>54562</v>
       </c>
       <c r="P35" s="11">
-        <v>44968</v>
+        <v>49144</v>
       </c>
       <c r="Q35" s="11">
-        <v>54562</v>
+        <v>25260</v>
       </c>
       <c r="R35" s="11">
-        <v>49144</v>
+        <v>7305</v>
       </c>
       <c r="S35" s="11">
-        <v>25260</v>
+        <v>81786</v>
       </c>
       <c r="T35" s="11">
-        <v>7305</v>
+        <v>92090</v>
       </c>
       <c r="U35" s="11">
-        <v>81786</v>
+        <v>82822</v>
       </c>
       <c r="V35" s="11">
-        <v>92090</v>
+        <v>81441</v>
       </c>
       <c r="W35" s="11">
-        <v>82822</v>
+        <v>62471</v>
       </c>
       <c r="X35" s="11">
-        <v>81441</v>
+        <v>79387</v>
       </c>
       <c r="Y35" s="11">
-        <v>62471</v>
+        <v>76015</v>
       </c>
       <c r="Z35" s="11">
-        <v>79387</v>
+        <v>80688</v>
       </c>
       <c r="AA35" s="11">
-        <v>76015</v>
+        <v>75387</v>
       </c>
       <c r="AB35" s="11">
-        <v>80688</v>
+        <v>62961</v>
       </c>
       <c r="AC35" s="11">
-        <v>75387</v>
+        <v>37295</v>
       </c>
       <c r="AD35" s="11">
-        <v>62961</v>
+        <v>49995</v>
       </c>
       <c r="AE35" s="11">
-        <v>37295</v>
+        <v>64762</v>
       </c>
       <c r="AF35" s="11">
-        <v>49995</v>
+        <v>91826</v>
       </c>
       <c r="AG35" s="11">
-        <v>64762</v>
+        <v>88580</v>
       </c>
       <c r="AH35" s="11">
-        <v>91826</v>
+        <v>86243</v>
       </c>
       <c r="AI35" s="11">
-        <v>88580</v>
+        <v>81715</v>
       </c>
       <c r="AJ35" s="11">
-        <v>86243</v>
+        <v>97103</v>
       </c>
       <c r="AK35" s="11">
-        <v>81715</v>
+        <v>51091</v>
       </c>
       <c r="AL35" s="11">
-        <v>97103</v>
+        <v>57592</v>
       </c>
       <c r="AM35" s="11">
-        <v>51091</v>
+        <v>31433</v>
       </c>
       <c r="AN35" s="11">
-        <v>57592</v>
+        <v>37646</v>
       </c>
       <c r="AO35" s="11">
-        <v>31433</v>
+        <v>39732</v>
       </c>
       <c r="AP35" s="11">
-        <v>37646</v>
+        <v>52912</v>
       </c>
       <c r="AQ35" s="11">
-        <v>39732</v>
+        <v>78260</v>
       </c>
       <c r="AR35" s="11">
-        <v>52526</v>
+        <v>66116</v>
       </c>
       <c r="AS35" s="11">
-        <v>78260</v>
+        <v>157981</v>
       </c>
       <c r="AT35" s="11">
-        <v>145457</v>
+        <v>243020</v>
       </c>
       <c r="AU35" s="11">
-        <v>164877</v>
+        <v>168371</v>
       </c>
       <c r="AV35" s="11">
-        <v>243020</v>
+        <v>158990</v>
       </c>
       <c r="AW35" s="11">
-        <v>168371</v>
+        <v>116490</v>
       </c>
       <c r="AX35" s="11">
-        <v>158990</v>
+        <v>124853</v>
       </c>
       <c r="AY35" s="11">
-        <v>116490</v>
+        <v>129107</v>
       </c>
       <c r="AZ35" s="11">
-        <v>124853</v>
+        <v>129627</v>
       </c>
       <c r="BA35" s="11">
-        <v>129107</v>
+        <v>93027</v>
       </c>
       <c r="BB35" s="11">
-        <v>129627</v>
+        <v>78594</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -4019,157 +4019,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>10998951</v>
+        <v>4833757</v>
       </c>
       <c r="F36" s="13">
-        <v>7486419</v>
+        <v>5651789</v>
       </c>
       <c r="G36" s="13">
-        <v>4833757</v>
+        <v>3869074</v>
       </c>
       <c r="H36" s="13">
-        <v>5651789</v>
+        <v>7493799</v>
       </c>
       <c r="I36" s="13">
-        <v>3869074</v>
+        <v>8340013</v>
       </c>
       <c r="J36" s="13">
-        <v>7493799</v>
+        <v>6259414</v>
       </c>
       <c r="K36" s="13">
-        <v>8340013</v>
+        <v>6023757</v>
       </c>
       <c r="L36" s="13">
-        <v>6259414</v>
+        <v>9893541</v>
       </c>
       <c r="M36" s="13">
-        <v>6023757</v>
+        <v>4634376</v>
       </c>
       <c r="N36" s="13">
-        <v>9893541</v>
+        <v>5974637</v>
       </c>
       <c r="O36" s="13">
-        <v>4634376</v>
+        <v>8457374</v>
       </c>
       <c r="P36" s="13">
-        <v>5974637</v>
+        <v>7806844</v>
       </c>
       <c r="Q36" s="13">
-        <v>8457374</v>
+        <v>4789641</v>
       </c>
       <c r="R36" s="13">
-        <v>7806844</v>
+        <v>116646</v>
       </c>
       <c r="S36" s="13">
-        <v>4789641</v>
+        <v>5592861</v>
       </c>
       <c r="T36" s="13">
-        <v>116646</v>
+        <v>7038460</v>
       </c>
       <c r="U36" s="13">
-        <v>5592861</v>
+        <v>6712883</v>
       </c>
       <c r="V36" s="13">
-        <v>7038460</v>
+        <v>6981262</v>
       </c>
       <c r="W36" s="13">
-        <v>6712883</v>
+        <v>7724185</v>
       </c>
       <c r="X36" s="13">
-        <v>6981262</v>
+        <v>7529937</v>
       </c>
       <c r="Y36" s="13">
-        <v>7724185</v>
+        <v>7261702</v>
       </c>
       <c r="Z36" s="13">
-        <v>7529937</v>
+        <v>16570693</v>
       </c>
       <c r="AA36" s="13">
-        <v>7261702</v>
+        <v>16283392</v>
       </c>
       <c r="AB36" s="13">
-        <v>16570693</v>
+        <v>18057243</v>
       </c>
       <c r="AC36" s="13">
-        <v>16283392</v>
+        <v>11391054</v>
       </c>
       <c r="AD36" s="13">
-        <v>18057243</v>
+        <v>9649868</v>
       </c>
       <c r="AE36" s="13">
-        <v>11391054</v>
+        <v>18137465</v>
       </c>
       <c r="AF36" s="13">
-        <v>9649868</v>
+        <v>20971831</v>
       </c>
       <c r="AG36" s="13">
-        <v>18137465</v>
+        <v>20147116</v>
       </c>
       <c r="AH36" s="13">
-        <v>20971831</v>
+        <v>14720762</v>
       </c>
       <c r="AI36" s="13">
-        <v>20147116</v>
+        <v>16342267</v>
       </c>
       <c r="AJ36" s="13">
-        <v>14720762</v>
+        <v>22054259</v>
       </c>
       <c r="AK36" s="13">
-        <v>16342267</v>
+        <v>14384276</v>
       </c>
       <c r="AL36" s="13">
-        <v>22054259</v>
+        <v>20314240</v>
       </c>
       <c r="AM36" s="13">
-        <v>14384276</v>
+        <v>9875429</v>
       </c>
       <c r="AN36" s="13">
-        <v>20314240</v>
+        <v>13606921</v>
       </c>
       <c r="AO36" s="13">
-        <v>9875429</v>
+        <v>5878939</v>
       </c>
       <c r="AP36" s="13">
-        <v>13606921</v>
+        <v>7922251</v>
       </c>
       <c r="AQ36" s="13">
-        <v>5878939</v>
+        <v>24647384</v>
       </c>
       <c r="AR36" s="13">
-        <v>7936566</v>
+        <v>19902637</v>
       </c>
       <c r="AS36" s="13">
-        <v>24647384</v>
+        <v>23752776</v>
       </c>
       <c r="AT36" s="13">
-        <v>19799735</v>
+        <v>26916659</v>
       </c>
       <c r="AU36" s="13">
-        <v>22237466</v>
+        <v>25371847</v>
       </c>
       <c r="AV36" s="13">
-        <v>26525758</v>
+        <v>11669221</v>
       </c>
       <c r="AW36" s="13">
-        <v>23756680</v>
+        <v>22810644</v>
       </c>
       <c r="AX36" s="13">
-        <v>11450515</v>
+        <v>16241222</v>
       </c>
       <c r="AY36" s="13">
-        <v>22892092</v>
+        <v>15844297</v>
       </c>
       <c r="AZ36" s="13">
-        <v>16880345</v>
+        <v>12839532</v>
       </c>
       <c r="BA36" s="13">
-        <v>16172463</v>
+        <v>12540652</v>
       </c>
       <c r="BB36" s="13">
-        <v>12839532</v>
+        <v>12376829</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="BA37" s="15"/>
       <c r="BB37" s="15"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>59</v>
       </c>
@@ -4288,11 +4288,11 @@
       <c r="V38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X38" s="17" t="s">
-        <v>60</v>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="17">
+        <v>0</v>
       </c>
       <c r="Y38" s="17">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>68</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="BA39" s="15"/>
       <c r="BB39" s="15"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>64</v>
       </c>
@@ -4504,11 +4504,11 @@
       <c r="V40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="W40" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>60</v>
+      <c r="W40" s="17">
+        <v>0</v>
+      </c>
+      <c r="X40" s="17">
+        <v>0</v>
       </c>
       <c r="Y40" s="17">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>70</v>
       </c>
@@ -4720,11 +4720,11 @@
       <c r="V42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>60</v>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <v>0</v>
       </c>
       <c r="Y42" s="11">
         <v>0</v>
@@ -4817,164 +4817,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
-        <v>11100667</v>
+        <v>4905938</v>
       </c>
       <c r="F43" s="19">
-        <v>7574862</v>
+        <v>5695907</v>
       </c>
       <c r="G43" s="19">
-        <v>4905938</v>
+        <v>3902217</v>
       </c>
       <c r="H43" s="19">
-        <v>5695907</v>
+        <v>7542597</v>
       </c>
       <c r="I43" s="19">
-        <v>3902217</v>
+        <v>8394044</v>
       </c>
       <c r="J43" s="19">
-        <v>7542597</v>
+        <v>6291301</v>
       </c>
       <c r="K43" s="19">
-        <v>8394044</v>
+        <v>6078927</v>
       </c>
       <c r="L43" s="19">
-        <v>6291301</v>
+        <v>9953725</v>
       </c>
       <c r="M43" s="19">
-        <v>6078927</v>
+        <v>4690908</v>
       </c>
       <c r="N43" s="19">
-        <v>9953725</v>
+        <v>6019605</v>
       </c>
       <c r="O43" s="19">
-        <v>4690908</v>
+        <v>8511936</v>
       </c>
       <c r="P43" s="19">
-        <v>6019605</v>
+        <v>7855988</v>
       </c>
       <c r="Q43" s="19">
-        <v>8511936</v>
+        <v>4814901</v>
       </c>
       <c r="R43" s="19">
-        <v>7855988</v>
+        <v>123951</v>
       </c>
       <c r="S43" s="19">
-        <v>4814901</v>
+        <v>5674647</v>
       </c>
       <c r="T43" s="19">
-        <v>123951</v>
+        <v>7130550</v>
       </c>
       <c r="U43" s="19">
-        <v>5674647</v>
+        <v>6795705</v>
       </c>
       <c r="V43" s="19">
-        <v>7130550</v>
+        <v>7062703</v>
       </c>
       <c r="W43" s="19">
-        <v>6795705</v>
+        <v>7786656</v>
       </c>
       <c r="X43" s="19">
-        <v>7062703</v>
+        <v>7609324</v>
       </c>
       <c r="Y43" s="19">
-        <v>7786656</v>
+        <v>7337717</v>
       </c>
       <c r="Z43" s="19">
-        <v>7609324</v>
+        <v>16651381</v>
       </c>
       <c r="AA43" s="19">
-        <v>7337717</v>
+        <v>16358779</v>
       </c>
       <c r="AB43" s="19">
-        <v>16651381</v>
+        <v>18120204</v>
       </c>
       <c r="AC43" s="19">
-        <v>16358779</v>
+        <v>11428349</v>
       </c>
       <c r="AD43" s="19">
-        <v>18120204</v>
+        <v>9699863</v>
       </c>
       <c r="AE43" s="19">
-        <v>11428349</v>
+        <v>18202227</v>
       </c>
       <c r="AF43" s="19">
-        <v>9699863</v>
+        <v>21063657</v>
       </c>
       <c r="AG43" s="19">
-        <v>18202227</v>
+        <v>20235696</v>
       </c>
       <c r="AH43" s="19">
-        <v>21063657</v>
+        <v>14807005</v>
       </c>
       <c r="AI43" s="19">
-        <v>20235696</v>
+        <v>16423982</v>
       </c>
       <c r="AJ43" s="19">
-        <v>14807005</v>
+        <v>22151362</v>
       </c>
       <c r="AK43" s="19">
-        <v>16423982</v>
+        <v>14435367</v>
       </c>
       <c r="AL43" s="19">
-        <v>22151362</v>
+        <v>20371832</v>
       </c>
       <c r="AM43" s="19">
-        <v>14435367</v>
+        <v>9906862</v>
       </c>
       <c r="AN43" s="19">
-        <v>20371832</v>
+        <v>13644567</v>
       </c>
       <c r="AO43" s="19">
-        <v>9906862</v>
+        <v>5918671</v>
       </c>
       <c r="AP43" s="19">
-        <v>13644567</v>
+        <v>7975163</v>
       </c>
       <c r="AQ43" s="19">
-        <v>5918671</v>
+        <v>24725644</v>
       </c>
       <c r="AR43" s="19">
-        <v>7989092</v>
+        <v>19968753</v>
       </c>
       <c r="AS43" s="19">
-        <v>24725644</v>
+        <v>23910757</v>
       </c>
       <c r="AT43" s="19">
-        <v>19945192</v>
+        <v>27159679</v>
       </c>
       <c r="AU43" s="19">
-        <v>22402343</v>
+        <v>25540218</v>
       </c>
       <c r="AV43" s="19">
-        <v>26768778</v>
+        <v>11828211</v>
       </c>
       <c r="AW43" s="19">
-        <v>23925051</v>
+        <v>22927134</v>
       </c>
       <c r="AX43" s="19">
-        <v>11609505</v>
+        <v>16366075</v>
       </c>
       <c r="AY43" s="19">
-        <v>23008582</v>
+        <v>15973404</v>
       </c>
       <c r="AZ43" s="19">
-        <v>17005198</v>
+        <v>12969159</v>
       </c>
       <c r="BA43" s="19">
-        <v>16301570</v>
+        <v>12633679</v>
       </c>
       <c r="BB43" s="19">
-        <v>12969159</v>
+        <v>12455423</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5029,7 +5029,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5084,7 +5084,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5139,7 +5139,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>71</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5351,7 +5351,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>72</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -5417,157 +5417,157 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>441556</v>
+        <v>441558</v>
       </c>
       <c r="F50" s="11">
-        <v>441557</v>
+        <v>441555</v>
       </c>
       <c r="G50" s="11">
-        <v>441558</v>
+        <v>441542</v>
       </c>
       <c r="H50" s="11">
         <v>441555</v>
       </c>
       <c r="I50" s="11">
-        <v>441542</v>
+        <v>441556</v>
       </c>
       <c r="J50" s="11">
+        <v>441556</v>
+      </c>
+      <c r="K50" s="11">
+        <v>441554</v>
+      </c>
+      <c r="L50" s="11">
         <v>441555</v>
       </c>
-      <c r="K50" s="11">
-        <v>441556</v>
-      </c>
-      <c r="L50" s="11">
-        <v>441556</v>
-      </c>
       <c r="M50" s="11">
-        <v>441554</v>
+        <v>441553</v>
       </c>
       <c r="N50" s="11">
-        <v>441555</v>
+        <v>441560</v>
       </c>
       <c r="O50" s="11">
-        <v>441553</v>
+        <v>441558</v>
       </c>
       <c r="P50" s="11">
-        <v>441560</v>
+        <v>441557</v>
       </c>
       <c r="Q50" s="11">
-        <v>441558</v>
+        <v>441562</v>
       </c>
       <c r="R50" s="11">
-        <v>441557</v>
+        <v>702674</v>
       </c>
       <c r="S50" s="11">
-        <v>441562</v>
+        <v>702713</v>
       </c>
       <c r="T50" s="11">
-        <v>702674</v>
+        <v>669155</v>
       </c>
       <c r="U50" s="11">
-        <v>702713</v>
+        <v>672131</v>
       </c>
       <c r="V50" s="11">
-        <v>669155</v>
+        <v>672127</v>
       </c>
       <c r="W50" s="11">
+        <v>672129</v>
+      </c>
+      <c r="X50" s="11">
+        <v>672133</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>672122</v>
+      </c>
+      <c r="Z50" s="11">
         <v>672131</v>
       </c>
-      <c r="X50" s="11">
-        <v>672127</v>
-      </c>
-      <c r="Y50" s="11">
+      <c r="AA50" s="11">
+        <v>672132</v>
+      </c>
+      <c r="AB50" s="11">
         <v>672129</v>
-      </c>
-      <c r="Z50" s="11">
-        <v>672133</v>
-      </c>
-      <c r="AA50" s="11">
-        <v>672122</v>
-      </c>
-      <c r="AB50" s="11">
-        <v>672131</v>
       </c>
       <c r="AC50" s="11">
         <v>672132</v>
       </c>
       <c r="AD50" s="11">
-        <v>672129</v>
+        <v>672120</v>
       </c>
       <c r="AE50" s="11">
-        <v>672132</v>
+        <v>672140</v>
       </c>
       <c r="AF50" s="11">
-        <v>672120</v>
+        <v>801218</v>
       </c>
       <c r="AG50" s="11">
-        <v>672140</v>
+        <v>801223</v>
       </c>
       <c r="AH50" s="11">
-        <v>801218</v>
+        <v>801224</v>
       </c>
       <c r="AI50" s="11">
-        <v>801223</v>
+        <v>801222</v>
       </c>
       <c r="AJ50" s="11">
+        <v>801226</v>
+      </c>
+      <c r="AK50" s="11">
+        <v>801226</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>801213</v>
+      </c>
+      <c r="AM50" s="11">
+        <v>801229</v>
+      </c>
+      <c r="AN50" s="11">
+        <v>801217</v>
+      </c>
+      <c r="AO50" s="11">
+        <v>801291</v>
+      </c>
+      <c r="AP50" s="11">
         <v>801224</v>
       </c>
-      <c r="AK50" s="11">
-        <v>801222</v>
-      </c>
-      <c r="AL50" s="11">
-        <v>801226</v>
-      </c>
-      <c r="AM50" s="11">
-        <v>801226</v>
-      </c>
-      <c r="AN50" s="11">
-        <v>801213</v>
-      </c>
-      <c r="AO50" s="11">
-        <v>801229</v>
-      </c>
-      <c r="AP50" s="11">
-        <v>801217</v>
-      </c>
       <c r="AQ50" s="11">
-        <v>801291</v>
+        <v>801220</v>
       </c>
       <c r="AR50" s="11">
-        <v>801219</v>
+        <v>801212</v>
       </c>
       <c r="AS50" s="11">
-        <v>801220</v>
+        <v>1762689</v>
       </c>
       <c r="AT50" s="11">
-        <v>1762688</v>
+        <v>1802752</v>
       </c>
       <c r="AU50" s="11">
+        <v>1802745</v>
+      </c>
+      <c r="AV50" s="11">
+        <v>1802751</v>
+      </c>
+      <c r="AW50" s="11">
         <v>1802748</v>
       </c>
-      <c r="AV50" s="11">
-        <v>1802752</v>
-      </c>
-      <c r="AW50" s="11">
-        <v>1802745</v>
-      </c>
       <c r="AX50" s="11">
-        <v>1802751</v>
+        <v>1802749</v>
       </c>
       <c r="AY50" s="11">
-        <v>1802748</v>
+        <v>1802742</v>
       </c>
       <c r="AZ50" s="11">
-        <v>1802749</v>
+        <v>1802754</v>
       </c>
       <c r="BA50" s="11">
-        <v>1802742</v>
+        <v>1802744</v>
       </c>
       <c r="BB50" s="11">
-        <v>1802754</v>
+        <v>1802739</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>57</v>
       </c>
@@ -5576,154 +5576,154 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>30309659</v>
+        <v>20755091</v>
       </c>
       <c r="F51" s="13">
-        <v>21659522</v>
+        <v>21665321</v>
       </c>
       <c r="G51" s="13">
-        <v>20755091</v>
+        <v>26484906</v>
       </c>
       <c r="H51" s="13">
-        <v>21665321</v>
+        <v>26490245</v>
       </c>
       <c r="I51" s="13">
-        <v>26484906</v>
+        <v>30210543</v>
       </c>
       <c r="J51" s="13">
-        <v>26490245</v>
+        <v>29550488</v>
       </c>
       <c r="K51" s="13">
-        <v>30210543</v>
+        <v>30081184</v>
       </c>
       <c r="L51" s="13">
-        <v>29550488</v>
+        <v>28194518</v>
       </c>
       <c r="M51" s="13">
-        <v>30081184</v>
+        <v>23978145</v>
       </c>
       <c r="N51" s="13">
-        <v>28194518</v>
+        <v>24996494</v>
       </c>
       <c r="O51" s="13">
-        <v>23978145</v>
+        <v>24459466</v>
       </c>
       <c r="P51" s="13">
-        <v>24996494</v>
+        <v>24360532</v>
       </c>
       <c r="Q51" s="13">
-        <v>24459466</v>
+        <v>25328614</v>
       </c>
       <c r="R51" s="13">
-        <v>24360532</v>
+        <v>18045483</v>
       </c>
       <c r="S51" s="13">
-        <v>25328614</v>
+        <v>27578346</v>
       </c>
       <c r="T51" s="13">
-        <v>18045483</v>
+        <v>26831228</v>
       </c>
       <c r="U51" s="13">
-        <v>27578346</v>
+        <v>24331059</v>
       </c>
       <c r="V51" s="13">
-        <v>26831228</v>
+        <v>24710436</v>
       </c>
       <c r="W51" s="13">
-        <v>24331059</v>
+        <v>27289244</v>
       </c>
       <c r="X51" s="13">
-        <v>24710436</v>
+        <v>30181289</v>
       </c>
       <c r="Y51" s="13">
-        <v>27289244</v>
+        <v>36145783</v>
       </c>
       <c r="Z51" s="13">
-        <v>30181289</v>
+        <v>47251953</v>
       </c>
       <c r="AA51" s="13">
-        <v>36145783</v>
+        <v>56658578</v>
       </c>
       <c r="AB51" s="13">
-        <v>47251953</v>
+        <v>62639038</v>
       </c>
       <c r="AC51" s="13">
-        <v>56658578</v>
+        <v>71792084</v>
       </c>
       <c r="AD51" s="13">
-        <v>62639038</v>
+        <v>70986631</v>
       </c>
       <c r="AE51" s="13">
-        <v>71792084</v>
+        <v>69470909</v>
       </c>
       <c r="AF51" s="13">
-        <v>70986631</v>
+        <v>71218206</v>
       </c>
       <c r="AG51" s="13">
-        <v>69470909</v>
+        <v>66047023</v>
       </c>
       <c r="AH51" s="13">
-        <v>71218206</v>
+        <v>64778116</v>
       </c>
       <c r="AI51" s="13">
-        <v>66047023</v>
+        <v>70666818</v>
       </c>
       <c r="AJ51" s="13">
-        <v>64778116</v>
+        <v>75139975</v>
       </c>
       <c r="AK51" s="13">
-        <v>70666818</v>
+        <v>76321898</v>
       </c>
       <c r="AL51" s="13">
-        <v>75139975</v>
+        <v>92837957</v>
       </c>
       <c r="AM51" s="13">
-        <v>76321898</v>
+        <v>95750120</v>
       </c>
       <c r="AN51" s="13">
-        <v>92837957</v>
+        <v>88251659</v>
       </c>
       <c r="AO51" s="13">
-        <v>95750120</v>
+        <v>81181753</v>
       </c>
       <c r="AP51" s="13">
-        <v>88251659</v>
+        <v>82571615</v>
       </c>
       <c r="AQ51" s="13">
-        <v>81181753</v>
+        <v>93836010</v>
       </c>
       <c r="AR51" s="13">
-        <v>82578165</v>
+        <v>94226602</v>
       </c>
       <c r="AS51" s="13">
-        <v>93836010</v>
+        <v>92402543</v>
       </c>
       <c r="AT51" s="13">
-        <v>93739425</v>
+        <v>85344967</v>
       </c>
       <c r="AU51" s="13">
-        <v>89166628</v>
+        <v>82605992</v>
       </c>
       <c r="AV51" s="13">
-        <v>84846156</v>
+        <v>77839747</v>
       </c>
       <c r="AW51" s="13">
-        <v>81125285</v>
+        <v>78946124</v>
       </c>
       <c r="AX51" s="13">
-        <v>77912817</v>
+        <v>81303267</v>
       </c>
       <c r="AY51" s="13">
-        <v>78999498</v>
+        <v>83113700</v>
       </c>
       <c r="AZ51" s="13">
-        <v>81673616</v>
+        <v>83561217</v>
       </c>
       <c r="BA51" s="13">
-        <v>84835145</v>
+        <v>89035873</v>
       </c>
       <c r="BB51" s="13">
-        <v>83561217</v>
+        <v>90105248</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/monthly.xlsx
+++ b/database/industries/methanol/zagros/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="74">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3203,154 +3203,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>460275</v>
+        <v>334261</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>334261</v>
+        <v>528702</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>528702</v>
+        <v>623538</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>623538</v>
+        <v>426692</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>426692</v>
+        <v>563664</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>563664</v>
+        <v>597693</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>597693</v>
+        <v>589882</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>589882</v>
+        <v>453846</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>453846</v>
+        <v>576896</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>576896</v>
+        <v>554334</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>554334</v>
+        <v>245006</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>245006</v>
+        <v>60587</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>60587</v>
+        <v>516744</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>516744</v>
+        <v>581404</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>581404</v>
+        <v>570157</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>570157</v>
+        <v>567023</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>567023</v>
+        <v>567528</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>567528</v>
+        <v>550076</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>550076</v>
+        <v>514391</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>514391</v>
+        <v>545342</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>545342</v>
+        <v>546755</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>546755</v>
+        <v>550227</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>550227</v>
+        <v>350481</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>350481</v>
+        <v>486620</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>486620</v>
+        <v>550730</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>550730</v>
+        <v>578202</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>578202</v>
+        <v>563356</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>563356</v>
+        <v>570158</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>570158</v>
+        <v>545105</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>545105</v>
+        <v>568657</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>568657</v>
+        <v>366499</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>366499</v>
+        <v>437716</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>437716</v>
+        <v>271712</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>271712</v>
+        <v>332706</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>332706</v>
+        <v>294402</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>294402</v>
+        <v>372733</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>372733</v>
+        <v>573014</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>573014</v>
+        <v>482842</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>482842</v>
+        <v>490496</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>490496</v>
+        <v>665450</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>665450</v>
+        <v>532153</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>532153</v>
+        <v>490972</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>490972</v>
+        <v>451689</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>451689</v>
+        <v>510445</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>510445</v>
+        <v>508885</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>508885</v>
+        <v>406829</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>406829</v>
+        <v>272307</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>272307</v>
+        <v>254156</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>254156</v>
+        <v>290062</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>290062</v>
+        <v>656190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,154 +3362,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>230431</v>
+        <v>160112</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>160112</v>
+        <v>259547</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>259547</v>
+        <v>288608</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>288608</v>
+        <v>173197</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>173197</v>
+        <v>271869</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>271869</v>
+        <v>287535</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>287535</v>
+        <v>284147</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>284147</v>
+        <v>220152</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>220152</v>
+        <v>283240</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>283240</v>
+        <v>271374</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>271374</v>
+        <v>113721</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>113721</v>
+        <v>27871</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>27871</v>
+        <v>256483</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>256483</v>
+        <v>288928</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>288928</v>
+        <v>285620</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>285620</v>
+        <v>281976</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>281976</v>
+        <v>230927</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>230927</v>
+        <v>266562</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>266562</v>
+        <v>248618</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>248618</v>
+        <v>256943</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>256943</v>
+        <v>250768</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>250768</v>
+        <v>257295</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>257295</v>
+        <v>164273</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>164273</v>
+        <v>223864</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>223864</v>
+        <v>259283</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>259283</v>
+        <v>270065</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>270065</v>
+        <v>260477</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>260477</v>
+        <v>256946</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>256946</v>
+        <v>245189</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>245189</v>
+        <v>258320</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>258320</v>
+        <v>174723</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>174723</v>
+        <v>204534</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>204534</v>
+        <v>129767</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>129767</v>
+        <v>149686</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>149686</v>
+        <v>127634</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>127634</v>
+        <v>174447</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>174447</v>
+        <v>262301</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>262301</v>
+        <v>221696</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>221696</v>
+        <v>226033</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>226033</v>
+        <v>306408</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>306408</v>
+        <v>241486</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>241486</v>
+        <v>227046</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>227046</v>
+        <v>211510</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>211510</v>
+        <v>240508</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>240508</v>
+        <v>240432</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>240432</v>
+        <v>191703</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>191703</v>
+        <v>133036</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>133036</v>
+        <v>116577</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>116577</v>
+        <v>131618</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>131618</v>
+        <v>302187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,8 +3623,8 @@
       <c r="T14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="18" t="s">
-        <v>60</v>
+      <c r="U14" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="18" t="n">
         <v>0</v>
@@ -3733,154 +3733,154 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="n">
-        <v>690706</v>
+        <v>494373</v>
       </c>
       <c r="F15" s="20" t="n">
-        <v>494373</v>
+        <v>788249</v>
       </c>
       <c r="G15" s="20" t="n">
-        <v>788249</v>
+        <v>912146</v>
       </c>
       <c r="H15" s="20" t="n">
-        <v>912146</v>
+        <v>599889</v>
       </c>
       <c r="I15" s="20" t="n">
-        <v>599889</v>
+        <v>835533</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>835533</v>
+        <v>885228</v>
       </c>
       <c r="K15" s="20" t="n">
-        <v>885228</v>
+        <v>874029</v>
       </c>
       <c r="L15" s="20" t="n">
-        <v>874029</v>
+        <v>673998</v>
       </c>
       <c r="M15" s="20" t="n">
-        <v>673998</v>
+        <v>860136</v>
       </c>
       <c r="N15" s="20" t="n">
-        <v>860136</v>
+        <v>825708</v>
       </c>
       <c r="O15" s="20" t="n">
-        <v>825708</v>
+        <v>358727</v>
       </c>
       <c r="P15" s="20" t="n">
-        <v>358727</v>
+        <v>88458</v>
       </c>
       <c r="Q15" s="20" t="n">
-        <v>88458</v>
+        <v>773227</v>
       </c>
       <c r="R15" s="20" t="n">
-        <v>773227</v>
+        <v>870332</v>
       </c>
       <c r="S15" s="20" t="n">
-        <v>870332</v>
+        <v>855777</v>
       </c>
       <c r="T15" s="20" t="n">
-        <v>855777</v>
+        <v>848999</v>
       </c>
       <c r="U15" s="20" t="n">
-        <v>848999</v>
+        <v>798455</v>
       </c>
       <c r="V15" s="20" t="n">
-        <v>798455</v>
+        <v>816638</v>
       </c>
       <c r="W15" s="20" t="n">
-        <v>816638</v>
+        <v>763009</v>
       </c>
       <c r="X15" s="20" t="n">
-        <v>763009</v>
+        <v>802285</v>
       </c>
       <c r="Y15" s="20" t="n">
-        <v>802285</v>
+        <v>797523</v>
       </c>
       <c r="Z15" s="20" t="n">
-        <v>797523</v>
+        <v>807522</v>
       </c>
       <c r="AA15" s="20" t="n">
-        <v>807522</v>
+        <v>514754</v>
       </c>
       <c r="AB15" s="20" t="n">
-        <v>514754</v>
+        <v>710484</v>
       </c>
       <c r="AC15" s="20" t="n">
-        <v>710484</v>
+        <v>810013</v>
       </c>
       <c r="AD15" s="20" t="n">
-        <v>810013</v>
+        <v>848267</v>
       </c>
       <c r="AE15" s="20" t="n">
-        <v>848267</v>
+        <v>823833</v>
       </c>
       <c r="AF15" s="20" t="n">
-        <v>823833</v>
+        <v>827104</v>
       </c>
       <c r="AG15" s="20" t="n">
-        <v>827104</v>
+        <v>790294</v>
       </c>
       <c r="AH15" s="20" t="n">
-        <v>790294</v>
+        <v>826977</v>
       </c>
       <c r="AI15" s="20" t="n">
-        <v>826977</v>
+        <v>541222</v>
       </c>
       <c r="AJ15" s="20" t="n">
-        <v>541222</v>
+        <v>642250</v>
       </c>
       <c r="AK15" s="20" t="n">
-        <v>642250</v>
+        <v>401479</v>
       </c>
       <c r="AL15" s="20" t="n">
-        <v>401479</v>
+        <v>482392</v>
       </c>
       <c r="AM15" s="20" t="n">
-        <v>482392</v>
+        <v>422036</v>
       </c>
       <c r="AN15" s="20" t="n">
-        <v>422036</v>
+        <v>547180</v>
       </c>
       <c r="AO15" s="20" t="n">
-        <v>547180</v>
+        <v>835315</v>
       </c>
       <c r="AP15" s="20" t="n">
-        <v>835315</v>
+        <v>704538</v>
       </c>
       <c r="AQ15" s="20" t="n">
-        <v>704538</v>
+        <v>716529</v>
       </c>
       <c r="AR15" s="20" t="n">
-        <v>716529</v>
+        <v>971858</v>
       </c>
       <c r="AS15" s="20" t="n">
-        <v>971858</v>
+        <v>773639</v>
       </c>
       <c r="AT15" s="20" t="n">
-        <v>773639</v>
+        <v>718018</v>
       </c>
       <c r="AU15" s="20" t="n">
-        <v>718018</v>
+        <v>663199</v>
       </c>
       <c r="AV15" s="20" t="n">
-        <v>663199</v>
+        <v>750953</v>
       </c>
       <c r="AW15" s="20" t="n">
-        <v>750953</v>
+        <v>749317</v>
       </c>
       <c r="AX15" s="20" t="n">
-        <v>749317</v>
+        <v>598532</v>
       </c>
       <c r="AY15" s="20" t="n">
-        <v>598532</v>
+        <v>405343</v>
       </c>
       <c r="AZ15" s="20" t="n">
-        <v>405343</v>
+        <v>370733</v>
       </c>
       <c r="BA15" s="20" t="n">
-        <v>370733</v>
+        <v>421680</v>
       </c>
       <c r="BB15" s="20" t="n">
-        <v>421680</v>
+        <v>958377</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,154 +4326,154 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="n">
-        <v>99915</v>
+        <v>75062</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>75062</v>
+        <v>110514</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v>110514</v>
+        <v>122365</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>122365</v>
+        <v>72215</v>
       </c>
       <c r="I22" s="12" t="n">
-        <v>72215</v>
+        <v>124945</v>
       </c>
       <c r="J22" s="12" t="n">
-        <v>124945</v>
+        <v>136300</v>
       </c>
       <c r="K22" s="12" t="n">
-        <v>136300</v>
+        <v>128030</v>
       </c>
       <c r="L22" s="12" t="n">
-        <v>128030</v>
+        <v>101839</v>
       </c>
       <c r="M22" s="12" t="n">
-        <v>101839</v>
+        <v>123567</v>
       </c>
       <c r="N22" s="12" t="n">
-        <v>123567</v>
+        <v>111297</v>
       </c>
       <c r="O22" s="12" t="n">
-        <v>111297</v>
+        <v>57206</v>
       </c>
       <c r="P22" s="12" t="n">
-        <v>57206</v>
+        <v>10396</v>
       </c>
       <c r="Q22" s="12" t="n">
-        <v>10396</v>
+        <v>116386</v>
       </c>
       <c r="R22" s="12" t="n">
-        <v>116386</v>
+        <v>137622</v>
       </c>
       <c r="S22" s="12" t="n">
-        <v>137622</v>
+        <v>123223</v>
       </c>
       <c r="T22" s="12" t="n">
-        <v>123223</v>
+        <v>121169</v>
       </c>
       <c r="U22" s="12" t="n">
-        <v>121169</v>
+        <v>92945</v>
       </c>
       <c r="V22" s="12" t="n">
-        <v>92945</v>
+        <v>118112</v>
       </c>
       <c r="W22" s="12" t="n">
-        <v>118112</v>
+        <v>113097</v>
       </c>
       <c r="X22" s="12" t="n">
-        <v>113097</v>
+        <v>120048</v>
       </c>
       <c r="Y22" s="12" t="n">
-        <v>120048</v>
+        <v>112161</v>
       </c>
       <c r="Z22" s="12" t="n">
-        <v>112161</v>
+        <v>93674</v>
       </c>
       <c r="AA22" s="12" t="n">
-        <v>93674</v>
+        <v>55487</v>
       </c>
       <c r="AB22" s="12" t="n">
-        <v>55487</v>
+        <v>74384</v>
       </c>
       <c r="AC22" s="12" t="n">
-        <v>74384</v>
+        <v>96352</v>
       </c>
       <c r="AD22" s="12" t="n">
-        <v>96352</v>
+        <v>114608</v>
       </c>
       <c r="AE22" s="12" t="n">
-        <v>114608</v>
+        <v>110556</v>
       </c>
       <c r="AF22" s="12" t="n">
-        <v>110556</v>
+        <v>107639</v>
       </c>
       <c r="AG22" s="12" t="n">
-        <v>107639</v>
+        <v>101988</v>
       </c>
       <c r="AH22" s="12" t="n">
-        <v>101988</v>
+        <v>121193</v>
       </c>
       <c r="AI22" s="12" t="n">
-        <v>121193</v>
+        <v>63766</v>
       </c>
       <c r="AJ22" s="12" t="n">
-        <v>63766</v>
+        <v>71881</v>
       </c>
       <c r="AK22" s="12" t="n">
-        <v>71881</v>
+        <v>39231</v>
       </c>
       <c r="AL22" s="12" t="n">
-        <v>39231</v>
+        <v>46986</v>
       </c>
       <c r="AM22" s="12" t="n">
-        <v>46986</v>
+        <v>49585</v>
       </c>
       <c r="AN22" s="12" t="n">
-        <v>49585</v>
+        <v>66039</v>
       </c>
       <c r="AO22" s="12" t="n">
-        <v>66039</v>
+        <v>97676</v>
       </c>
       <c r="AP22" s="12" t="n">
-        <v>97676</v>
+        <v>82520</v>
       </c>
       <c r="AQ22" s="12" t="n">
-        <v>82520</v>
+        <v>89625</v>
       </c>
       <c r="AR22" s="12" t="n">
-        <v>89625</v>
+        <v>134805</v>
       </c>
       <c r="AS22" s="12" t="n">
-        <v>134805</v>
+        <v>93397</v>
       </c>
       <c r="AT22" s="12" t="n">
-        <v>93397</v>
+        <v>88193</v>
       </c>
       <c r="AU22" s="12" t="n">
-        <v>88193</v>
+        <v>64618</v>
       </c>
       <c r="AV22" s="12" t="n">
-        <v>64618</v>
+        <v>69257</v>
       </c>
       <c r="AW22" s="12" t="n">
-        <v>69257</v>
+        <v>71617</v>
       </c>
       <c r="AX22" s="12" t="n">
-        <v>71617</v>
+        <v>71905</v>
       </c>
       <c r="AY22" s="12" t="n">
-        <v>71905</v>
+        <v>51603</v>
       </c>
       <c r="AZ22" s="12" t="n">
-        <v>51603</v>
+        <v>43597</v>
       </c>
       <c r="BA22" s="12" t="n">
-        <v>43597</v>
+        <v>46946</v>
       </c>
       <c r="BB22" s="12" t="n">
-        <v>46946</v>
+        <v>110278</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,154 +4485,154 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="n">
-        <v>260868</v>
+        <v>146086</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>146086</v>
+        <v>282889</v>
       </c>
       <c r="G23" s="14" t="n">
-        <v>282889</v>
+        <v>276063</v>
       </c>
       <c r="H23" s="14" t="n">
-        <v>276063</v>
+        <v>211821</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>211821</v>
+        <v>200250</v>
       </c>
       <c r="J23" s="14" t="n">
-        <v>200250</v>
+        <v>350903</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>350903</v>
+        <v>193275</v>
       </c>
       <c r="L23" s="14" t="n">
-        <v>193275</v>
+        <v>239019</v>
       </c>
       <c r="M23" s="14" t="n">
-        <v>239019</v>
+        <v>345771</v>
       </c>
       <c r="N23" s="14" t="n">
-        <v>345771</v>
+        <v>320471</v>
       </c>
       <c r="O23" s="14" t="n">
-        <v>320471</v>
+        <v>189100</v>
       </c>
       <c r="P23" s="14" t="n">
-        <v>189100</v>
+        <v>6464</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>6464</v>
+        <v>202799</v>
       </c>
       <c r="R23" s="14" t="n">
-        <v>202799</v>
+        <v>262323</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>262323</v>
+        <v>275898</v>
       </c>
       <c r="T23" s="14" t="n">
-        <v>275898</v>
+        <v>282523</v>
       </c>
       <c r="U23" s="14" t="n">
-        <v>282523</v>
+        <v>283049</v>
       </c>
       <c r="V23" s="14" t="n">
-        <v>283049</v>
+        <v>249490</v>
       </c>
       <c r="W23" s="14" t="n">
-        <v>249490</v>
+        <v>200900</v>
       </c>
       <c r="X23" s="14" t="n">
-        <v>200900</v>
+        <v>350688</v>
       </c>
       <c r="Y23" s="14" t="n">
-        <v>350688</v>
+        <v>287395</v>
       </c>
       <c r="Z23" s="14" t="n">
-        <v>287395</v>
+        <v>288275</v>
       </c>
       <c r="AA23" s="14" t="n">
-        <v>288275</v>
+        <v>158667</v>
       </c>
       <c r="AB23" s="14" t="n">
-        <v>158667</v>
+        <v>135939</v>
       </c>
       <c r="AC23" s="14" t="n">
-        <v>135939</v>
+        <v>261080</v>
       </c>
       <c r="AD23" s="14" t="n">
-        <v>261080</v>
+        <v>294473</v>
       </c>
       <c r="AE23" s="14" t="n">
-        <v>294473</v>
+        <v>305042</v>
       </c>
       <c r="AF23" s="14" t="n">
-        <v>305042</v>
+        <v>227249</v>
       </c>
       <c r="AG23" s="14" t="n">
-        <v>227249</v>
+        <v>231258</v>
       </c>
       <c r="AH23" s="14" t="n">
-        <v>231258</v>
+        <v>293509</v>
       </c>
       <c r="AI23" s="14" t="n">
-        <v>293509</v>
+        <v>188469</v>
       </c>
       <c r="AJ23" s="14" t="n">
-        <v>188469</v>
+        <v>218814</v>
       </c>
       <c r="AK23" s="14" t="n">
-        <v>218814</v>
+        <v>103138</v>
       </c>
       <c r="AL23" s="14" t="n">
-        <v>103138</v>
+        <v>154183</v>
       </c>
       <c r="AM23" s="14" t="n">
-        <v>154183</v>
+        <v>72417</v>
       </c>
       <c r="AN23" s="14" t="n">
-        <v>72417</v>
+        <v>95944</v>
       </c>
       <c r="AO23" s="14" t="n">
-        <v>95944</v>
+        <v>262664</v>
       </c>
       <c r="AP23" s="14" t="n">
-        <v>262664</v>
+        <v>211221</v>
       </c>
       <c r="AQ23" s="14" t="n">
-        <v>211221</v>
+        <v>257058</v>
       </c>
       <c r="AR23" s="14" t="n">
-        <v>257058</v>
+        <v>315387</v>
       </c>
       <c r="AS23" s="14" t="n">
-        <v>315387</v>
+        <v>307143</v>
       </c>
       <c r="AT23" s="14" t="n">
-        <v>307143</v>
+        <v>149913</v>
       </c>
       <c r="AU23" s="14" t="n">
-        <v>149913</v>
+        <v>288939</v>
       </c>
       <c r="AV23" s="14" t="n">
-        <v>288939</v>
+        <v>199761</v>
       </c>
       <c r="AW23" s="14" t="n">
-        <v>199761</v>
+        <v>190634</v>
       </c>
       <c r="AX23" s="14" t="n">
-        <v>190634</v>
+        <v>153654</v>
       </c>
       <c r="AY23" s="14" t="n">
-        <v>153654</v>
+        <v>140849</v>
       </c>
       <c r="AZ23" s="14" t="n">
-        <v>140849</v>
+        <v>137360</v>
       </c>
       <c r="BA23" s="14" t="n">
-        <v>137360</v>
+        <v>111424</v>
       </c>
       <c r="BB23" s="14" t="n">
-        <v>111424</v>
+        <v>208494</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,8 +4746,8 @@
       <c r="T25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U25" s="18" t="s">
-        <v>60</v>
+      <c r="U25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="18" t="n">
         <v>0</v>
@@ -4960,8 +4960,8 @@
       <c r="T27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U27" s="18" t="s">
-        <v>60</v>
+      <c r="U27" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="18" t="n">
         <v>0</v>
@@ -5070,154 +5070,154 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="n">
-        <v>360783</v>
+        <v>221148</v>
       </c>
       <c r="F28" s="20" t="n">
-        <v>221148</v>
+        <v>393403</v>
       </c>
       <c r="G28" s="20" t="n">
-        <v>393403</v>
+        <v>398428</v>
       </c>
       <c r="H28" s="20" t="n">
-        <v>398428</v>
+        <v>284036</v>
       </c>
       <c r="I28" s="20" t="n">
-        <v>284036</v>
+        <v>325195</v>
       </c>
       <c r="J28" s="20" t="n">
-        <v>325195</v>
+        <v>487203</v>
       </c>
       <c r="K28" s="20" t="n">
-        <v>487203</v>
+        <v>321305</v>
       </c>
       <c r="L28" s="20" t="n">
-        <v>321305</v>
+        <v>340858</v>
       </c>
       <c r="M28" s="20" t="n">
-        <v>340858</v>
+        <v>469338</v>
       </c>
       <c r="N28" s="20" t="n">
-        <v>469338</v>
+        <v>431768</v>
       </c>
       <c r="O28" s="20" t="n">
-        <v>431768</v>
+        <v>246306</v>
       </c>
       <c r="P28" s="20" t="n">
-        <v>246306</v>
+        <v>16860</v>
       </c>
       <c r="Q28" s="20" t="n">
-        <v>16860</v>
+        <v>319185</v>
       </c>
       <c r="R28" s="20" t="n">
-        <v>319185</v>
+        <v>399945</v>
       </c>
       <c r="S28" s="20" t="n">
-        <v>399945</v>
+        <v>399121</v>
       </c>
       <c r="T28" s="20" t="n">
-        <v>399121</v>
+        <v>403692</v>
       </c>
       <c r="U28" s="20" t="n">
-        <v>403692</v>
+        <v>375994</v>
       </c>
       <c r="V28" s="20" t="n">
-        <v>375994</v>
+        <v>367602</v>
       </c>
       <c r="W28" s="20" t="n">
-        <v>367602</v>
+        <v>313997</v>
       </c>
       <c r="X28" s="20" t="n">
-        <v>313997</v>
+        <v>470736</v>
       </c>
       <c r="Y28" s="20" t="n">
-        <v>470736</v>
+        <v>399556</v>
       </c>
       <c r="Z28" s="20" t="n">
-        <v>399556</v>
+        <v>381949</v>
       </c>
       <c r="AA28" s="20" t="n">
-        <v>381949</v>
+        <v>214154</v>
       </c>
       <c r="AB28" s="20" t="n">
-        <v>214154</v>
+        <v>210323</v>
       </c>
       <c r="AC28" s="20" t="n">
-        <v>210323</v>
+        <v>357432</v>
       </c>
       <c r="AD28" s="20" t="n">
-        <v>357432</v>
+        <v>409081</v>
       </c>
       <c r="AE28" s="20" t="n">
-        <v>409081</v>
+        <v>415598</v>
       </c>
       <c r="AF28" s="20" t="n">
-        <v>415598</v>
+        <v>334888</v>
       </c>
       <c r="AG28" s="20" t="n">
-        <v>334888</v>
+        <v>333246</v>
       </c>
       <c r="AH28" s="20" t="n">
-        <v>333246</v>
+        <v>414702</v>
       </c>
       <c r="AI28" s="20" t="n">
-        <v>414702</v>
+        <v>252235</v>
       </c>
       <c r="AJ28" s="20" t="n">
-        <v>252235</v>
+        <v>290695</v>
       </c>
       <c r="AK28" s="20" t="n">
-        <v>290695</v>
+        <v>142369</v>
       </c>
       <c r="AL28" s="20" t="n">
-        <v>142369</v>
+        <v>201169</v>
       </c>
       <c r="AM28" s="20" t="n">
-        <v>201169</v>
+        <v>122002</v>
       </c>
       <c r="AN28" s="20" t="n">
-        <v>122002</v>
+        <v>161983</v>
       </c>
       <c r="AO28" s="20" t="n">
-        <v>161983</v>
+        <v>360340</v>
       </c>
       <c r="AP28" s="20" t="n">
-        <v>360340</v>
+        <v>293741</v>
       </c>
       <c r="AQ28" s="20" t="n">
-        <v>293741</v>
+        <v>346683</v>
       </c>
       <c r="AR28" s="20" t="n">
-        <v>346683</v>
+        <v>450192</v>
       </c>
       <c r="AS28" s="20" t="n">
-        <v>450192</v>
+        <v>400540</v>
       </c>
       <c r="AT28" s="20" t="n">
-        <v>400540</v>
+        <v>238106</v>
       </c>
       <c r="AU28" s="20" t="n">
-        <v>238106</v>
+        <v>353557</v>
       </c>
       <c r="AV28" s="20" t="n">
-        <v>353557</v>
+        <v>269018</v>
       </c>
       <c r="AW28" s="20" t="n">
-        <v>269018</v>
+        <v>262251</v>
       </c>
       <c r="AX28" s="20" t="n">
-        <v>262251</v>
+        <v>225559</v>
       </c>
       <c r="AY28" s="20" t="n">
-        <v>225559</v>
+        <v>192452</v>
       </c>
       <c r="AZ28" s="20" t="n">
-        <v>192452</v>
+        <v>180957</v>
       </c>
       <c r="BA28" s="20" t="n">
-        <v>180957</v>
+        <v>158370</v>
       </c>
       <c r="BB28" s="20" t="n">
-        <v>158370</v>
+        <v>318772</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,154 +5663,154 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12" t="n">
-        <v>44118</v>
+        <v>33143</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>33143</v>
+        <v>48798</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>48798</v>
+        <v>54031</v>
       </c>
       <c r="H35" s="12" t="n">
-        <v>54031</v>
+        <v>31887</v>
       </c>
       <c r="I35" s="12" t="n">
-        <v>31887</v>
+        <v>55170</v>
       </c>
       <c r="J35" s="12" t="n">
-        <v>55170</v>
+        <v>60184</v>
       </c>
       <c r="K35" s="12" t="n">
-        <v>60184</v>
+        <v>56532</v>
       </c>
       <c r="L35" s="12" t="n">
-        <v>56532</v>
+        <v>44968</v>
       </c>
       <c r="M35" s="12" t="n">
-        <v>44968</v>
+        <v>54562</v>
       </c>
       <c r="N35" s="12" t="n">
-        <v>54562</v>
+        <v>49144</v>
       </c>
       <c r="O35" s="12" t="n">
-        <v>49144</v>
+        <v>25260</v>
       </c>
       <c r="P35" s="12" t="n">
-        <v>25260</v>
+        <v>7305</v>
       </c>
       <c r="Q35" s="12" t="n">
-        <v>7305</v>
+        <v>81786</v>
       </c>
       <c r="R35" s="12" t="n">
-        <v>81786</v>
+        <v>92090</v>
       </c>
       <c r="S35" s="12" t="n">
-        <v>92090</v>
+        <v>82822</v>
       </c>
       <c r="T35" s="12" t="n">
-        <v>82822</v>
+        <v>81441</v>
       </c>
       <c r="U35" s="12" t="n">
-        <v>81441</v>
+        <v>62471</v>
       </c>
       <c r="V35" s="12" t="n">
-        <v>62471</v>
+        <v>79387</v>
       </c>
       <c r="W35" s="12" t="n">
-        <v>79387</v>
+        <v>76015</v>
       </c>
       <c r="X35" s="12" t="n">
-        <v>76015</v>
+        <v>80688</v>
       </c>
       <c r="Y35" s="12" t="n">
-        <v>80688</v>
+        <v>75387</v>
       </c>
       <c r="Z35" s="12" t="n">
-        <v>75387</v>
+        <v>62961</v>
       </c>
       <c r="AA35" s="12" t="n">
-        <v>62961</v>
+        <v>37295</v>
       </c>
       <c r="AB35" s="12" t="n">
-        <v>37295</v>
+        <v>49995</v>
       </c>
       <c r="AC35" s="12" t="n">
-        <v>49995</v>
+        <v>64762</v>
       </c>
       <c r="AD35" s="12" t="n">
-        <v>64762</v>
+        <v>91826</v>
       </c>
       <c r="AE35" s="12" t="n">
-        <v>91826</v>
+        <v>88580</v>
       </c>
       <c r="AF35" s="12" t="n">
-        <v>88580</v>
+        <v>86243</v>
       </c>
       <c r="AG35" s="12" t="n">
-        <v>86243</v>
+        <v>81715</v>
       </c>
       <c r="AH35" s="12" t="n">
-        <v>81715</v>
+        <v>97103</v>
       </c>
       <c r="AI35" s="12" t="n">
-        <v>97103</v>
+        <v>51091</v>
       </c>
       <c r="AJ35" s="12" t="n">
-        <v>51091</v>
+        <v>57592</v>
       </c>
       <c r="AK35" s="12" t="n">
-        <v>57592</v>
+        <v>31433</v>
       </c>
       <c r="AL35" s="12" t="n">
-        <v>31433</v>
+        <v>37646</v>
       </c>
       <c r="AM35" s="12" t="n">
-        <v>37646</v>
+        <v>39732</v>
       </c>
       <c r="AN35" s="12" t="n">
-        <v>39732</v>
+        <v>52912</v>
       </c>
       <c r="AO35" s="12" t="n">
-        <v>52912</v>
+        <v>78260</v>
       </c>
       <c r="AP35" s="12" t="n">
-        <v>78260</v>
+        <v>66116</v>
       </c>
       <c r="AQ35" s="12" t="n">
-        <v>66116</v>
+        <v>157981</v>
       </c>
       <c r="AR35" s="12" t="n">
-        <v>157981</v>
+        <v>243020</v>
       </c>
       <c r="AS35" s="12" t="n">
-        <v>243020</v>
+        <v>168371</v>
       </c>
       <c r="AT35" s="12" t="n">
-        <v>168371</v>
+        <v>158990</v>
       </c>
       <c r="AU35" s="12" t="n">
-        <v>158990</v>
+        <v>116490</v>
       </c>
       <c r="AV35" s="12" t="n">
-        <v>116490</v>
+        <v>124853</v>
       </c>
       <c r="AW35" s="12" t="n">
-        <v>124853</v>
+        <v>129107</v>
       </c>
       <c r="AX35" s="12" t="n">
-        <v>129107</v>
+        <v>129627</v>
       </c>
       <c r="AY35" s="12" t="n">
-        <v>129627</v>
+        <v>93027</v>
       </c>
       <c r="AZ35" s="12" t="n">
-        <v>93027</v>
+        <v>78594</v>
       </c>
       <c r="BA35" s="12" t="n">
-        <v>78594</v>
+        <v>84632</v>
       </c>
       <c r="BB35" s="12" t="n">
-        <v>84632</v>
+        <v>220893</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,154 +5822,154 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="n">
-        <v>5651789</v>
+        <v>3869074</v>
       </c>
       <c r="F36" s="14" t="n">
-        <v>3869074</v>
+        <v>7493799</v>
       </c>
       <c r="G36" s="14" t="n">
-        <v>7493799</v>
+        <v>8340013</v>
       </c>
       <c r="H36" s="14" t="n">
-        <v>8340013</v>
+        <v>6259414</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>6259414</v>
+        <v>6023757</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>6023757</v>
+        <v>9893541</v>
       </c>
       <c r="K36" s="14" t="n">
-        <v>9893541</v>
+        <v>4634376</v>
       </c>
       <c r="L36" s="14" t="n">
-        <v>4634376</v>
+        <v>5974637</v>
       </c>
       <c r="M36" s="14" t="n">
-        <v>5974637</v>
+        <v>8457374</v>
       </c>
       <c r="N36" s="14" t="n">
-        <v>8457374</v>
+        <v>7806844</v>
       </c>
       <c r="O36" s="14" t="n">
-        <v>7806844</v>
+        <v>4789641</v>
       </c>
       <c r="P36" s="14" t="n">
-        <v>4789641</v>
+        <v>116646</v>
       </c>
       <c r="Q36" s="14" t="n">
-        <v>116646</v>
+        <v>5592861</v>
       </c>
       <c r="R36" s="14" t="n">
-        <v>5592861</v>
+        <v>7038460</v>
       </c>
       <c r="S36" s="14" t="n">
-        <v>7038460</v>
+        <v>6712883</v>
       </c>
       <c r="T36" s="14" t="n">
-        <v>6712883</v>
+        <v>6981262</v>
       </c>
       <c r="U36" s="14" t="n">
-        <v>6981262</v>
+        <v>7724185</v>
       </c>
       <c r="V36" s="14" t="n">
-        <v>7724185</v>
+        <v>7529937</v>
       </c>
       <c r="W36" s="14" t="n">
-        <v>7529937</v>
+        <v>7261702</v>
       </c>
       <c r="X36" s="14" t="n">
-        <v>7261702</v>
+        <v>16570693</v>
       </c>
       <c r="Y36" s="14" t="n">
-        <v>16570693</v>
+        <v>16283392</v>
       </c>
       <c r="Z36" s="14" t="n">
-        <v>16283392</v>
+        <v>18057243</v>
       </c>
       <c r="AA36" s="14" t="n">
-        <v>18057243</v>
+        <v>11391054</v>
       </c>
       <c r="AB36" s="14" t="n">
-        <v>11391054</v>
+        <v>9649868</v>
       </c>
       <c r="AC36" s="14" t="n">
-        <v>9649868</v>
+        <v>18137465</v>
       </c>
       <c r="AD36" s="14" t="n">
-        <v>18137465</v>
+        <v>20971831</v>
       </c>
       <c r="AE36" s="14" t="n">
-        <v>20971831</v>
+        <v>20147116</v>
       </c>
       <c r="AF36" s="14" t="n">
-        <v>20147116</v>
+        <v>14720762</v>
       </c>
       <c r="AG36" s="14" t="n">
-        <v>14720762</v>
+        <v>16342267</v>
       </c>
       <c r="AH36" s="14" t="n">
-        <v>16342267</v>
+        <v>22054259</v>
       </c>
       <c r="AI36" s="14" t="n">
-        <v>22054259</v>
+        <v>14384276</v>
       </c>
       <c r="AJ36" s="14" t="n">
-        <v>14384276</v>
+        <v>20314240</v>
       </c>
       <c r="AK36" s="14" t="n">
-        <v>20314240</v>
+        <v>9875429</v>
       </c>
       <c r="AL36" s="14" t="n">
-        <v>9875429</v>
+        <v>13606921</v>
       </c>
       <c r="AM36" s="14" t="n">
-        <v>13606921</v>
+        <v>5878939</v>
       </c>
       <c r="AN36" s="14" t="n">
-        <v>5878939</v>
+        <v>7922251</v>
       </c>
       <c r="AO36" s="14" t="n">
-        <v>7922251</v>
+        <v>24647384</v>
       </c>
       <c r="AP36" s="14" t="n">
-        <v>24647384</v>
+        <v>19902637</v>
       </c>
       <c r="AQ36" s="14" t="n">
-        <v>19902637</v>
+        <v>23752776</v>
       </c>
       <c r="AR36" s="14" t="n">
-        <v>23752776</v>
+        <v>26916659</v>
       </c>
       <c r="AS36" s="14" t="n">
-        <v>26916659</v>
+        <v>25371847</v>
       </c>
       <c r="AT36" s="14" t="n">
-        <v>25371847</v>
+        <v>11669221</v>
       </c>
       <c r="AU36" s="14" t="n">
-        <v>11669221</v>
+        <v>22810644</v>
       </c>
       <c r="AV36" s="14" t="n">
-        <v>22810644</v>
+        <v>16241222</v>
       </c>
       <c r="AW36" s="14" t="n">
-        <v>16241222</v>
+        <v>15844297</v>
       </c>
       <c r="AX36" s="14" t="n">
-        <v>15844297</v>
+        <v>12839532</v>
       </c>
       <c r="AY36" s="14" t="n">
-        <v>12839532</v>
+        <v>12540652</v>
       </c>
       <c r="AZ36" s="14" t="n">
-        <v>12540652</v>
+        <v>12376829</v>
       </c>
       <c r="BA36" s="14" t="n">
-        <v>12376829</v>
+        <v>12208985</v>
       </c>
       <c r="BB36" s="14" t="n">
-        <v>12208985</v>
+        <v>23319179</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,8 +6085,8 @@
       <c r="T38" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>60</v>
+      <c r="U38" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="21" t="n">
         <v>0</v>
@@ -6301,8 +6301,8 @@
       <c r="T40" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U40" s="18" t="s">
-        <v>60</v>
+      <c r="U40" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="21" t="n">
         <v>0</v>
@@ -6517,8 +6517,8 @@
       <c r="T42" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="U42" s="22" t="s">
-        <v>60</v>
+      <c r="U42" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="22" t="n">
         <v>0</v>
@@ -6627,154 +6627,154 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="n">
-        <v>5695907</v>
+        <v>3902217</v>
       </c>
       <c r="F43" s="20" t="n">
-        <v>3902217</v>
+        <v>7542597</v>
       </c>
       <c r="G43" s="20" t="n">
-        <v>7542597</v>
+        <v>8394044</v>
       </c>
       <c r="H43" s="20" t="n">
-        <v>8394044</v>
+        <v>6291301</v>
       </c>
       <c r="I43" s="20" t="n">
-        <v>6291301</v>
+        <v>6078927</v>
       </c>
       <c r="J43" s="20" t="n">
-        <v>6078927</v>
+        <v>9953725</v>
       </c>
       <c r="K43" s="20" t="n">
-        <v>9953725</v>
+        <v>4690908</v>
       </c>
       <c r="L43" s="20" t="n">
-        <v>4690908</v>
+        <v>6019605</v>
       </c>
       <c r="M43" s="20" t="n">
-        <v>6019605</v>
+        <v>8511936</v>
       </c>
       <c r="N43" s="20" t="n">
-        <v>8511936</v>
+        <v>7855988</v>
       </c>
       <c r="O43" s="20" t="n">
-        <v>7855988</v>
+        <v>4814901</v>
       </c>
       <c r="P43" s="20" t="n">
-        <v>4814901</v>
+        <v>123951</v>
       </c>
       <c r="Q43" s="20" t="n">
-        <v>123951</v>
+        <v>5674647</v>
       </c>
       <c r="R43" s="20" t="n">
-        <v>5674647</v>
+        <v>7130550</v>
       </c>
       <c r="S43" s="20" t="n">
-        <v>7130550</v>
+        <v>6795705</v>
       </c>
       <c r="T43" s="20" t="n">
-        <v>6795705</v>
+        <v>7062703</v>
       </c>
       <c r="U43" s="20" t="n">
-        <v>7062703</v>
+        <v>7786656</v>
       </c>
       <c r="V43" s="20" t="n">
-        <v>7786656</v>
+        <v>7609324</v>
       </c>
       <c r="W43" s="20" t="n">
-        <v>7609324</v>
+        <v>7337717</v>
       </c>
       <c r="X43" s="20" t="n">
-        <v>7337717</v>
+        <v>16651381</v>
       </c>
       <c r="Y43" s="20" t="n">
-        <v>16651381</v>
+        <v>16358779</v>
       </c>
       <c r="Z43" s="20" t="n">
-        <v>16358779</v>
+        <v>18120204</v>
       </c>
       <c r="AA43" s="20" t="n">
-        <v>18120204</v>
+        <v>11428349</v>
       </c>
       <c r="AB43" s="20" t="n">
-        <v>11428349</v>
+        <v>9699863</v>
       </c>
       <c r="AC43" s="20" t="n">
-        <v>9699863</v>
+        <v>18202227</v>
       </c>
       <c r="AD43" s="20" t="n">
-        <v>18202227</v>
+        <v>21063657</v>
       </c>
       <c r="AE43" s="20" t="n">
-        <v>21063657</v>
+        <v>20235696</v>
       </c>
       <c r="AF43" s="20" t="n">
-        <v>20235696</v>
+        <v>14807005</v>
       </c>
       <c r="AG43" s="20" t="n">
-        <v>14807005</v>
+        <v>16423982</v>
       </c>
       <c r="AH43" s="20" t="n">
-        <v>16423982</v>
+        <v>22151362</v>
       </c>
       <c r="AI43" s="20" t="n">
-        <v>22151362</v>
+        <v>14435367</v>
       </c>
       <c r="AJ43" s="20" t="n">
-        <v>14435367</v>
+        <v>20371832</v>
       </c>
       <c r="AK43" s="20" t="n">
-        <v>20371832</v>
+        <v>9906862</v>
       </c>
       <c r="AL43" s="20" t="n">
-        <v>9906862</v>
+        <v>13644567</v>
       </c>
       <c r="AM43" s="20" t="n">
-        <v>13644567</v>
+        <v>5918671</v>
       </c>
       <c r="AN43" s="20" t="n">
-        <v>5918671</v>
+        <v>7975163</v>
       </c>
       <c r="AO43" s="20" t="n">
-        <v>7975163</v>
+        <v>24725644</v>
       </c>
       <c r="AP43" s="20" t="n">
-        <v>24725644</v>
+        <v>19968753</v>
       </c>
       <c r="AQ43" s="20" t="n">
-        <v>19968753</v>
+        <v>23910757</v>
       </c>
       <c r="AR43" s="20" t="n">
-        <v>23910757</v>
+        <v>27159679</v>
       </c>
       <c r="AS43" s="20" t="n">
-        <v>27159679</v>
+        <v>25540218</v>
       </c>
       <c r="AT43" s="20" t="n">
-        <v>25540218</v>
+        <v>11828211</v>
       </c>
       <c r="AU43" s="20" t="n">
-        <v>11828211</v>
+        <v>22927134</v>
       </c>
       <c r="AV43" s="20" t="n">
-        <v>22927134</v>
+        <v>16366075</v>
       </c>
       <c r="AW43" s="20" t="n">
-        <v>16366075</v>
+        <v>15973404</v>
       </c>
       <c r="AX43" s="20" t="n">
-        <v>15973404</v>
+        <v>12969159</v>
       </c>
       <c r="AY43" s="20" t="n">
-        <v>12969159</v>
+        <v>12633679</v>
       </c>
       <c r="AZ43" s="20" t="n">
-        <v>12633679</v>
+        <v>12455423</v>
       </c>
       <c r="BA43" s="20" t="n">
-        <v>12455423</v>
+        <v>12293617</v>
       </c>
       <c r="BB43" s="20" t="n">
-        <v>12293617</v>
+        <v>23540072</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,154 +7220,154 @@
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22" t="n">
+        <v>441542</v>
+      </c>
+      <c r="F50" s="22" t="n">
         <v>441555</v>
       </c>
-      <c r="F50" s="22" t="n">
-        <v>441542</v>
-      </c>
       <c r="G50" s="22" t="n">
-        <v>441555</v>
+        <v>441556</v>
       </c>
       <c r="H50" s="22" t="n">
         <v>441556</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>441556</v>
+        <v>441554</v>
       </c>
       <c r="J50" s="22" t="n">
-        <v>441554</v>
+        <v>441555</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>441555</v>
+        <v>441553</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>441553</v>
+        <v>441560</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>441560</v>
+        <v>441558</v>
       </c>
       <c r="N50" s="22" t="n">
-        <v>441558</v>
+        <v>441557</v>
       </c>
       <c r="O50" s="22" t="n">
-        <v>441557</v>
+        <v>441562</v>
       </c>
       <c r="P50" s="22" t="n">
-        <v>441562</v>
+        <v>702674</v>
       </c>
       <c r="Q50" s="22" t="n">
-        <v>702674</v>
+        <v>702713</v>
       </c>
       <c r="R50" s="22" t="n">
-        <v>702713</v>
+        <v>669155</v>
       </c>
       <c r="S50" s="22" t="n">
-        <v>669155</v>
+        <v>672131</v>
       </c>
       <c r="T50" s="22" t="n">
+        <v>672127</v>
+      </c>
+      <c r="U50" s="22" t="n">
+        <v>672129</v>
+      </c>
+      <c r="V50" s="22" t="n">
+        <v>672133</v>
+      </c>
+      <c r="W50" s="22" t="n">
+        <v>672122</v>
+      </c>
+      <c r="X50" s="22" t="n">
         <v>672131</v>
       </c>
-      <c r="U50" s="22" t="n">
-        <v>672127</v>
-      </c>
-      <c r="V50" s="22" t="n">
+      <c r="Y50" s="22" t="n">
+        <v>672132</v>
+      </c>
+      <c r="Z50" s="22" t="n">
         <v>672129</v>
       </c>
-      <c r="W50" s="22" t="n">
-        <v>672133</v>
-      </c>
-      <c r="X50" s="22" t="n">
-        <v>672122</v>
-      </c>
-      <c r="Y50" s="22" t="n">
-        <v>672131</v>
-      </c>
-      <c r="Z50" s="22" t="n">
+      <c r="AA50" s="22" t="n">
         <v>672132</v>
       </c>
-      <c r="AA50" s="22" t="n">
-        <v>672129</v>
-      </c>
       <c r="AB50" s="22" t="n">
-        <v>672132</v>
+        <v>672120</v>
       </c>
       <c r="AC50" s="22" t="n">
-        <v>672120</v>
+        <v>672140</v>
       </c>
       <c r="AD50" s="22" t="n">
-        <v>672140</v>
+        <v>801218</v>
       </c>
       <c r="AE50" s="22" t="n">
-        <v>801218</v>
+        <v>801223</v>
       </c>
       <c r="AF50" s="22" t="n">
-        <v>801223</v>
+        <v>801224</v>
       </c>
       <c r="AG50" s="22" t="n">
-        <v>801224</v>
+        <v>801222</v>
       </c>
       <c r="AH50" s="22" t="n">
-        <v>801222</v>
+        <v>801226</v>
       </c>
       <c r="AI50" s="22" t="n">
         <v>801226</v>
       </c>
       <c r="AJ50" s="22" t="n">
-        <v>801226</v>
+        <v>801213</v>
       </c>
       <c r="AK50" s="22" t="n">
-        <v>801213</v>
+        <v>801229</v>
       </c>
       <c r="AL50" s="22" t="n">
-        <v>801229</v>
+        <v>801217</v>
       </c>
       <c r="AM50" s="22" t="n">
-        <v>801217</v>
+        <v>801291</v>
       </c>
       <c r="AN50" s="22" t="n">
-        <v>801291</v>
+        <v>801224</v>
       </c>
       <c r="AO50" s="22" t="n">
-        <v>801224</v>
+        <v>801220</v>
       </c>
       <c r="AP50" s="22" t="n">
-        <v>801220</v>
+        <v>801212</v>
       </c>
       <c r="AQ50" s="22" t="n">
-        <v>801212</v>
+        <v>1762689</v>
       </c>
       <c r="AR50" s="22" t="n">
-        <v>1762689</v>
+        <v>1802752</v>
       </c>
       <c r="AS50" s="22" t="n">
+        <v>1802745</v>
+      </c>
+      <c r="AT50" s="22" t="n">
+        <v>1802751</v>
+      </c>
+      <c r="AU50" s="22" t="n">
+        <v>1802748</v>
+      </c>
+      <c r="AV50" s="22" t="n">
+        <v>1802749</v>
+      </c>
+      <c r="AW50" s="22" t="n">
+        <v>1802742</v>
+      </c>
+      <c r="AX50" s="22" t="n">
+        <v>1802754</v>
+      </c>
+      <c r="AY50" s="22" t="n">
+        <v>1802744</v>
+      </c>
+      <c r="AZ50" s="22" t="n">
+        <v>1802739</v>
+      </c>
+      <c r="BA50" s="22" t="n">
         <v>1802752</v>
       </c>
-      <c r="AT50" s="22" t="n">
-        <v>1802745</v>
-      </c>
-      <c r="AU50" s="22" t="n">
-        <v>1802751</v>
-      </c>
-      <c r="AV50" s="22" t="n">
-        <v>1802748</v>
-      </c>
-      <c r="AW50" s="22" t="n">
-        <v>1802749</v>
-      </c>
-      <c r="AX50" s="22" t="n">
-        <v>1802742</v>
-      </c>
-      <c r="AY50" s="22" t="n">
-        <v>1802754</v>
-      </c>
-      <c r="AZ50" s="22" t="n">
-        <v>1802744</v>
-      </c>
-      <c r="BA50" s="22" t="n">
-        <v>1802739</v>
-      </c>
       <c r="BB50" s="22" t="n">
-        <v>1802752</v>
+        <v>2003056</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,154 +7379,154 @@
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="n">
-        <v>21665321</v>
+        <v>26484906</v>
       </c>
       <c r="F51" s="14" t="n">
-        <v>26484906</v>
+        <v>26490245</v>
       </c>
       <c r="G51" s="14" t="n">
-        <v>26490245</v>
+        <v>30210543</v>
       </c>
       <c r="H51" s="14" t="n">
-        <v>30210543</v>
+        <v>29550488</v>
       </c>
       <c r="I51" s="14" t="n">
-        <v>29550488</v>
+        <v>30081184</v>
       </c>
       <c r="J51" s="14" t="n">
-        <v>30081184</v>
+        <v>28194518</v>
       </c>
       <c r="K51" s="14" t="n">
-        <v>28194518</v>
+        <v>23978145</v>
       </c>
       <c r="L51" s="14" t="n">
-        <v>23978145</v>
+        <v>24996494</v>
       </c>
       <c r="M51" s="14" t="n">
-        <v>24996494</v>
+        <v>24459466</v>
       </c>
       <c r="N51" s="14" t="n">
-        <v>24459466</v>
+        <v>24360532</v>
       </c>
       <c r="O51" s="14" t="n">
-        <v>24360532</v>
+        <v>25328614</v>
       </c>
       <c r="P51" s="14" t="n">
-        <v>25328614</v>
+        <v>18045483</v>
       </c>
       <c r="Q51" s="14" t="n">
-        <v>18045483</v>
+        <v>27578346</v>
       </c>
       <c r="R51" s="14" t="n">
-        <v>27578346</v>
+        <v>26831228</v>
       </c>
       <c r="S51" s="14" t="n">
-        <v>26831228</v>
+        <v>24331059</v>
       </c>
       <c r="T51" s="14" t="n">
-        <v>24331059</v>
+        <v>24710436</v>
       </c>
       <c r="U51" s="14" t="n">
-        <v>24710436</v>
+        <v>27289244</v>
       </c>
       <c r="V51" s="14" t="n">
-        <v>27289244</v>
+        <v>30181289</v>
       </c>
       <c r="W51" s="14" t="n">
-        <v>30181289</v>
+        <v>36145783</v>
       </c>
       <c r="X51" s="14" t="n">
-        <v>36145783</v>
+        <v>47251953</v>
       </c>
       <c r="Y51" s="14" t="n">
-        <v>47251953</v>
+        <v>56658578</v>
       </c>
       <c r="Z51" s="14" t="n">
-        <v>56658578</v>
+        <v>62639038</v>
       </c>
       <c r="AA51" s="14" t="n">
-        <v>62639038</v>
+        <v>71792084</v>
       </c>
       <c r="AB51" s="14" t="n">
-        <v>71792084</v>
+        <v>70986631</v>
       </c>
       <c r="AC51" s="14" t="n">
-        <v>70986631</v>
+        <v>69470909</v>
       </c>
       <c r="AD51" s="14" t="n">
-        <v>69470909</v>
+        <v>71218206</v>
       </c>
       <c r="AE51" s="14" t="n">
-        <v>71218206</v>
+        <v>66047023</v>
       </c>
       <c r="AF51" s="14" t="n">
-        <v>66047023</v>
+        <v>64778116</v>
       </c>
       <c r="AG51" s="14" t="n">
-        <v>64778116</v>
+        <v>70666818</v>
       </c>
       <c r="AH51" s="14" t="n">
-        <v>70666818</v>
+        <v>75139975</v>
       </c>
       <c r="AI51" s="14" t="n">
-        <v>75139975</v>
+        <v>76321898</v>
       </c>
       <c r="AJ51" s="14" t="n">
-        <v>76321898</v>
+        <v>92837957</v>
       </c>
       <c r="AK51" s="14" t="n">
-        <v>92837957</v>
+        <v>95750120</v>
       </c>
       <c r="AL51" s="14" t="n">
-        <v>95750120</v>
+        <v>88251659</v>
       </c>
       <c r="AM51" s="14" t="n">
-        <v>88251659</v>
+        <v>81181753</v>
       </c>
       <c r="AN51" s="14" t="n">
-        <v>81181753</v>
+        <v>82571615</v>
       </c>
       <c r="AO51" s="14" t="n">
-        <v>82571615</v>
+        <v>93836010</v>
       </c>
       <c r="AP51" s="14" t="n">
-        <v>93836010</v>
+        <v>94226602</v>
       </c>
       <c r="AQ51" s="14" t="n">
-        <v>94226602</v>
+        <v>92402543</v>
       </c>
       <c r="AR51" s="14" t="n">
-        <v>92402543</v>
+        <v>85344967</v>
       </c>
       <c r="AS51" s="14" t="n">
-        <v>85344967</v>
+        <v>82605992</v>
       </c>
       <c r="AT51" s="14" t="n">
-        <v>82605992</v>
+        <v>77839747</v>
       </c>
       <c r="AU51" s="14" t="n">
-        <v>77839747</v>
+        <v>78946124</v>
       </c>
       <c r="AV51" s="14" t="n">
-        <v>78946124</v>
+        <v>81303267</v>
       </c>
       <c r="AW51" s="14" t="n">
-        <v>81303267</v>
+        <v>83113700</v>
       </c>
       <c r="AX51" s="14" t="n">
-        <v>83113700</v>
+        <v>83561217</v>
       </c>
       <c r="AY51" s="14" t="n">
-        <v>83561217</v>
+        <v>89035873</v>
       </c>
       <c r="AZ51" s="14" t="n">
-        <v>89035873</v>
+        <v>90105248</v>
       </c>
       <c r="BA51" s="14" t="n">
-        <v>90105248</v>
+        <v>109572103</v>
       </c>
       <c r="BB51" s="14" t="n">
-        <v>109572103</v>
+        <v>111845804</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/monthly.xlsx
+++ b/database/industries/methanol/zagros/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C1D5C-3E53-4196-AB9F-C2B53EEF7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48499DA9-FD42-47D6-9285-885525E96E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 5 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1398/08</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1402/09</t>
   </si>
   <si>
     <t>متانول</t>
@@ -1476,154 +1476,154 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>287535</v>
+        <v>283240</v>
       </c>
       <c r="F12" s="9">
-        <v>284147</v>
+        <v>271374</v>
       </c>
       <c r="G12" s="9">
-        <v>220152</v>
+        <v>113721</v>
       </c>
       <c r="H12" s="9">
-        <v>283240</v>
+        <v>27871</v>
       </c>
       <c r="I12" s="9">
-        <v>271374</v>
+        <v>256483</v>
       </c>
       <c r="J12" s="9">
-        <v>113721</v>
+        <v>288928</v>
       </c>
       <c r="K12" s="9">
-        <v>27871</v>
+        <v>285620</v>
       </c>
       <c r="L12" s="9">
-        <v>256483</v>
+        <v>281976</v>
       </c>
       <c r="M12" s="9">
-        <v>288928</v>
+        <v>230927</v>
       </c>
       <c r="N12" s="9">
-        <v>285620</v>
+        <v>266562</v>
       </c>
       <c r="O12" s="9">
-        <v>281976</v>
+        <v>248618</v>
       </c>
       <c r="P12" s="9">
-        <v>230927</v>
+        <v>256943</v>
       </c>
       <c r="Q12" s="9">
-        <v>266562</v>
+        <v>250768</v>
       </c>
       <c r="R12" s="9">
-        <v>248618</v>
+        <v>257295</v>
       </c>
       <c r="S12" s="9">
-        <v>256943</v>
+        <v>164273</v>
       </c>
       <c r="T12" s="9">
-        <v>250768</v>
+        <v>223864</v>
       </c>
       <c r="U12" s="9">
-        <v>257295</v>
+        <v>259283</v>
       </c>
       <c r="V12" s="9">
-        <v>164273</v>
+        <v>270065</v>
       </c>
       <c r="W12" s="9">
-        <v>223864</v>
+        <v>260477</v>
       </c>
       <c r="X12" s="9">
-        <v>259283</v>
+        <v>256946</v>
       </c>
       <c r="Y12" s="9">
-        <v>270065</v>
+        <v>245189</v>
       </c>
       <c r="Z12" s="9">
-        <v>260477</v>
+        <v>258320</v>
       </c>
       <c r="AA12" s="9">
-        <v>256946</v>
+        <v>174723</v>
       </c>
       <c r="AB12" s="9">
-        <v>245189</v>
+        <v>204534</v>
       </c>
       <c r="AC12" s="9">
-        <v>258320</v>
+        <v>129767</v>
       </c>
       <c r="AD12" s="9">
-        <v>174723</v>
+        <v>149686</v>
       </c>
       <c r="AE12" s="9">
-        <v>204534</v>
+        <v>127634</v>
       </c>
       <c r="AF12" s="9">
-        <v>129767</v>
+        <v>174447</v>
       </c>
       <c r="AG12" s="9">
-        <v>149686</v>
+        <v>262301</v>
       </c>
       <c r="AH12" s="9">
-        <v>127634</v>
+        <v>221696</v>
       </c>
       <c r="AI12" s="9">
-        <v>174447</v>
+        <v>226033</v>
       </c>
       <c r="AJ12" s="9">
-        <v>262301</v>
+        <v>306408</v>
       </c>
       <c r="AK12" s="9">
-        <v>221696</v>
+        <v>241486</v>
       </c>
       <c r="AL12" s="9">
-        <v>226033</v>
+        <v>227046</v>
       </c>
       <c r="AM12" s="9">
-        <v>306408</v>
+        <v>211510</v>
       </c>
       <c r="AN12" s="9">
-        <v>241486</v>
+        <v>240508</v>
       </c>
       <c r="AO12" s="9">
-        <v>227046</v>
+        <v>240432</v>
       </c>
       <c r="AP12" s="9">
-        <v>211510</v>
+        <v>191703</v>
       </c>
       <c r="AQ12" s="9">
-        <v>240508</v>
+        <v>133036</v>
       </c>
       <c r="AR12" s="9">
-        <v>240432</v>
+        <v>116577</v>
       </c>
       <c r="AS12" s="9">
-        <v>191703</v>
+        <v>131618</v>
       </c>
       <c r="AT12" s="9">
-        <v>133036</v>
+        <v>302187</v>
       </c>
       <c r="AU12" s="9">
-        <v>116577</v>
+        <v>161610</v>
       </c>
       <c r="AV12" s="9">
-        <v>131618</v>
+        <v>146511</v>
       </c>
       <c r="AW12" s="9">
-        <v>302187</v>
+        <v>255678</v>
       </c>
       <c r="AX12" s="9">
-        <v>161610</v>
+        <v>278409</v>
       </c>
       <c r="AY12" s="9">
-        <v>146511</v>
+        <v>268944</v>
       </c>
       <c r="AZ12" s="9">
-        <v>255678</v>
+        <v>172414</v>
       </c>
       <c r="BA12" s="9">
-        <v>278409</v>
+        <v>288224</v>
       </c>
       <c r="BB12" s="9">
-        <v>268944</v>
+        <v>214168</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1635,154 +1635,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>597693</v>
+        <v>576896</v>
       </c>
       <c r="F13" s="13">
-        <v>589882</v>
+        <v>554334</v>
       </c>
       <c r="G13" s="13">
-        <v>453846</v>
+        <v>245006</v>
       </c>
       <c r="H13" s="13">
-        <v>576896</v>
+        <v>60587</v>
       </c>
       <c r="I13" s="13">
-        <v>554334</v>
+        <v>516744</v>
       </c>
       <c r="J13" s="13">
-        <v>245006</v>
+        <v>581404</v>
       </c>
       <c r="K13" s="13">
-        <v>60587</v>
+        <v>570157</v>
       </c>
       <c r="L13" s="13">
-        <v>516744</v>
+        <v>567023</v>
       </c>
       <c r="M13" s="13">
-        <v>581404</v>
+        <v>567528</v>
       </c>
       <c r="N13" s="13">
-        <v>570157</v>
+        <v>550076</v>
       </c>
       <c r="O13" s="13">
-        <v>567023</v>
+        <v>514391</v>
       </c>
       <c r="P13" s="13">
-        <v>567528</v>
+        <v>545342</v>
       </c>
       <c r="Q13" s="13">
-        <v>550076</v>
+        <v>546755</v>
       </c>
       <c r="R13" s="13">
-        <v>514391</v>
+        <v>550227</v>
       </c>
       <c r="S13" s="13">
-        <v>545342</v>
+        <v>350481</v>
       </c>
       <c r="T13" s="13">
-        <v>546755</v>
+        <v>486620</v>
       </c>
       <c r="U13" s="13">
-        <v>550227</v>
+        <v>550730</v>
       </c>
       <c r="V13" s="13">
-        <v>350481</v>
+        <v>578202</v>
       </c>
       <c r="W13" s="13">
-        <v>486620</v>
+        <v>563356</v>
       </c>
       <c r="X13" s="13">
-        <v>550730</v>
+        <v>570158</v>
       </c>
       <c r="Y13" s="13">
-        <v>578202</v>
+        <v>545105</v>
       </c>
       <c r="Z13" s="13">
-        <v>563356</v>
+        <v>568657</v>
       </c>
       <c r="AA13" s="13">
-        <v>570158</v>
+        <v>366499</v>
       </c>
       <c r="AB13" s="13">
-        <v>545105</v>
+        <v>437716</v>
       </c>
       <c r="AC13" s="13">
-        <v>568657</v>
+        <v>271712</v>
       </c>
       <c r="AD13" s="13">
-        <v>366499</v>
+        <v>332706</v>
       </c>
       <c r="AE13" s="13">
-        <v>437716</v>
+        <v>294402</v>
       </c>
       <c r="AF13" s="13">
-        <v>271712</v>
+        <v>372733</v>
       </c>
       <c r="AG13" s="13">
-        <v>332706</v>
+        <v>573014</v>
       </c>
       <c r="AH13" s="13">
-        <v>294402</v>
+        <v>482842</v>
       </c>
       <c r="AI13" s="13">
-        <v>372733</v>
+        <v>490496</v>
       </c>
       <c r="AJ13" s="13">
-        <v>573014</v>
+        <v>665450</v>
       </c>
       <c r="AK13" s="13">
-        <v>482842</v>
+        <v>532153</v>
       </c>
       <c r="AL13" s="13">
-        <v>490496</v>
+        <v>490972</v>
       </c>
       <c r="AM13" s="13">
-        <v>665450</v>
+        <v>451689</v>
       </c>
       <c r="AN13" s="13">
-        <v>532153</v>
+        <v>510445</v>
       </c>
       <c r="AO13" s="13">
-        <v>490972</v>
+        <v>508885</v>
       </c>
       <c r="AP13" s="13">
-        <v>451689</v>
+        <v>406829</v>
       </c>
       <c r="AQ13" s="13">
-        <v>510445</v>
+        <v>272307</v>
       </c>
       <c r="AR13" s="13">
-        <v>508885</v>
+        <v>254156</v>
       </c>
       <c r="AS13" s="13">
-        <v>406829</v>
+        <v>290062</v>
       </c>
       <c r="AT13" s="13">
-        <v>272307</v>
+        <v>656190</v>
       </c>
       <c r="AU13" s="13">
-        <v>254156</v>
+        <v>354918</v>
       </c>
       <c r="AV13" s="13">
-        <v>290062</v>
+        <v>325837</v>
       </c>
       <c r="AW13" s="13">
-        <v>656190</v>
+        <v>564478</v>
       </c>
       <c r="AX13" s="13">
-        <v>354918</v>
+        <v>618779</v>
       </c>
       <c r="AY13" s="13">
-        <v>325837</v>
+        <v>598446</v>
       </c>
       <c r="AZ13" s="13">
-        <v>564478</v>
+        <v>387099</v>
       </c>
       <c r="BA13" s="13">
-        <v>618779</v>
+        <v>662400</v>
       </c>
       <c r="BB13" s="13">
-        <v>598446</v>
+        <v>462290</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2006,154 +2006,154 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>885228</v>
+        <v>860136</v>
       </c>
       <c r="F16" s="19">
-        <v>874029</v>
+        <v>825708</v>
       </c>
       <c r="G16" s="19">
-        <v>673998</v>
+        <v>358727</v>
       </c>
       <c r="H16" s="19">
-        <v>860136</v>
+        <v>88458</v>
       </c>
       <c r="I16" s="19">
-        <v>825708</v>
+        <v>773227</v>
       </c>
       <c r="J16" s="19">
-        <v>358727</v>
+        <v>870332</v>
       </c>
       <c r="K16" s="19">
-        <v>88458</v>
+        <v>855777</v>
       </c>
       <c r="L16" s="19">
-        <v>773227</v>
+        <v>848999</v>
       </c>
       <c r="M16" s="19">
-        <v>870332</v>
+        <v>798455</v>
       </c>
       <c r="N16" s="19">
-        <v>855777</v>
+        <v>816638</v>
       </c>
       <c r="O16" s="19">
-        <v>848999</v>
+        <v>763009</v>
       </c>
       <c r="P16" s="19">
-        <v>798455</v>
+        <v>802285</v>
       </c>
       <c r="Q16" s="19">
-        <v>816638</v>
+        <v>797523</v>
       </c>
       <c r="R16" s="19">
-        <v>763009</v>
+        <v>807522</v>
       </c>
       <c r="S16" s="19">
-        <v>802285</v>
+        <v>514754</v>
       </c>
       <c r="T16" s="19">
-        <v>797523</v>
+        <v>710484</v>
       </c>
       <c r="U16" s="19">
-        <v>807522</v>
+        <v>810013</v>
       </c>
       <c r="V16" s="19">
-        <v>514754</v>
+        <v>848267</v>
       </c>
       <c r="W16" s="19">
-        <v>710484</v>
+        <v>823833</v>
       </c>
       <c r="X16" s="19">
-        <v>810013</v>
+        <v>827104</v>
       </c>
       <c r="Y16" s="19">
-        <v>848267</v>
+        <v>790294</v>
       </c>
       <c r="Z16" s="19">
-        <v>823833</v>
+        <v>826977</v>
       </c>
       <c r="AA16" s="19">
-        <v>827104</v>
+        <v>541222</v>
       </c>
       <c r="AB16" s="19">
-        <v>790294</v>
+        <v>642250</v>
       </c>
       <c r="AC16" s="19">
-        <v>826977</v>
+        <v>401479</v>
       </c>
       <c r="AD16" s="19">
-        <v>541222</v>
+        <v>482392</v>
       </c>
       <c r="AE16" s="19">
-        <v>642250</v>
+        <v>422036</v>
       </c>
       <c r="AF16" s="19">
-        <v>401479</v>
+        <v>547180</v>
       </c>
       <c r="AG16" s="19">
-        <v>482392</v>
+        <v>835315</v>
       </c>
       <c r="AH16" s="19">
-        <v>422036</v>
+        <v>704538</v>
       </c>
       <c r="AI16" s="19">
-        <v>547180</v>
+        <v>716529</v>
       </c>
       <c r="AJ16" s="19">
-        <v>835315</v>
+        <v>971858</v>
       </c>
       <c r="AK16" s="19">
-        <v>704538</v>
+        <v>773639</v>
       </c>
       <c r="AL16" s="19">
-        <v>716529</v>
+        <v>718018</v>
       </c>
       <c r="AM16" s="19">
-        <v>971858</v>
+        <v>663199</v>
       </c>
       <c r="AN16" s="19">
-        <v>773639</v>
+        <v>750953</v>
       </c>
       <c r="AO16" s="19">
-        <v>718018</v>
+        <v>749317</v>
       </c>
       <c r="AP16" s="19">
-        <v>663199</v>
+        <v>598532</v>
       </c>
       <c r="AQ16" s="19">
-        <v>750953</v>
+        <v>405343</v>
       </c>
       <c r="AR16" s="19">
-        <v>749317</v>
+        <v>370733</v>
       </c>
       <c r="AS16" s="19">
-        <v>598532</v>
+        <v>421680</v>
       </c>
       <c r="AT16" s="19">
-        <v>405343</v>
+        <v>958377</v>
       </c>
       <c r="AU16" s="19">
-        <v>370733</v>
+        <v>516528</v>
       </c>
       <c r="AV16" s="19">
-        <v>421680</v>
+        <v>472348</v>
       </c>
       <c r="AW16" s="19">
-        <v>958377</v>
+        <v>820156</v>
       </c>
       <c r="AX16" s="19">
-        <v>516528</v>
+        <v>897188</v>
       </c>
       <c r="AY16" s="19">
-        <v>472348</v>
+        <v>867390</v>
       </c>
       <c r="AZ16" s="19">
-        <v>820156</v>
+        <v>559513</v>
       </c>
       <c r="BA16" s="19">
-        <v>897188</v>
+        <v>950624</v>
       </c>
       <c r="BB16" s="19">
-        <v>867390</v>
+        <v>676458</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2654,154 +2654,154 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>350903</v>
+        <v>345771</v>
       </c>
       <c r="F24" s="9">
-        <v>193275</v>
+        <v>320471</v>
       </c>
       <c r="G24" s="9">
-        <v>239019</v>
+        <v>189100</v>
       </c>
       <c r="H24" s="9">
-        <v>345771</v>
+        <v>6464</v>
       </c>
       <c r="I24" s="9">
-        <v>320471</v>
+        <v>202799</v>
       </c>
       <c r="J24" s="9">
-        <v>189100</v>
+        <v>262323</v>
       </c>
       <c r="K24" s="9">
-        <v>6464</v>
+        <v>275898</v>
       </c>
       <c r="L24" s="9">
-        <v>202799</v>
+        <v>282523</v>
       </c>
       <c r="M24" s="9">
-        <v>262323</v>
+        <v>283049</v>
       </c>
       <c r="N24" s="9">
-        <v>275898</v>
+        <v>249490</v>
       </c>
       <c r="O24" s="9">
-        <v>282523</v>
+        <v>200900</v>
       </c>
       <c r="P24" s="9">
-        <v>283049</v>
+        <v>350688</v>
       </c>
       <c r="Q24" s="9">
-        <v>249490</v>
+        <v>287395</v>
       </c>
       <c r="R24" s="9">
-        <v>200900</v>
+        <v>288275</v>
       </c>
       <c r="S24" s="9">
-        <v>350688</v>
+        <v>158667</v>
       </c>
       <c r="T24" s="9">
-        <v>287395</v>
+        <v>135939</v>
       </c>
       <c r="U24" s="9">
-        <v>288275</v>
+        <v>261080</v>
       </c>
       <c r="V24" s="9">
-        <v>158667</v>
+        <v>294473</v>
       </c>
       <c r="W24" s="9">
-        <v>135939</v>
+        <v>305042</v>
       </c>
       <c r="X24" s="9">
-        <v>261080</v>
+        <v>227249</v>
       </c>
       <c r="Y24" s="9">
-        <v>294473</v>
+        <v>231258</v>
       </c>
       <c r="Z24" s="9">
-        <v>305042</v>
+        <v>293509</v>
       </c>
       <c r="AA24" s="9">
-        <v>227249</v>
+        <v>188469</v>
       </c>
       <c r="AB24" s="9">
-        <v>231258</v>
+        <v>218814</v>
       </c>
       <c r="AC24" s="9">
-        <v>293509</v>
+        <v>103138</v>
       </c>
       <c r="AD24" s="9">
-        <v>188469</v>
+        <v>154183</v>
       </c>
       <c r="AE24" s="9">
-        <v>218814</v>
+        <v>72417</v>
       </c>
       <c r="AF24" s="9">
-        <v>103138</v>
+        <v>95944</v>
       </c>
       <c r="AG24" s="9">
-        <v>154183</v>
+        <v>262664</v>
       </c>
       <c r="AH24" s="9">
-        <v>72417</v>
+        <v>211221</v>
       </c>
       <c r="AI24" s="9">
-        <v>95944</v>
+        <v>257058</v>
       </c>
       <c r="AJ24" s="9">
-        <v>262664</v>
+        <v>315387</v>
       </c>
       <c r="AK24" s="9">
-        <v>211221</v>
+        <v>307143</v>
       </c>
       <c r="AL24" s="9">
-        <v>257058</v>
+        <v>149913</v>
       </c>
       <c r="AM24" s="9">
-        <v>315387</v>
+        <v>288939</v>
       </c>
       <c r="AN24" s="9">
-        <v>307143</v>
+        <v>199761</v>
       </c>
       <c r="AO24" s="9">
-        <v>149913</v>
+        <v>190634</v>
       </c>
       <c r="AP24" s="9">
-        <v>288939</v>
+        <v>153654</v>
       </c>
       <c r="AQ24" s="9">
-        <v>199761</v>
+        <v>140849</v>
       </c>
       <c r="AR24" s="9">
-        <v>190634</v>
+        <v>137360</v>
       </c>
       <c r="AS24" s="9">
-        <v>153654</v>
+        <v>111424</v>
       </c>
       <c r="AT24" s="9">
-        <v>140849</v>
+        <v>208494</v>
       </c>
       <c r="AU24" s="9">
-        <v>137360</v>
+        <v>278052</v>
       </c>
       <c r="AV24" s="9">
-        <v>111424</v>
+        <v>162374</v>
       </c>
       <c r="AW24" s="9">
-        <v>208494</v>
+        <v>260852</v>
       </c>
       <c r="AX24" s="9">
-        <v>278052</v>
+        <v>237518</v>
       </c>
       <c r="AY24" s="9">
-        <v>162374</v>
+        <v>298380</v>
       </c>
       <c r="AZ24" s="9">
-        <v>260852</v>
+        <v>186054</v>
       </c>
       <c r="BA24" s="9">
-        <v>237518</v>
+        <v>311096</v>
       </c>
       <c r="BB24" s="9">
-        <v>298380</v>
+        <v>126863</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -2813,154 +2813,154 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>136300</v>
+        <v>123567</v>
       </c>
       <c r="F25" s="13">
-        <v>128030</v>
+        <v>111297</v>
       </c>
       <c r="G25" s="13">
-        <v>101839</v>
+        <v>57206</v>
       </c>
       <c r="H25" s="13">
-        <v>123567</v>
+        <v>10396</v>
       </c>
       <c r="I25" s="13">
-        <v>111297</v>
+        <v>116386</v>
       </c>
       <c r="J25" s="13">
-        <v>57206</v>
+        <v>137622</v>
       </c>
       <c r="K25" s="13">
-        <v>10396</v>
+        <v>123223</v>
       </c>
       <c r="L25" s="13">
-        <v>116386</v>
+        <v>121169</v>
       </c>
       <c r="M25" s="13">
-        <v>137622</v>
+        <v>92945</v>
       </c>
       <c r="N25" s="13">
-        <v>123223</v>
+        <v>118112</v>
       </c>
       <c r="O25" s="13">
-        <v>121169</v>
+        <v>113097</v>
       </c>
       <c r="P25" s="13">
-        <v>92945</v>
+        <v>120048</v>
       </c>
       <c r="Q25" s="13">
-        <v>118112</v>
+        <v>112161</v>
       </c>
       <c r="R25" s="13">
-        <v>113097</v>
+        <v>93674</v>
       </c>
       <c r="S25" s="13">
-        <v>120048</v>
+        <v>55487</v>
       </c>
       <c r="T25" s="13">
-        <v>112161</v>
+        <v>74384</v>
       </c>
       <c r="U25" s="13">
-        <v>93674</v>
+        <v>96352</v>
       </c>
       <c r="V25" s="13">
-        <v>55487</v>
+        <v>114608</v>
       </c>
       <c r="W25" s="13">
-        <v>74384</v>
+        <v>110556</v>
       </c>
       <c r="X25" s="13">
-        <v>96352</v>
+        <v>107639</v>
       </c>
       <c r="Y25" s="13">
-        <v>114608</v>
+        <v>101988</v>
       </c>
       <c r="Z25" s="13">
-        <v>110556</v>
+        <v>121193</v>
       </c>
       <c r="AA25" s="13">
-        <v>107639</v>
+        <v>63766</v>
       </c>
       <c r="AB25" s="13">
-        <v>101988</v>
+        <v>71881</v>
       </c>
       <c r="AC25" s="13">
-        <v>121193</v>
+        <v>39231</v>
       </c>
       <c r="AD25" s="13">
-        <v>63766</v>
+        <v>46986</v>
       </c>
       <c r="AE25" s="13">
-        <v>71881</v>
+        <v>49585</v>
       </c>
       <c r="AF25" s="13">
-        <v>39231</v>
+        <v>66039</v>
       </c>
       <c r="AG25" s="13">
-        <v>46986</v>
+        <v>97676</v>
       </c>
       <c r="AH25" s="13">
-        <v>49585</v>
+        <v>82520</v>
       </c>
       <c r="AI25" s="13">
-        <v>66039</v>
+        <v>89625</v>
       </c>
       <c r="AJ25" s="13">
-        <v>97676</v>
+        <v>134805</v>
       </c>
       <c r="AK25" s="13">
-        <v>82520</v>
+        <v>93397</v>
       </c>
       <c r="AL25" s="13">
-        <v>89625</v>
+        <v>88193</v>
       </c>
       <c r="AM25" s="13">
-        <v>134805</v>
+        <v>64618</v>
       </c>
       <c r="AN25" s="13">
-        <v>93397</v>
+        <v>69257</v>
       </c>
       <c r="AO25" s="13">
-        <v>88193</v>
+        <v>71617</v>
       </c>
       <c r="AP25" s="13">
-        <v>64618</v>
+        <v>71905</v>
       </c>
       <c r="AQ25" s="13">
-        <v>69257</v>
+        <v>51603</v>
       </c>
       <c r="AR25" s="13">
-        <v>71617</v>
+        <v>43597</v>
       </c>
       <c r="AS25" s="13">
-        <v>71905</v>
+        <v>46946</v>
       </c>
       <c r="AT25" s="13">
-        <v>51603</v>
+        <v>110278</v>
       </c>
       <c r="AU25" s="13">
-        <v>43597</v>
+        <v>65202</v>
       </c>
       <c r="AV25" s="13">
-        <v>46946</v>
+        <v>55206</v>
       </c>
       <c r="AW25" s="13">
-        <v>110278</v>
+        <v>114289</v>
       </c>
       <c r="AX25" s="13">
-        <v>65202</v>
+        <v>134123</v>
       </c>
       <c r="AY25" s="13">
-        <v>55206</v>
+        <v>120675</v>
       </c>
       <c r="AZ25" s="13">
-        <v>114289</v>
+        <v>63449</v>
       </c>
       <c r="BA25" s="13">
-        <v>134123</v>
+        <v>92205</v>
       </c>
       <c r="BB25" s="13">
-        <v>120675</v>
+        <v>87252</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3398,154 +3398,154 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19">
-        <v>487203</v>
+        <v>469338</v>
       </c>
       <c r="F30" s="19">
-        <v>321305</v>
+        <v>431768</v>
       </c>
       <c r="G30" s="19">
-        <v>340858</v>
+        <v>246306</v>
       </c>
       <c r="H30" s="19">
-        <v>469338</v>
+        <v>16860</v>
       </c>
       <c r="I30" s="19">
-        <v>431768</v>
+        <v>319185</v>
       </c>
       <c r="J30" s="19">
-        <v>246306</v>
+        <v>399945</v>
       </c>
       <c r="K30" s="19">
-        <v>16860</v>
+        <v>399121</v>
       </c>
       <c r="L30" s="19">
-        <v>319185</v>
+        <v>403692</v>
       </c>
       <c r="M30" s="19">
-        <v>399945</v>
+        <v>375994</v>
       </c>
       <c r="N30" s="19">
-        <v>399121</v>
+        <v>367602</v>
       </c>
       <c r="O30" s="19">
-        <v>403692</v>
+        <v>313997</v>
       </c>
       <c r="P30" s="19">
-        <v>375994</v>
+        <v>470736</v>
       </c>
       <c r="Q30" s="19">
-        <v>367602</v>
+        <v>399556</v>
       </c>
       <c r="R30" s="19">
-        <v>313997</v>
+        <v>381949</v>
       </c>
       <c r="S30" s="19">
-        <v>470736</v>
+        <v>214154</v>
       </c>
       <c r="T30" s="19">
-        <v>399556</v>
+        <v>210323</v>
       </c>
       <c r="U30" s="19">
-        <v>381949</v>
+        <v>357432</v>
       </c>
       <c r="V30" s="19">
-        <v>214154</v>
+        <v>409081</v>
       </c>
       <c r="W30" s="19">
-        <v>210323</v>
+        <v>415598</v>
       </c>
       <c r="X30" s="19">
-        <v>357432</v>
+        <v>334888</v>
       </c>
       <c r="Y30" s="19">
-        <v>409081</v>
+        <v>333246</v>
       </c>
       <c r="Z30" s="19">
-        <v>415598</v>
+        <v>414702</v>
       </c>
       <c r="AA30" s="19">
-        <v>334888</v>
+        <v>252235</v>
       </c>
       <c r="AB30" s="19">
-        <v>333246</v>
+        <v>290695</v>
       </c>
       <c r="AC30" s="19">
-        <v>414702</v>
+        <v>142369</v>
       </c>
       <c r="AD30" s="19">
-        <v>252235</v>
+        <v>201169</v>
       </c>
       <c r="AE30" s="19">
-        <v>290695</v>
+        <v>122002</v>
       </c>
       <c r="AF30" s="19">
-        <v>142369</v>
+        <v>161983</v>
       </c>
       <c r="AG30" s="19">
-        <v>201169</v>
+        <v>360340</v>
       </c>
       <c r="AH30" s="19">
-        <v>122002</v>
+        <v>293741</v>
       </c>
       <c r="AI30" s="19">
-        <v>161983</v>
+        <v>346683</v>
       </c>
       <c r="AJ30" s="19">
-        <v>360340</v>
+        <v>450192</v>
       </c>
       <c r="AK30" s="19">
-        <v>293741</v>
+        <v>400540</v>
       </c>
       <c r="AL30" s="19">
-        <v>346683</v>
+        <v>238106</v>
       </c>
       <c r="AM30" s="19">
-        <v>450192</v>
+        <v>353557</v>
       </c>
       <c r="AN30" s="19">
-        <v>400540</v>
+        <v>269018</v>
       </c>
       <c r="AO30" s="19">
-        <v>238106</v>
+        <v>262251</v>
       </c>
       <c r="AP30" s="19">
-        <v>353557</v>
+        <v>225559</v>
       </c>
       <c r="AQ30" s="19">
-        <v>269018</v>
+        <v>192452</v>
       </c>
       <c r="AR30" s="19">
-        <v>262251</v>
+        <v>180957</v>
       </c>
       <c r="AS30" s="19">
-        <v>225559</v>
+        <v>158370</v>
       </c>
       <c r="AT30" s="19">
-        <v>192452</v>
+        <v>318772</v>
       </c>
       <c r="AU30" s="19">
-        <v>180957</v>
+        <v>343254</v>
       </c>
       <c r="AV30" s="19">
-        <v>158370</v>
+        <v>217580</v>
       </c>
       <c r="AW30" s="19">
-        <v>318772</v>
+        <v>375141</v>
       </c>
       <c r="AX30" s="19">
-        <v>343254</v>
+        <v>371641</v>
       </c>
       <c r="AY30" s="19">
-        <v>217580</v>
+        <v>419055</v>
       </c>
       <c r="AZ30" s="19">
-        <v>375141</v>
+        <v>249503</v>
       </c>
       <c r="BA30" s="19">
-        <v>371641</v>
+        <v>403301</v>
       </c>
       <c r="BB30" s="19">
-        <v>419055</v>
+        <v>214115</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4046,154 +4046,154 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>9893541</v>
+        <v>8457374</v>
       </c>
       <c r="F38" s="9">
-        <v>4634376</v>
+        <v>7806844</v>
       </c>
       <c r="G38" s="9">
-        <v>5974637</v>
+        <v>4789641</v>
       </c>
       <c r="H38" s="9">
-        <v>8457374</v>
+        <v>116646</v>
       </c>
       <c r="I38" s="9">
-        <v>7806844</v>
+        <v>5592861</v>
       </c>
       <c r="J38" s="9">
-        <v>4789641</v>
+        <v>7038460</v>
       </c>
       <c r="K38" s="9">
-        <v>116646</v>
+        <v>6712883</v>
       </c>
       <c r="L38" s="9">
-        <v>5592861</v>
+        <v>6981262</v>
       </c>
       <c r="M38" s="9">
-        <v>7038460</v>
+        <v>7724185</v>
       </c>
       <c r="N38" s="9">
-        <v>6712883</v>
+        <v>7529937</v>
       </c>
       <c r="O38" s="9">
-        <v>6981262</v>
+        <v>7261702</v>
       </c>
       <c r="P38" s="9">
-        <v>7724185</v>
+        <v>16570693</v>
       </c>
       <c r="Q38" s="9">
-        <v>7529937</v>
+        <v>16283392</v>
       </c>
       <c r="R38" s="9">
-        <v>7261702</v>
+        <v>18057243</v>
       </c>
       <c r="S38" s="9">
-        <v>16570693</v>
+        <v>11391054</v>
       </c>
       <c r="T38" s="9">
-        <v>16283392</v>
+        <v>9649868</v>
       </c>
       <c r="U38" s="9">
-        <v>18057243</v>
+        <v>18137465</v>
       </c>
       <c r="V38" s="9">
-        <v>11391054</v>
+        <v>20971831</v>
       </c>
       <c r="W38" s="9">
-        <v>9649868</v>
+        <v>20147116</v>
       </c>
       <c r="X38" s="9">
-        <v>18137465</v>
+        <v>14720762</v>
       </c>
       <c r="Y38" s="9">
-        <v>20971831</v>
+        <v>16342267</v>
       </c>
       <c r="Z38" s="9">
-        <v>20147116</v>
+        <v>22054259</v>
       </c>
       <c r="AA38" s="9">
-        <v>14720762</v>
+        <v>14384276</v>
       </c>
       <c r="AB38" s="9">
-        <v>16342267</v>
+        <v>20314240</v>
       </c>
       <c r="AC38" s="9">
-        <v>22054259</v>
+        <v>9875429</v>
       </c>
       <c r="AD38" s="9">
-        <v>14384276</v>
+        <v>13606921</v>
       </c>
       <c r="AE38" s="9">
-        <v>20314240</v>
+        <v>5878939</v>
       </c>
       <c r="AF38" s="9">
-        <v>9875429</v>
+        <v>7922251</v>
       </c>
       <c r="AG38" s="9">
-        <v>13606921</v>
+        <v>24647384</v>
       </c>
       <c r="AH38" s="9">
-        <v>5878939</v>
+        <v>19902637</v>
       </c>
       <c r="AI38" s="9">
-        <v>7922251</v>
+        <v>23752776</v>
       </c>
       <c r="AJ38" s="9">
-        <v>24647384</v>
+        <v>26916659</v>
       </c>
       <c r="AK38" s="9">
-        <v>19902637</v>
+        <v>25371847</v>
       </c>
       <c r="AL38" s="9">
-        <v>23752776</v>
+        <v>11669221</v>
       </c>
       <c r="AM38" s="9">
-        <v>26916659</v>
+        <v>22810644</v>
       </c>
       <c r="AN38" s="9">
-        <v>25371847</v>
+        <v>16241222</v>
       </c>
       <c r="AO38" s="9">
-        <v>11669221</v>
+        <v>15844297</v>
       </c>
       <c r="AP38" s="9">
-        <v>22810644</v>
+        <v>12839532</v>
       </c>
       <c r="AQ38" s="9">
-        <v>16241222</v>
+        <v>12540652</v>
       </c>
       <c r="AR38" s="9">
-        <v>15844297</v>
+        <v>12376829</v>
       </c>
       <c r="AS38" s="9">
-        <v>12839532</v>
+        <v>12208985</v>
       </c>
       <c r="AT38" s="9">
-        <v>12540652</v>
+        <v>23319179</v>
       </c>
       <c r="AU38" s="9">
-        <v>12376829</v>
+        <v>30658369</v>
       </c>
       <c r="AV38" s="9">
-        <v>12208985</v>
+        <v>14818683</v>
       </c>
       <c r="AW38" s="9">
-        <v>23319179</v>
+        <v>23948065</v>
       </c>
       <c r="AX38" s="9">
-        <v>30658369</v>
+        <v>22657815</v>
       </c>
       <c r="AY38" s="9">
-        <v>14818683</v>
+        <v>30205607</v>
       </c>
       <c r="AZ38" s="9">
-        <v>23948065</v>
+        <v>19403948</v>
       </c>
       <c r="BA38" s="9">
-        <v>22657815</v>
+        <v>32561412</v>
       </c>
       <c r="BB38" s="9">
-        <v>30205607</v>
+        <v>13570798</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -4205,154 +4205,154 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>60184</v>
+        <v>54562</v>
       </c>
       <c r="F39" s="13">
-        <v>56532</v>
+        <v>49144</v>
       </c>
       <c r="G39" s="13">
-        <v>44968</v>
+        <v>25260</v>
       </c>
       <c r="H39" s="13">
-        <v>54562</v>
+        <v>7305</v>
       </c>
       <c r="I39" s="13">
-        <v>49144</v>
+        <v>81786</v>
       </c>
       <c r="J39" s="13">
-        <v>25260</v>
+        <v>92090</v>
       </c>
       <c r="K39" s="13">
-        <v>7305</v>
+        <v>82822</v>
       </c>
       <c r="L39" s="13">
-        <v>81786</v>
+        <v>81441</v>
       </c>
       <c r="M39" s="13">
-        <v>92090</v>
+        <v>62471</v>
       </c>
       <c r="N39" s="13">
-        <v>82822</v>
+        <v>79387</v>
       </c>
       <c r="O39" s="13">
-        <v>81441</v>
+        <v>76015</v>
       </c>
       <c r="P39" s="13">
-        <v>62471</v>
+        <v>80688</v>
       </c>
       <c r="Q39" s="13">
-        <v>79387</v>
+        <v>75387</v>
       </c>
       <c r="R39" s="13">
-        <v>76015</v>
+        <v>62961</v>
       </c>
       <c r="S39" s="13">
-        <v>80688</v>
+        <v>37295</v>
       </c>
       <c r="T39" s="13">
-        <v>75387</v>
+        <v>49995</v>
       </c>
       <c r="U39" s="13">
-        <v>62961</v>
+        <v>64762</v>
       </c>
       <c r="V39" s="13">
-        <v>37295</v>
+        <v>91826</v>
       </c>
       <c r="W39" s="13">
-        <v>49995</v>
+        <v>88580</v>
       </c>
       <c r="X39" s="13">
-        <v>64762</v>
+        <v>86243</v>
       </c>
       <c r="Y39" s="13">
-        <v>91826</v>
+        <v>81715</v>
       </c>
       <c r="Z39" s="13">
-        <v>88580</v>
+        <v>97103</v>
       </c>
       <c r="AA39" s="13">
-        <v>86243</v>
+        <v>51091</v>
       </c>
       <c r="AB39" s="13">
-        <v>81715</v>
+        <v>57592</v>
       </c>
       <c r="AC39" s="13">
-        <v>97103</v>
+        <v>31433</v>
       </c>
       <c r="AD39" s="13">
-        <v>51091</v>
+        <v>37646</v>
       </c>
       <c r="AE39" s="13">
-        <v>57592</v>
+        <v>39732</v>
       </c>
       <c r="AF39" s="13">
-        <v>31433</v>
+        <v>52912</v>
       </c>
       <c r="AG39" s="13">
-        <v>37646</v>
+        <v>78260</v>
       </c>
       <c r="AH39" s="13">
-        <v>39732</v>
+        <v>66116</v>
       </c>
       <c r="AI39" s="13">
-        <v>52912</v>
+        <v>157981</v>
       </c>
       <c r="AJ39" s="13">
-        <v>78260</v>
+        <v>243020</v>
       </c>
       <c r="AK39" s="13">
-        <v>66116</v>
+        <v>168371</v>
       </c>
       <c r="AL39" s="13">
-        <v>157981</v>
+        <v>158990</v>
       </c>
       <c r="AM39" s="13">
-        <v>243020</v>
+        <v>116490</v>
       </c>
       <c r="AN39" s="13">
-        <v>168371</v>
+        <v>124853</v>
       </c>
       <c r="AO39" s="13">
-        <v>158990</v>
+        <v>129107</v>
       </c>
       <c r="AP39" s="13">
-        <v>116490</v>
+        <v>129627</v>
       </c>
       <c r="AQ39" s="13">
-        <v>124853</v>
+        <v>93027</v>
       </c>
       <c r="AR39" s="13">
-        <v>129107</v>
+        <v>78594</v>
       </c>
       <c r="AS39" s="13">
-        <v>129627</v>
+        <v>84633</v>
       </c>
       <c r="AT39" s="13">
-        <v>93027</v>
+        <v>220893</v>
       </c>
       <c r="AU39" s="13">
-        <v>78594</v>
+        <v>130603</v>
       </c>
       <c r="AV39" s="13">
-        <v>84633</v>
+        <v>110581</v>
       </c>
       <c r="AW39" s="13">
-        <v>220893</v>
+        <v>228927</v>
       </c>
       <c r="AX39" s="13">
-        <v>130603</v>
+        <v>268656</v>
       </c>
       <c r="AY39" s="13">
-        <v>110581</v>
+        <v>241719</v>
       </c>
       <c r="AZ39" s="13">
-        <v>228927</v>
+        <v>127092</v>
       </c>
       <c r="BA39" s="13">
-        <v>268656</v>
+        <v>184692</v>
       </c>
       <c r="BB39" s="13">
-        <v>241719</v>
+        <v>174771</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4872,14 +4872,14 @@
       <c r="L45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>70</v>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
       </c>
       <c r="P45" s="9">
         <v>0</v>
@@ -5163,154 +5163,154 @@
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17">
-        <v>9953725</v>
+        <v>8511936</v>
       </c>
       <c r="F47" s="17">
-        <v>4690908</v>
+        <v>7855988</v>
       </c>
       <c r="G47" s="17">
-        <v>6019605</v>
+        <v>4814901</v>
       </c>
       <c r="H47" s="17">
-        <v>8511936</v>
+        <v>123951</v>
       </c>
       <c r="I47" s="17">
-        <v>7855988</v>
+        <v>5674647</v>
       </c>
       <c r="J47" s="17">
-        <v>4814901</v>
+        <v>7130550</v>
       </c>
       <c r="K47" s="17">
-        <v>123951</v>
+        <v>6795705</v>
       </c>
       <c r="L47" s="17">
-        <v>5674647</v>
+        <v>7062703</v>
       </c>
       <c r="M47" s="17">
-        <v>7130550</v>
+        <v>7786656</v>
       </c>
       <c r="N47" s="17">
-        <v>6795705</v>
+        <v>7609324</v>
       </c>
       <c r="O47" s="17">
-        <v>7062703</v>
+        <v>7337717</v>
       </c>
       <c r="P47" s="17">
-        <v>7786656</v>
+        <v>16651381</v>
       </c>
       <c r="Q47" s="17">
-        <v>7609324</v>
+        <v>16358779</v>
       </c>
       <c r="R47" s="17">
-        <v>7337717</v>
+        <v>18120204</v>
       </c>
       <c r="S47" s="17">
-        <v>16651381</v>
+        <v>11428349</v>
       </c>
       <c r="T47" s="17">
-        <v>16358779</v>
+        <v>9699863</v>
       </c>
       <c r="U47" s="17">
-        <v>18120204</v>
+        <v>18202227</v>
       </c>
       <c r="V47" s="17">
-        <v>11428349</v>
+        <v>21063657</v>
       </c>
       <c r="W47" s="17">
-        <v>9699863</v>
+        <v>20235696</v>
       </c>
       <c r="X47" s="17">
-        <v>18202227</v>
+        <v>14807005</v>
       </c>
       <c r="Y47" s="17">
-        <v>21063657</v>
+        <v>16423982</v>
       </c>
       <c r="Z47" s="17">
-        <v>20235696</v>
+        <v>22151362</v>
       </c>
       <c r="AA47" s="17">
-        <v>14807005</v>
+        <v>14435367</v>
       </c>
       <c r="AB47" s="17">
-        <v>16423982</v>
+        <v>20371832</v>
       </c>
       <c r="AC47" s="17">
-        <v>22151362</v>
+        <v>9906862</v>
       </c>
       <c r="AD47" s="17">
-        <v>14435367</v>
+        <v>13644567</v>
       </c>
       <c r="AE47" s="17">
-        <v>20371832</v>
+        <v>5918671</v>
       </c>
       <c r="AF47" s="17">
-        <v>9906862</v>
+        <v>7975163</v>
       </c>
       <c r="AG47" s="17">
-        <v>13644567</v>
+        <v>24725644</v>
       </c>
       <c r="AH47" s="17">
-        <v>5918671</v>
+        <v>19968753</v>
       </c>
       <c r="AI47" s="17">
-        <v>7975163</v>
+        <v>23910757</v>
       </c>
       <c r="AJ47" s="17">
-        <v>24725644</v>
+        <v>27159679</v>
       </c>
       <c r="AK47" s="17">
-        <v>19968753</v>
+        <v>25540218</v>
       </c>
       <c r="AL47" s="17">
-        <v>23910757</v>
+        <v>11828211</v>
       </c>
       <c r="AM47" s="17">
-        <v>27159679</v>
+        <v>22927134</v>
       </c>
       <c r="AN47" s="17">
-        <v>25540218</v>
+        <v>16366075</v>
       </c>
       <c r="AO47" s="17">
-        <v>11828211</v>
+        <v>15973404</v>
       </c>
       <c r="AP47" s="17">
-        <v>22927134</v>
+        <v>12969159</v>
       </c>
       <c r="AQ47" s="17">
-        <v>16366075</v>
+        <v>12633679</v>
       </c>
       <c r="AR47" s="17">
-        <v>15973404</v>
+        <v>12455423</v>
       </c>
       <c r="AS47" s="17">
-        <v>12969159</v>
+        <v>12293618</v>
       </c>
       <c r="AT47" s="17">
-        <v>12633679</v>
+        <v>23540072</v>
       </c>
       <c r="AU47" s="17">
-        <v>12455423</v>
+        <v>30788972</v>
       </c>
       <c r="AV47" s="17">
-        <v>12293618</v>
+        <v>14929264</v>
       </c>
       <c r="AW47" s="17">
-        <v>23540072</v>
+        <v>24176992</v>
       </c>
       <c r="AX47" s="17">
-        <v>30788972</v>
+        <v>22926471</v>
       </c>
       <c r="AY47" s="17">
-        <v>14929264</v>
+        <v>30447326</v>
       </c>
       <c r="AZ47" s="17">
-        <v>24176992</v>
+        <v>19531040</v>
       </c>
       <c r="BA47" s="17">
-        <v>22926471</v>
+        <v>32746104</v>
       </c>
       <c r="BB47" s="17">
-        <v>30447326</v>
+        <v>13745569</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5811,154 +5811,154 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>28194518</v>
+        <v>24459466</v>
       </c>
       <c r="F55" s="9">
-        <v>23978145</v>
+        <v>24360532</v>
       </c>
       <c r="G55" s="9">
-        <v>24996494</v>
+        <v>25328614</v>
       </c>
       <c r="H55" s="9">
-        <v>24459466</v>
+        <v>18045483</v>
       </c>
       <c r="I55" s="9">
-        <v>24360532</v>
+        <v>27578346</v>
       </c>
       <c r="J55" s="9">
-        <v>25328614</v>
+        <v>26831228</v>
       </c>
       <c r="K55" s="9">
-        <v>18045483</v>
+        <v>24331059</v>
       </c>
       <c r="L55" s="9">
-        <v>27578346</v>
+        <v>24710436</v>
       </c>
       <c r="M55" s="9">
-        <v>26831228</v>
+        <v>27289244</v>
       </c>
       <c r="N55" s="9">
-        <v>24331059</v>
+        <v>30181289</v>
       </c>
       <c r="O55" s="9">
-        <v>24710436</v>
+        <v>36145783</v>
       </c>
       <c r="P55" s="9">
-        <v>27289244</v>
+        <v>47251953</v>
       </c>
       <c r="Q55" s="9">
-        <v>30181289</v>
+        <v>56658578</v>
       </c>
       <c r="R55" s="9">
-        <v>36145783</v>
+        <v>62639038</v>
       </c>
       <c r="S55" s="9">
-        <v>47251953</v>
+        <v>71792084</v>
       </c>
       <c r="T55" s="9">
-        <v>56658578</v>
+        <v>70986631</v>
       </c>
       <c r="U55" s="9">
-        <v>62639038</v>
+        <v>69470909</v>
       </c>
       <c r="V55" s="9">
-        <v>71792084</v>
+        <v>71218206</v>
       </c>
       <c r="W55" s="9">
-        <v>70986631</v>
+        <v>66047023</v>
       </c>
       <c r="X55" s="9">
-        <v>69470909</v>
+        <v>64778116</v>
       </c>
       <c r="Y55" s="9">
-        <v>71218206</v>
+        <v>70666818</v>
       </c>
       <c r="Z55" s="9">
-        <v>66047023</v>
+        <v>75139975</v>
       </c>
       <c r="AA55" s="9">
-        <v>64778116</v>
+        <v>76321898</v>
       </c>
       <c r="AB55" s="9">
-        <v>70666818</v>
+        <v>92837957</v>
       </c>
       <c r="AC55" s="9">
-        <v>75139975</v>
+        <v>95750120</v>
       </c>
       <c r="AD55" s="9">
-        <v>76321898</v>
+        <v>88251659</v>
       </c>
       <c r="AE55" s="9">
-        <v>92837957</v>
+        <v>81181753</v>
       </c>
       <c r="AF55" s="9">
-        <v>95750120</v>
+        <v>82571615</v>
       </c>
       <c r="AG55" s="9">
-        <v>88251659</v>
+        <v>93836010</v>
       </c>
       <c r="AH55" s="9">
-        <v>81181753</v>
+        <v>94226602</v>
       </c>
       <c r="AI55" s="9">
-        <v>82571615</v>
+        <v>92402543</v>
       </c>
       <c r="AJ55" s="9">
-        <v>93836010</v>
+        <v>85344967</v>
       </c>
       <c r="AK55" s="9">
-        <v>94226602</v>
+        <v>82605992</v>
       </c>
       <c r="AL55" s="9">
-        <v>92402543</v>
+        <v>77839747</v>
       </c>
       <c r="AM55" s="9">
-        <v>85344967</v>
+        <v>78946124</v>
       </c>
       <c r="AN55" s="9">
-        <v>82605992</v>
+        <v>81303267</v>
       </c>
       <c r="AO55" s="9">
-        <v>77839747</v>
+        <v>83113700</v>
       </c>
       <c r="AP55" s="9">
-        <v>78946124</v>
+        <v>83561217</v>
       </c>
       <c r="AQ55" s="9">
-        <v>81303267</v>
+        <v>89035873</v>
       </c>
       <c r="AR55" s="9">
-        <v>83113700</v>
+        <v>90105248</v>
       </c>
       <c r="AS55" s="9">
-        <v>83561217</v>
+        <v>109572103</v>
       </c>
       <c r="AT55" s="9">
-        <v>89035873</v>
+        <v>111845804</v>
       </c>
       <c r="AU55" s="9">
-        <v>90105248</v>
+        <v>110261473</v>
       </c>
       <c r="AV55" s="9">
-        <v>109572103</v>
+        <v>91262766</v>
       </c>
       <c r="AW55" s="9">
-        <v>111845804</v>
+        <v>91807098</v>
       </c>
       <c r="AX55" s="9">
-        <v>110261473</v>
+        <v>95393968</v>
       </c>
       <c r="AY55" s="9">
-        <v>91262766</v>
+        <v>101232010</v>
       </c>
       <c r="AZ55" s="9">
-        <v>91807098</v>
+        <v>104291871</v>
       </c>
       <c r="BA55" s="9">
-        <v>95393968</v>
+        <v>104666631</v>
       </c>
       <c r="BB55" s="9">
-        <v>101232010</v>
+        <v>106972114</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -5970,154 +5970,154 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>441555</v>
+        <v>441558</v>
       </c>
       <c r="F56" s="13">
-        <v>441553</v>
+        <v>441557</v>
       </c>
       <c r="G56" s="13">
-        <v>441560</v>
+        <v>441562</v>
       </c>
       <c r="H56" s="13">
-        <v>441558</v>
+        <v>702674</v>
       </c>
       <c r="I56" s="13">
-        <v>441557</v>
+        <v>702713</v>
       </c>
       <c r="J56" s="13">
-        <v>441562</v>
+        <v>669155</v>
       </c>
       <c r="K56" s="13">
-        <v>702674</v>
+        <v>672131</v>
       </c>
       <c r="L56" s="13">
-        <v>702713</v>
+        <v>672127</v>
       </c>
       <c r="M56" s="13">
-        <v>669155</v>
+        <v>672129</v>
       </c>
       <c r="N56" s="13">
+        <v>672133</v>
+      </c>
+      <c r="O56" s="13">
+        <v>672122</v>
+      </c>
+      <c r="P56" s="13">
         <v>672131</v>
       </c>
-      <c r="O56" s="13">
-        <v>672127</v>
-      </c>
-      <c r="P56" s="13">
+      <c r="Q56" s="13">
+        <v>672132</v>
+      </c>
+      <c r="R56" s="13">
         <v>672129</v>
       </c>
-      <c r="Q56" s="13">
-        <v>672133</v>
-      </c>
-      <c r="R56" s="13">
-        <v>672122</v>
-      </c>
       <c r="S56" s="13">
-        <v>672131</v>
+        <v>672132</v>
       </c>
       <c r="T56" s="13">
-        <v>672132</v>
+        <v>672120</v>
       </c>
       <c r="U56" s="13">
-        <v>672129</v>
+        <v>672140</v>
       </c>
       <c r="V56" s="13">
-        <v>672132</v>
+        <v>801218</v>
       </c>
       <c r="W56" s="13">
-        <v>672120</v>
+        <v>801223</v>
       </c>
       <c r="X56" s="13">
-        <v>672140</v>
+        <v>801224</v>
       </c>
       <c r="Y56" s="13">
-        <v>801218</v>
+        <v>801222</v>
       </c>
       <c r="Z56" s="13">
-        <v>801223</v>
+        <v>801226</v>
       </c>
       <c r="AA56" s="13">
+        <v>801226</v>
+      </c>
+      <c r="AB56" s="13">
+        <v>801213</v>
+      </c>
+      <c r="AC56" s="13">
+        <v>801229</v>
+      </c>
+      <c r="AD56" s="13">
+        <v>801217</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>801291</v>
+      </c>
+      <c r="AF56" s="13">
         <v>801224</v>
       </c>
-      <c r="AB56" s="13">
-        <v>801222</v>
-      </c>
-      <c r="AC56" s="13">
-        <v>801226</v>
-      </c>
-      <c r="AD56" s="13">
-        <v>801226</v>
-      </c>
-      <c r="AE56" s="13">
-        <v>801213</v>
-      </c>
-      <c r="AF56" s="13">
-        <v>801229</v>
-      </c>
       <c r="AG56" s="13">
-        <v>801217</v>
+        <v>801220</v>
       </c>
       <c r="AH56" s="13">
-        <v>801291</v>
+        <v>801212</v>
       </c>
       <c r="AI56" s="13">
-        <v>801224</v>
+        <v>1762689</v>
       </c>
       <c r="AJ56" s="13">
-        <v>801220</v>
+        <v>1802752</v>
       </c>
       <c r="AK56" s="13">
-        <v>801212</v>
+        <v>1802745</v>
       </c>
       <c r="AL56" s="13">
-        <v>1762689</v>
+        <v>1802751</v>
       </c>
       <c r="AM56" s="13">
-        <v>1802752</v>
+        <v>1802748</v>
       </c>
       <c r="AN56" s="13">
-        <v>1802745</v>
+        <v>1802749</v>
       </c>
       <c r="AO56" s="13">
-        <v>1802751</v>
+        <v>1802742</v>
       </c>
       <c r="AP56" s="13">
-        <v>1802748</v>
+        <v>1802754</v>
       </c>
       <c r="AQ56" s="13">
-        <v>1802749</v>
+        <v>1802744</v>
       </c>
       <c r="AR56" s="13">
-        <v>1802742</v>
+        <v>1802739</v>
       </c>
       <c r="AS56" s="13">
-        <v>1802754</v>
+        <v>1802773</v>
       </c>
       <c r="AT56" s="13">
-        <v>1802744</v>
+        <v>2003056</v>
       </c>
       <c r="AU56" s="13">
-        <v>1802739</v>
+        <v>2003052</v>
       </c>
       <c r="AV56" s="13">
-        <v>1802773</v>
+        <v>2003061</v>
       </c>
       <c r="AW56" s="13">
-        <v>2003056</v>
+        <v>2003054</v>
       </c>
       <c r="AX56" s="13">
-        <v>2003052</v>
+        <v>2003057</v>
       </c>
       <c r="AY56" s="13">
-        <v>2003061</v>
+        <v>2003058</v>
       </c>
       <c r="AZ56" s="13">
-        <v>2003054</v>
+        <v>2003058</v>
       </c>
       <c r="BA56" s="13">
-        <v>2003057</v>
+        <v>2003058</v>
       </c>
       <c r="BB56" s="13">
-        <v>2003058</v>
+        <v>2003060</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -6696,19 +6696,19 @@
         <v>70</v>
       </c>
       <c r="AX63" s="13">
-        <v>6884245</v>
+        <v>16934509</v>
       </c>
       <c r="AY63" s="13">
-        <v>6299340</v>
+        <v>11667349</v>
       </c>
       <c r="AZ63" s="13">
-        <v>15523881</v>
+        <v>10509410</v>
       </c>
       <c r="BA63" s="13">
-        <v>16934509</v>
+        <v>14030083</v>
       </c>
       <c r="BB63" s="13">
-        <v>11667349</v>
+        <v>10473185</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -6855,19 +6855,19 @@
         <v>70</v>
       </c>
       <c r="AX64" s="9">
-        <v>187330</v>
+        <v>606328</v>
       </c>
       <c r="AY64" s="9">
-        <v>153088</v>
+        <v>286803</v>
       </c>
       <c r="AZ64" s="9">
-        <v>567434</v>
+        <v>482416</v>
       </c>
       <c r="BA64" s="9">
-        <v>606328</v>
+        <v>563452</v>
       </c>
       <c r="BB64" s="9">
-        <v>286803</v>
+        <v>461010</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7012,19 +7012,19 @@
         <v>0</v>
       </c>
       <c r="AX65" s="19">
-        <v>7071575</v>
+        <v>17540837</v>
       </c>
       <c r="AY65" s="19">
-        <v>6452428</v>
+        <v>11954152</v>
       </c>
       <c r="AZ65" s="19">
-        <v>16091315</v>
+        <v>10991826</v>
       </c>
       <c r="BA65" s="19">
-        <v>17540837</v>
+        <v>14593535</v>
       </c>
       <c r="BB65" s="19">
-        <v>11954152</v>
+        <v>10934195</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7603,19 +7603,19 @@
         <v>70</v>
       </c>
       <c r="AX72" s="13">
-        <v>137440256</v>
+        <v>241614368</v>
       </c>
       <c r="AY72" s="13">
-        <v>125762936</v>
+        <v>232932352</v>
       </c>
       <c r="AZ72" s="13">
-        <v>221488128</v>
+        <v>149943781</v>
       </c>
       <c r="BA72" s="13">
-        <v>241614368</v>
+        <v>241897984</v>
       </c>
       <c r="BB72" s="13">
-        <v>232932352</v>
+        <v>180572160</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -7762,19 +7762,19 @@
         <v>70</v>
       </c>
       <c r="AX73" s="9">
-        <v>9315264</v>
+        <v>15116620</v>
       </c>
       <c r="AY73" s="9">
-        <v>7612544</v>
+        <v>14261731</v>
       </c>
       <c r="AZ73" s="9">
-        <v>14146942</v>
+        <v>12027325</v>
       </c>
       <c r="BA73" s="9">
-        <v>15116620</v>
+        <v>16191161</v>
       </c>
       <c r="BB73" s="9">
-        <v>14261731</v>
+        <v>13247424</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8353,7 +8353,7 @@
         <v>70</v>
       </c>
       <c r="AX80" s="13">
-        <v>50089</v>
+        <v>70089</v>
       </c>
       <c r="AY80" s="13">
         <v>50089</v>
@@ -8362,10 +8362,10 @@
         <v>70089</v>
       </c>
       <c r="BA80" s="13">
-        <v>70089</v>
+        <v>58000</v>
       </c>
       <c r="BB80" s="13">
-        <v>50089</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>70</v>
       </c>
       <c r="AX81" s="9">
-        <v>20110</v>
+        <v>40110</v>
       </c>
       <c r="AY81" s="9">
         <v>20110</v>
@@ -8521,10 +8521,10 @@
         <v>40110</v>
       </c>
       <c r="BA81" s="9">
-        <v>40110</v>
+        <v>34800</v>
       </c>
       <c r="BB81" s="9">
-        <v>20110</v>
+        <v>34800</v>
       </c>
     </row>
   </sheetData>
